--- a/user-data/out-oof-gross/out-oof-gross.xlsx
+++ b/user-data/out-oof-gross/out-oof-gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>Source: NA</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -707,32 +704,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -748,11 +745,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/out-oof-gross/out-oof-gross.xlsx
+++ b/user-data/out-oof-gross/out-oof-gross.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -328,7 +328,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/out-oof-gross/out-oof-gross.xlsx
+++ b/user-data/out-oof-gross/out-oof-gross.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -334,7 +334,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -747,6 +750,11 @@
         <v>108</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/out-oof-gross/out-oof-gross.xlsx
+++ b/user-data/out-oof-gross/out-oof-gross.xlsx
@@ -259,7 +259,7 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>US</t>
@@ -343,7 +343,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/out-oof-gross/out-oof-gross.xlsx
+++ b/user-data/out-oof-gross/out-oof-gross.xlsx
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Description: Gross other official flows provided, US$.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>

--- a/user-data/out-oof-gross/out-oof-gross.xlsx
+++ b/user-data/out-oof-gross/out-oof-gross.xlsx
@@ -28,238 +28,238 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">afdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Development Bank (AfDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arab-fund-afesd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Fund (AFESD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Development Bank (ADB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean Development Bank (CarDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Bank for Reconstruction and Development (EBRD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Bank for Reconstruction and Development (IBRD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Finance Corporation (IFC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Fund for Agricultural Development (IFAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islamic-dev-bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Development Bank (IsDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nordic-dev-fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordic Development Fund (NDF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEC Fund for International Development (OFID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">afdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Development Bank (AfDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arab-fund-afesd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab Fund (AFESD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian Development Bank (ADB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">badea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean Development Bank (CarDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Bank for Reconstruction and Development (EBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
     <t xml:space="preserve">GB</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Bank for Reconstruction and Development (IBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Fund for Agricultural Development (IFAD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Finance Corporation (IFC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islamic-dev-bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamic Development Bank (IsDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nordic-dev-fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordic Development Fund (NDF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ofid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEC Fund for International Development (OFID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
   </si>
   <si>
     <t xml:space="preserve">US</t>
@@ -798,7 +798,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>766930000</v>
       </c>
     </row>
     <row r="3">
@@ -812,7 +812,7 @@
         <v>2001</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>969130000</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>2002</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1032810000</v>
       </c>
     </row>
     <row r="5">
@@ -840,7 +840,7 @@
         <v>2003</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1289640000</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>2004</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1191190000</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>2005</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1008960000</v>
       </c>
     </row>
     <row r="8">
@@ -882,7 +882,7 @@
         <v>2006</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>955580000</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>2007</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1495250000</v>
       </c>
     </row>
     <row r="10">
@@ -910,7 +910,7 @@
         <v>2008</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1139660000</v>
       </c>
     </row>
     <row r="11">
@@ -924,7 +924,7 @@
         <v>2009</v>
       </c>
       <c r="D11" t="n">
-        <v>13420000</v>
+        <v>3803070000</v>
       </c>
     </row>
     <row r="12">
@@ -938,7 +938,7 @@
         <v>2010</v>
       </c>
       <c r="D12" t="n">
-        <v>29620000</v>
+        <v>2120970000</v>
       </c>
     </row>
     <row r="13">
@@ -952,7 +952,7 @@
         <v>2011</v>
       </c>
       <c r="D13" t="n">
-        <v>23970000</v>
+        <v>2977940000</v>
       </c>
     </row>
     <row r="14">
@@ -966,7 +966,7 @@
         <v>2012</v>
       </c>
       <c r="D14" t="n">
-        <v>60820000</v>
+        <v>3510110000</v>
       </c>
     </row>
     <row r="15">
@@ -980,7 +980,7 @@
         <v>2013</v>
       </c>
       <c r="D15" t="n">
-        <v>7890000</v>
+        <v>2302030000</v>
       </c>
     </row>
     <row r="16">
@@ -994,7 +994,7 @@
         <v>2000</v>
       </c>
       <c r="D16" t="n">
-        <v>766930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1008,7 +1008,7 @@
         <v>2001</v>
       </c>
       <c r="D17" t="n">
-        <v>969130000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2002</v>
       </c>
       <c r="D18" t="n">
-        <v>1032810000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1036,7 +1036,7 @@
         <v>2003</v>
       </c>
       <c r="D19" t="n">
-        <v>1289640000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1050,7 +1050,7 @@
         <v>2004</v>
       </c>
       <c r="D20" t="n">
-        <v>1191190000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1064,7 +1064,7 @@
         <v>2005</v>
       </c>
       <c r="D21" t="n">
-        <v>1008960000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1078,7 @@
         <v>2006</v>
       </c>
       <c r="D22" t="n">
-        <v>955580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1092,7 +1092,7 @@
         <v>2007</v>
       </c>
       <c r="D23" t="n">
-        <v>1495250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>2008</v>
       </c>
       <c r="D24" t="n">
-        <v>1139660000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1120,7 +1120,7 @@
         <v>2009</v>
       </c>
       <c r="D25" t="n">
-        <v>3803070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1134,7 +1134,7 @@
         <v>2010</v>
       </c>
       <c r="D26" t="n">
-        <v>2120970000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1148,7 +1148,7 @@
         <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>2977940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1162,7 +1162,7 @@
         <v>2012</v>
       </c>
       <c r="D28" t="n">
-        <v>3510110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1176,7 +1176,7 @@
         <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>2302030000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1582,7 +1582,7 @@
         <v>2000</v>
       </c>
       <c r="D58" t="n">
-        <v>270870000</v>
+        <v>1576950000</v>
       </c>
     </row>
     <row r="59">
@@ -1596,7 +1596,7 @@
         <v>2001</v>
       </c>
       <c r="D59" t="n">
-        <v>188140000</v>
+        <v>168360000</v>
       </c>
     </row>
     <row r="60">
@@ -1610,7 +1610,7 @@
         <v>2002</v>
       </c>
       <c r="D60" t="n">
-        <v>251160000</v>
+        <v>142970000</v>
       </c>
     </row>
     <row r="61">
@@ -1624,7 +1624,7 @@
         <v>2003</v>
       </c>
       <c r="D61" t="n">
-        <v>216560000</v>
+        <v>248090000</v>
       </c>
     </row>
     <row r="62">
@@ -1638,7 +1638,7 @@
         <v>2004</v>
       </c>
       <c r="D62" t="n">
-        <v>164270000</v>
+        <v>179100000</v>
       </c>
     </row>
     <row r="63">
@@ -1652,7 +1652,7 @@
         <v>2005</v>
       </c>
       <c r="D63" t="n">
-        <v>659210000</v>
+        <v>179090000</v>
       </c>
     </row>
     <row r="64">
@@ -1666,7 +1666,7 @@
         <v>2006</v>
       </c>
       <c r="D64" t="n">
-        <v>169470000</v>
+        <v>316090000</v>
       </c>
     </row>
     <row r="65">
@@ -1680,7 +1680,7 @@
         <v>2007</v>
       </c>
       <c r="D65" t="n">
-        <v>101590000</v>
+        <v>387630000</v>
       </c>
     </row>
     <row r="66">
@@ -1694,7 +1694,7 @@
         <v>2008</v>
       </c>
       <c r="D66" t="n">
-        <v>269460000</v>
+        <v>200920000</v>
       </c>
     </row>
     <row r="67">
@@ -1708,7 +1708,7 @@
         <v>2009</v>
       </c>
       <c r="D67" t="n">
-        <v>183810000</v>
+        <v>540650000</v>
       </c>
     </row>
     <row r="68">
@@ -1722,7 +1722,7 @@
         <v>2010</v>
       </c>
       <c r="D68" t="n">
-        <v>154200000</v>
+        <v>318970000</v>
       </c>
     </row>
     <row r="69">
@@ -1736,7 +1736,7 @@
         <v>2011</v>
       </c>
       <c r="D69" t="n">
-        <v>227120000</v>
+        <v>260910000</v>
       </c>
     </row>
     <row r="70">
@@ -1750,7 +1750,7 @@
         <v>2012</v>
       </c>
       <c r="D70" t="n">
-        <v>147710000</v>
+        <v>326860000</v>
       </c>
     </row>
     <row r="71">
@@ -1764,7 +1764,7 @@
         <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>617750000</v>
+        <v>492930000</v>
       </c>
     </row>
     <row r="72">
@@ -1778,7 +1778,7 @@
         <v>2000</v>
       </c>
       <c r="D72" t="n">
-        <v>1576950000</v>
+        <v>270870000</v>
       </c>
     </row>
     <row r="73">
@@ -1792,7 +1792,7 @@
         <v>2001</v>
       </c>
       <c r="D73" t="n">
-        <v>168360000</v>
+        <v>188140000</v>
       </c>
     </row>
     <row r="74">
@@ -1806,7 +1806,7 @@
         <v>2002</v>
       </c>
       <c r="D74" t="n">
-        <v>142970000</v>
+        <v>251160000</v>
       </c>
     </row>
     <row r="75">
@@ -1820,7 +1820,7 @@
         <v>2003</v>
       </c>
       <c r="D75" t="n">
-        <v>248090000</v>
+        <v>216560000</v>
       </c>
     </row>
     <row r="76">
@@ -1834,7 +1834,7 @@
         <v>2004</v>
       </c>
       <c r="D76" t="n">
-        <v>179100000</v>
+        <v>164270000</v>
       </c>
     </row>
     <row r="77">
@@ -1848,7 +1848,7 @@
         <v>2005</v>
       </c>
       <c r="D77" t="n">
-        <v>179090000</v>
+        <v>659210000</v>
       </c>
     </row>
     <row r="78">
@@ -1862,7 +1862,7 @@
         <v>2006</v>
       </c>
       <c r="D78" t="n">
-        <v>316090000</v>
+        <v>169470000</v>
       </c>
     </row>
     <row r="79">
@@ -1876,7 +1876,7 @@
         <v>2007</v>
       </c>
       <c r="D79" t="n">
-        <v>387630000</v>
+        <v>101590000</v>
       </c>
     </row>
     <row r="80">
@@ -1890,7 +1890,7 @@
         <v>2008</v>
       </c>
       <c r="D80" t="n">
-        <v>200920000</v>
+        <v>269460000</v>
       </c>
     </row>
     <row r="81">
@@ -1904,7 +1904,7 @@
         <v>2009</v>
       </c>
       <c r="D81" t="n">
-        <v>540650000</v>
+        <v>183810000</v>
       </c>
     </row>
     <row r="82">
@@ -1918,7 +1918,7 @@
         <v>2010</v>
       </c>
       <c r="D82" t="n">
-        <v>318970000</v>
+        <v>154200000</v>
       </c>
     </row>
     <row r="83">
@@ -1932,7 +1932,7 @@
         <v>2011</v>
       </c>
       <c r="D83" t="n">
-        <v>260910000</v>
+        <v>227120000</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         <v>2012</v>
       </c>
       <c r="D84" t="n">
-        <v>326860000</v>
+        <v>147710000</v>
       </c>
     </row>
     <row r="85">
@@ -1960,7 +1960,7 @@
         <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>492930000</v>
+        <v>617750000</v>
       </c>
     </row>
     <row r="86">
@@ -1974,7 +1974,7 @@
         <v>2000</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>92130000</v>
       </c>
     </row>
     <row r="87">
@@ -1988,7 +1988,7 @@
         <v>2001</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>71700000</v>
       </c>
     </row>
     <row r="88">
@@ -2002,7 +2002,7 @@
         <v>2002</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>229050000</v>
       </c>
     </row>
     <row r="89">
@@ -2016,7 +2016,7 @@
         <v>2003</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1367570000</v>
       </c>
     </row>
     <row r="90">
@@ -2030,7 +2030,7 @@
         <v>2004</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>29210000</v>
       </c>
     </row>
     <row r="91">
@@ -2044,7 +2044,7 @@
         <v>2005</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>548810000</v>
       </c>
     </row>
     <row r="92">
@@ -2058,7 +2058,7 @@
         <v>2006</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>2007</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>31850000</v>
       </c>
     </row>
     <row r="94">
@@ -2086,7 +2086,7 @@
         <v>2008</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>49930000</v>
       </c>
     </row>
     <row r="95">
@@ -2100,7 +2100,7 @@
         <v>2009</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>126160000</v>
       </c>
     </row>
     <row r="96">
@@ -2114,7 +2114,7 @@
         <v>2010</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>19360000</v>
       </c>
     </row>
     <row r="97">
@@ -2128,7 +2128,7 @@
         <v>2011</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>9990000</v>
       </c>
     </row>
     <row r="98">
@@ -2142,7 +2142,7 @@
         <v>2012</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>146760000</v>
       </c>
     </row>
     <row r="99">
@@ -2156,7 +2156,7 @@
         <v>2013</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>187040000</v>
       </c>
     </row>
     <row r="100">
@@ -2170,7 +2170,7 @@
         <v>2000</v>
       </c>
       <c r="D100" t="n">
-        <v>92130000</v>
+        <v>2364870000</v>
       </c>
     </row>
     <row r="101">
@@ -2184,7 +2184,7 @@
         <v>2001</v>
       </c>
       <c r="D101" t="n">
-        <v>71700000</v>
+        <v>2519900000</v>
       </c>
     </row>
     <row r="102">
@@ -2198,7 +2198,7 @@
         <v>2002</v>
       </c>
       <c r="D102" t="n">
-        <v>229050000</v>
+        <v>2018320000</v>
       </c>
     </row>
     <row r="103">
@@ -2212,7 +2212,7 @@
         <v>2003</v>
       </c>
       <c r="D103" t="n">
-        <v>1367570000</v>
+        <v>1251520000</v>
       </c>
     </row>
     <row r="104">
@@ -2226,7 +2226,7 @@
         <v>2004</v>
       </c>
       <c r="D104" t="n">
-        <v>29210000</v>
+        <v>1018850000</v>
       </c>
     </row>
     <row r="105">
@@ -2240,7 +2240,7 @@
         <v>2005</v>
       </c>
       <c r="D105" t="n">
-        <v>548810000</v>
+        <v>1843840000</v>
       </c>
     </row>
     <row r="106">
@@ -2254,7 +2254,7 @@
         <v>2006</v>
       </c>
       <c r="D106" t="n">
-        <v>33950000</v>
+        <v>2836590000</v>
       </c>
     </row>
     <row r="107">
@@ -2268,7 +2268,7 @@
         <v>2007</v>
       </c>
       <c r="D107" t="n">
-        <v>31850000</v>
+        <v>1944780000</v>
       </c>
     </row>
     <row r="108">
@@ -2282,7 +2282,7 @@
         <v>2008</v>
       </c>
       <c r="D108" t="n">
-        <v>49930000</v>
+        <v>3448810000</v>
       </c>
     </row>
     <row r="109">
@@ -2296,7 +2296,7 @@
         <v>2009</v>
       </c>
       <c r="D109" t="n">
-        <v>126160000</v>
+        <v>1828010000</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>2010</v>
       </c>
       <c r="D110" t="n">
-        <v>19360000</v>
+        <v>3586720000</v>
       </c>
     </row>
     <row r="111">
@@ -2324,7 +2324,7 @@
         <v>2011</v>
       </c>
       <c r="D111" t="n">
-        <v>9990000</v>
+        <v>10580610000</v>
       </c>
     </row>
     <row r="112">
@@ -2338,7 +2338,7 @@
         <v>2012</v>
       </c>
       <c r="D112" t="n">
-        <v>146760000</v>
+        <v>3996690000</v>
       </c>
     </row>
     <row r="113">
@@ -2352,7 +2352,7 @@
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>187040000</v>
+        <v>3228360000</v>
       </c>
     </row>
     <row r="114">
@@ -2366,7 +2366,7 @@
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>2364870000</v>
+        <v>99040000</v>
       </c>
     </row>
     <row r="115">
@@ -2380,7 +2380,7 @@
         <v>2001</v>
       </c>
       <c r="D115" t="n">
-        <v>2519900000</v>
+        <v>79520000</v>
       </c>
     </row>
     <row r="116">
@@ -2394,7 +2394,7 @@
         <v>2002</v>
       </c>
       <c r="D116" t="n">
-        <v>2018320000</v>
+        <v>164580000</v>
       </c>
     </row>
     <row r="117">
@@ -2408,7 +2408,7 @@
         <v>2003</v>
       </c>
       <c r="D117" t="n">
-        <v>1251520000</v>
+        <v>99270000</v>
       </c>
     </row>
     <row r="118">
@@ -2422,7 +2422,7 @@
         <v>2004</v>
       </c>
       <c r="D118" t="n">
-        <v>1018850000</v>
+        <v>193310000</v>
       </c>
     </row>
     <row r="119">
@@ -2436,7 +2436,7 @@
         <v>2005</v>
       </c>
       <c r="D119" t="n">
-        <v>1843840000</v>
+        <v>41180000</v>
       </c>
     </row>
     <row r="120">
@@ -2450,7 +2450,7 @@
         <v>2006</v>
       </c>
       <c r="D120" t="n">
-        <v>2836590000</v>
+        <v>97180000</v>
       </c>
     </row>
     <row r="121">
@@ -2464,7 +2464,7 @@
         <v>2007</v>
       </c>
       <c r="D121" t="n">
-        <v>1944780000</v>
+        <v>109420000</v>
       </c>
     </row>
     <row r="122">
@@ -2478,7 +2478,7 @@
         <v>2008</v>
       </c>
       <c r="D122" t="n">
-        <v>3448810000</v>
+        <v>103100000</v>
       </c>
     </row>
     <row r="123">
@@ -2492,7 +2492,7 @@
         <v>2009</v>
       </c>
       <c r="D123" t="n">
-        <v>1828010000</v>
+        <v>119780000</v>
       </c>
     </row>
     <row r="124">
@@ -2506,7 +2506,7 @@
         <v>2010</v>
       </c>
       <c r="D124" t="n">
-        <v>3586720000</v>
+        <v>256690000</v>
       </c>
     </row>
     <row r="125">
@@ -2520,7 +2520,7 @@
         <v>2011</v>
       </c>
       <c r="D125" t="n">
-        <v>10580610000</v>
+        <v>81130000</v>
       </c>
     </row>
     <row r="126">
@@ -2534,7 +2534,7 @@
         <v>2012</v>
       </c>
       <c r="D126" t="n">
-        <v>3996690000</v>
+        <v>36000000</v>
       </c>
     </row>
     <row r="127">
@@ -2548,7 +2548,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>3228360000</v>
+        <v>54330000</v>
       </c>
     </row>
     <row r="128">
@@ -2562,7 +2562,7 @@
         <v>2000</v>
       </c>
       <c r="D128" t="n">
-        <v>99040000</v>
+        <v>16200000</v>
       </c>
     </row>
     <row r="129">
@@ -2576,7 +2576,7 @@
         <v>2001</v>
       </c>
       <c r="D129" t="n">
-        <v>79520000</v>
+        <v>12200000</v>
       </c>
     </row>
     <row r="130">
@@ -2590,7 +2590,7 @@
         <v>2002</v>
       </c>
       <c r="D130" t="n">
-        <v>164580000</v>
+        <v>15110000</v>
       </c>
     </row>
     <row r="131">
@@ -2604,7 +2604,7 @@
         <v>2003</v>
       </c>
       <c r="D131" t="n">
-        <v>99270000</v>
+        <v>71490000</v>
       </c>
     </row>
     <row r="132">
@@ -2618,7 +2618,7 @@
         <v>2004</v>
       </c>
       <c r="D132" t="n">
-        <v>193310000</v>
+        <v>58910000</v>
       </c>
     </row>
     <row r="133">
@@ -2632,7 +2632,7 @@
         <v>2005</v>
       </c>
       <c r="D133" t="n">
-        <v>41180000</v>
+        <v>31560000</v>
       </c>
     </row>
     <row r="134">
@@ -2646,7 +2646,7 @@
         <v>2006</v>
       </c>
       <c r="D134" t="n">
-        <v>97180000</v>
+        <v>55470000</v>
       </c>
     </row>
     <row r="135">
@@ -2660,7 +2660,7 @@
         <v>2007</v>
       </c>
       <c r="D135" t="n">
-        <v>109420000</v>
+        <v>30830000</v>
       </c>
     </row>
     <row r="136">
@@ -2674,7 +2674,7 @@
         <v>2008</v>
       </c>
       <c r="D136" t="n">
-        <v>103100000</v>
+        <v>48340000</v>
       </c>
     </row>
     <row r="137">
@@ -2688,7 +2688,7 @@
         <v>2009</v>
       </c>
       <c r="D137" t="n">
-        <v>119780000</v>
+        <v>36750000</v>
       </c>
     </row>
     <row r="138">
@@ -2702,7 +2702,7 @@
         <v>2010</v>
       </c>
       <c r="D138" t="n">
-        <v>256690000</v>
+        <v>39450000</v>
       </c>
     </row>
     <row r="139">
@@ -2716,7 +2716,7 @@
         <v>2011</v>
       </c>
       <c r="D139" t="n">
-        <v>81130000</v>
+        <v>43160000</v>
       </c>
     </row>
     <row r="140">
@@ -2730,7 +2730,7 @@
         <v>2012</v>
       </c>
       <c r="D140" t="n">
-        <v>36000000</v>
+        <v>37110000</v>
       </c>
     </row>
     <row r="141">
@@ -2744,7 +2744,7 @@
         <v>2013</v>
       </c>
       <c r="D141" t="n">
-        <v>54330000</v>
+        <v>44530000</v>
       </c>
     </row>
     <row r="142">
@@ -2758,7 +2758,7 @@
         <v>2000</v>
       </c>
       <c r="D142" t="n">
-        <v>15190000</v>
+        <v>665340000</v>
       </c>
     </row>
     <row r="143">
@@ -2772,7 +2772,7 @@
         <v>2001</v>
       </c>
       <c r="D143" t="n">
-        <v>12800000</v>
+        <v>866110000</v>
       </c>
     </row>
     <row r="144">
@@ -2786,7 +2786,7 @@
         <v>2002</v>
       </c>
       <c r="D144" t="n">
-        <v>5870000</v>
+        <v>952900000</v>
       </c>
     </row>
     <row r="145">
@@ -2800,7 +2800,7 @@
         <v>2003</v>
       </c>
       <c r="D145" t="n">
-        <v>90000</v>
+        <v>1136390000</v>
       </c>
     </row>
     <row r="146">
@@ -2814,7 +2814,7 @@
         <v>2004</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>2066390000</v>
       </c>
     </row>
     <row r="147">
@@ -2828,7 +2828,7 @@
         <v>2005</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1834490000</v>
       </c>
     </row>
     <row r="148">
@@ -2842,7 +2842,7 @@
         <v>2006</v>
       </c>
       <c r="D148" t="n">
-        <v>24370000</v>
+        <v>1562570000</v>
       </c>
     </row>
     <row r="149">
@@ -2856,7 +2856,7 @@
         <v>2007</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>2381610000</v>
       </c>
     </row>
     <row r="150">
@@ -2870,7 +2870,7 @@
         <v>2008</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>2806300000</v>
       </c>
     </row>
     <row r="151">
@@ -2884,7 +2884,7 @@
         <v>2009</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>3781980000</v>
       </c>
     </row>
     <row r="152">
@@ -2898,7 +2898,7 @@
         <v>2010</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>3769120000</v>
       </c>
     </row>
     <row r="153">
@@ -2912,7 +2912,7 @@
         <v>2011</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>3937660000</v>
       </c>
     </row>
     <row r="154">
@@ -2926,7 +2926,7 @@
         <v>2012</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>3336320000</v>
       </c>
     </row>
     <row r="155">
@@ -2940,7 +2940,7 @@
         <v>2013</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>3823230000</v>
       </c>
     </row>
     <row r="156">
@@ -2954,7 +2954,7 @@
         <v>2000</v>
       </c>
       <c r="D156" t="n">
-        <v>1783150000</v>
+        <v>1047470000</v>
       </c>
     </row>
     <row r="157">
@@ -2968,7 +2968,7 @@
         <v>2001</v>
       </c>
       <c r="D157" t="n">
-        <v>954360000</v>
+        <v>1144160000</v>
       </c>
     </row>
     <row r="158">
@@ -2982,7 +2982,7 @@
         <v>2002</v>
       </c>
       <c r="D158" t="n">
-        <v>8017480000</v>
+        <v>2299690000</v>
       </c>
     </row>
     <row r="159">
@@ -2996,7 +2996,7 @@
         <v>2003</v>
       </c>
       <c r="D159" t="n">
-        <v>-1362510000</v>
+        <v>2023810000</v>
       </c>
     </row>
     <row r="160">
@@ -3010,7 +3010,7 @@
         <v>2004</v>
       </c>
       <c r="D160" t="n">
-        <v>1035860000</v>
+        <v>2790820000</v>
       </c>
     </row>
     <row r="161">
@@ -3024,7 +3024,7 @@
         <v>2005</v>
       </c>
       <c r="D161" t="n">
-        <v>12171020000</v>
+        <v>2998580000</v>
       </c>
     </row>
     <row r="162">
@@ -3038,7 +3038,7 @@
         <v>2006</v>
       </c>
       <c r="D162" t="n">
-        <v>126600000</v>
+        <v>3660720000</v>
       </c>
     </row>
     <row r="163">
@@ -3052,7 +3052,7 @@
         <v>2007</v>
       </c>
       <c r="D163" t="n">
-        <v>1430370000</v>
+        <v>5986670000</v>
       </c>
     </row>
     <row r="164">
@@ -3066,7 +3066,7 @@
         <v>2008</v>
       </c>
       <c r="D164" t="n">
-        <v>2554590000</v>
+        <v>5758930000</v>
       </c>
     </row>
     <row r="165">
@@ -3080,7 +3080,7 @@
         <v>2009</v>
       </c>
       <c r="D165" t="n">
-        <v>1557360000</v>
+        <v>6365600000</v>
       </c>
     </row>
     <row r="166">
@@ -3094,7 +3094,7 @@
         <v>2010</v>
       </c>
       <c r="D166" t="n">
-        <v>1308280000</v>
+        <v>8217370000</v>
       </c>
     </row>
     <row r="167">
@@ -3108,7 +3108,7 @@
         <v>2011</v>
       </c>
       <c r="D167" t="n">
-        <v>1389870000</v>
+        <v>919540000</v>
       </c>
     </row>
     <row r="168">
@@ -3122,7 +3122,7 @@
         <v>2012</v>
       </c>
       <c r="D168" t="n">
-        <v>1288400000</v>
+        <v>762060000</v>
       </c>
     </row>
     <row r="169">
@@ -3136,7 +3136,7 @@
         <v>2013</v>
       </c>
       <c r="D169" t="n">
-        <v>1160050000</v>
+        <v>1366230000</v>
       </c>
     </row>
     <row r="170">
@@ -3150,7 +3150,7 @@
         <v>2000</v>
       </c>
       <c r="D170" t="n">
-        <v>16200000</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="171">
@@ -3164,7 +3164,7 @@
         <v>2001</v>
       </c>
       <c r="D171" t="n">
-        <v>12200000</v>
+        <v>14090000</v>
       </c>
     </row>
     <row r="172">
@@ -3178,7 +3178,7 @@
         <v>2002</v>
       </c>
       <c r="D172" t="n">
-        <v>15110000</v>
+        <v>7210000</v>
       </c>
     </row>
     <row r="173">
@@ -3192,7 +3192,7 @@
         <v>2003</v>
       </c>
       <c r="D173" t="n">
-        <v>71490000</v>
+        <v>27800000</v>
       </c>
     </row>
     <row r="174">
@@ -3206,7 +3206,7 @@
         <v>2004</v>
       </c>
       <c r="D174" t="n">
-        <v>58910000</v>
+        <v>17560000</v>
       </c>
     </row>
     <row r="175">
@@ -3220,7 +3220,7 @@
         <v>2005</v>
       </c>
       <c r="D175" t="n">
-        <v>31560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3234,7 +3234,7 @@
         <v>2006</v>
       </c>
       <c r="D176" t="n">
-        <v>55470000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3248,7 +3248,7 @@
         <v>2007</v>
       </c>
       <c r="D177" t="n">
-        <v>30830000</v>
+        <v>100380000</v>
       </c>
     </row>
     <row r="178">
@@ -3262,7 +3262,7 @@
         <v>2008</v>
       </c>
       <c r="D178" t="n">
-        <v>48340000</v>
+        <v>36790000</v>
       </c>
     </row>
     <row r="179">
@@ -3276,7 +3276,7 @@
         <v>2009</v>
       </c>
       <c r="D179" t="n">
-        <v>36750000</v>
+        <v>142950000</v>
       </c>
     </row>
     <row r="180">
@@ -3290,7 +3290,7 @@
         <v>2010</v>
       </c>
       <c r="D180" t="n">
-        <v>39450000</v>
+        <v>52090000</v>
       </c>
     </row>
     <row r="181">
@@ -3304,7 +3304,7 @@
         <v>2011</v>
       </c>
       <c r="D181" t="n">
-        <v>43160000</v>
+        <v>1068330000</v>
       </c>
     </row>
     <row r="182">
@@ -3318,7 +3318,7 @@
         <v>2012</v>
       </c>
       <c r="D182" t="n">
-        <v>37110000</v>
+        <v>14210000</v>
       </c>
     </row>
     <row r="183">
@@ -3332,7 +3332,7 @@
         <v>2013</v>
       </c>
       <c r="D183" t="n">
-        <v>44530000</v>
+        <v>23790000</v>
       </c>
     </row>
     <row r="184">
@@ -3346,7 +3346,7 @@
         <v>2000</v>
       </c>
       <c r="D184" t="n">
-        <v>665340000</v>
+        <v>607950000</v>
       </c>
     </row>
     <row r="185">
@@ -3360,7 +3360,7 @@
         <v>2001</v>
       </c>
       <c r="D185" t="n">
-        <v>866110000</v>
+        <v>640380000</v>
       </c>
     </row>
     <row r="186">
@@ -3374,7 +3374,7 @@
         <v>2002</v>
       </c>
       <c r="D186" t="n">
-        <v>952900000</v>
+        <v>1430030000</v>
       </c>
     </row>
     <row r="187">
@@ -3388,7 +3388,7 @@
         <v>2003</v>
       </c>
       <c r="D187" t="n">
-        <v>1136390000</v>
+        <v>5609830000</v>
       </c>
     </row>
     <row r="188">
@@ -3402,7 +3402,7 @@
         <v>2004</v>
       </c>
       <c r="D188" t="n">
-        <v>2066390000</v>
+        <v>485370000</v>
       </c>
     </row>
     <row r="189">
@@ -3416,7 +3416,7 @@
         <v>2005</v>
       </c>
       <c r="D189" t="n">
-        <v>1834490000</v>
+        <v>2197030000</v>
       </c>
     </row>
     <row r="190">
@@ -3430,7 +3430,7 @@
         <v>2006</v>
       </c>
       <c r="D190" t="n">
-        <v>1562570000</v>
+        <v>350870000</v>
       </c>
     </row>
     <row r="191">
@@ -3444,7 +3444,7 @@
         <v>2007</v>
       </c>
       <c r="D191" t="n">
-        <v>2381610000</v>
+        <v>226300000</v>
       </c>
     </row>
     <row r="192">
@@ -3458,7 +3458,7 @@
         <v>2008</v>
       </c>
       <c r="D192" t="n">
-        <v>2806300000</v>
+        <v>896490000</v>
       </c>
     </row>
     <row r="193">
@@ -3472,7 +3472,7 @@
         <v>2009</v>
       </c>
       <c r="D193" t="n">
-        <v>3781980000</v>
+        <v>927170000</v>
       </c>
     </row>
     <row r="194">
@@ -3486,7 +3486,7 @@
         <v>2010</v>
       </c>
       <c r="D194" t="n">
-        <v>3769120000</v>
+        <v>801790000</v>
       </c>
     </row>
     <row r="195">
@@ -3500,7 +3500,7 @@
         <v>2011</v>
       </c>
       <c r="D195" t="n">
-        <v>3937660000</v>
+        <v>1199310000</v>
       </c>
     </row>
     <row r="196">
@@ -3514,7 +3514,7 @@
         <v>2012</v>
       </c>
       <c r="D196" t="n">
-        <v>3336320000</v>
+        <v>1272330000</v>
       </c>
     </row>
     <row r="197">
@@ -3528,7 +3528,7 @@
         <v>2013</v>
       </c>
       <c r="D197" t="n">
-        <v>3823230000</v>
+        <v>1437130000</v>
       </c>
     </row>
     <row r="198">
@@ -3542,7 +3542,7 @@
         <v>2000</v>
       </c>
       <c r="D198" t="n">
-        <v>6210000</v>
+        <v>1783150000</v>
       </c>
     </row>
     <row r="199">
@@ -3556,7 +3556,7 @@
         <v>2001</v>
       </c>
       <c r="D199" t="n">
-        <v>273290000</v>
+        <v>954360000</v>
       </c>
     </row>
     <row r="200">
@@ -3570,7 +3570,7 @@
         <v>2002</v>
       </c>
       <c r="D200" t="n">
-        <v>92490000</v>
+        <v>8017480000</v>
       </c>
     </row>
     <row r="201">
@@ -3584,7 +3584,7 @@
         <v>2003</v>
       </c>
       <c r="D201" t="n">
-        <v>109320000</v>
+        <v>-1362510000</v>
       </c>
     </row>
     <row r="202">
@@ -3598,7 +3598,7 @@
         <v>2004</v>
       </c>
       <c r="D202" t="n">
-        <v>29750000</v>
+        <v>1035860000</v>
       </c>
     </row>
     <row r="203">
@@ -3612,7 +3612,7 @@
         <v>2005</v>
       </c>
       <c r="D203" t="n">
-        <v>76150000</v>
+        <v>12171020000</v>
       </c>
     </row>
     <row r="204">
@@ -3626,7 +3626,7 @@
         <v>2006</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>126600000</v>
       </c>
     </row>
     <row r="205">
@@ -3640,7 +3640,7 @@
         <v>2007</v>
       </c>
       <c r="D205" t="n">
-        <v>6060000</v>
+        <v>1430370000</v>
       </c>
     </row>
     <row r="206">
@@ -3654,7 +3654,7 @@
         <v>2008</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>2554590000</v>
       </c>
     </row>
     <row r="207">
@@ -3668,7 +3668,7 @@
         <v>2009</v>
       </c>
       <c r="D207" t="n">
-        <v>3210000</v>
+        <v>1557360000</v>
       </c>
     </row>
     <row r="208">
@@ -3682,7 +3682,7 @@
         <v>2010</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1308280000</v>
       </c>
     </row>
     <row r="209">
@@ -3696,7 +3696,7 @@
         <v>2011</v>
       </c>
       <c r="D209" t="n">
-        <v>3780000</v>
+        <v>1389870000</v>
       </c>
     </row>
     <row r="210">
@@ -3710,7 +3710,7 @@
         <v>2012</v>
       </c>
       <c r="D210" t="n">
-        <v>2480000</v>
+        <v>1288400000</v>
       </c>
     </row>
     <row r="211">
@@ -3724,7 +3724,7 @@
         <v>2013</v>
       </c>
       <c r="D211" t="n">
-        <v>13930000</v>
+        <v>1160050000</v>
       </c>
     </row>
     <row r="212">
@@ -3738,7 +3738,7 @@
         <v>2000</v>
       </c>
       <c r="D212" t="n">
-        <v>1047470000</v>
+        <v>4640000</v>
       </c>
     </row>
     <row r="213">
@@ -3752,7 +3752,7 @@
         <v>2001</v>
       </c>
       <c r="D213" t="n">
-        <v>1144160000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -3766,7 +3766,7 @@
         <v>2002</v>
       </c>
       <c r="D214" t="n">
-        <v>2299690000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3780,7 +3780,7 @@
         <v>2003</v>
       </c>
       <c r="D215" t="n">
-        <v>2023810000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3794,7 +3794,7 @@
         <v>2004</v>
       </c>
       <c r="D216" t="n">
-        <v>2790820000</v>
+        <v>4300000</v>
       </c>
     </row>
     <row r="217">
@@ -3808,7 +3808,7 @@
         <v>2005</v>
       </c>
       <c r="D217" t="n">
-        <v>2998580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3822,7 +3822,7 @@
         <v>2006</v>
       </c>
       <c r="D218" t="n">
-        <v>3660720000</v>
+        <v>9420000</v>
       </c>
     </row>
     <row r="219">
@@ -3836,7 +3836,7 @@
         <v>2007</v>
       </c>
       <c r="D219" t="n">
-        <v>5986670000</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="220">
@@ -3850,7 +3850,7 @@
         <v>2008</v>
       </c>
       <c r="D220" t="n">
-        <v>5758930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -3864,7 +3864,7 @@
         <v>2009</v>
       </c>
       <c r="D221" t="n">
-        <v>6365600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -3878,7 +3878,7 @@
         <v>2010</v>
       </c>
       <c r="D222" t="n">
-        <v>8217370000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3892,7 +3892,7 @@
         <v>2011</v>
       </c>
       <c r="D223" t="n">
-        <v>919540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -3906,7 +3906,7 @@
         <v>2012</v>
       </c>
       <c r="D224" t="n">
-        <v>762060000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -3920,7 +3920,7 @@
         <v>2013</v>
       </c>
       <c r="D225" t="n">
-        <v>1366230000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -3934,7 +3934,7 @@
         <v>2000</v>
       </c>
       <c r="D226" t="n">
-        <v>3610000</v>
+        <v>10105110000</v>
       </c>
     </row>
     <row r="227">
@@ -3948,7 +3948,7 @@
         <v>2001</v>
       </c>
       <c r="D227" t="n">
-        <v>14090000</v>
+        <v>9500270000</v>
       </c>
     </row>
     <row r="228">
@@ -3962,7 +3962,7 @@
         <v>2002</v>
       </c>
       <c r="D228" t="n">
-        <v>7210000</v>
+        <v>8372490000</v>
       </c>
     </row>
     <row r="229">
@@ -3976,7 +3976,7 @@
         <v>2003</v>
       </c>
       <c r="D229" t="n">
-        <v>27800000</v>
+        <v>11187800000</v>
       </c>
     </row>
     <row r="230">
@@ -3990,7 +3990,7 @@
         <v>2004</v>
       </c>
       <c r="D230" t="n">
-        <v>17560000</v>
+        <v>4580370000</v>
       </c>
     </row>
     <row r="231">
@@ -4004,7 +4004,7 @@
         <v>2005</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>5803600000</v>
       </c>
     </row>
     <row r="232">
@@ -4018,7 +4018,7 @@
         <v>2006</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>7042280000</v>
       </c>
     </row>
     <row r="233">
@@ -4032,7 +4032,7 @@
         <v>2007</v>
       </c>
       <c r="D233" t="n">
-        <v>100380000</v>
+        <v>7181710000</v>
       </c>
     </row>
     <row r="234">
@@ -4046,7 +4046,7 @@
         <v>2008</v>
       </c>
       <c r="D234" t="n">
-        <v>36790000</v>
+        <v>7279280000</v>
       </c>
     </row>
     <row r="235">
@@ -4060,7 +4060,7 @@
         <v>2009</v>
       </c>
       <c r="D235" t="n">
-        <v>142950000</v>
+        <v>11971220000</v>
       </c>
     </row>
     <row r="236">
@@ -4074,7 +4074,7 @@
         <v>2010</v>
       </c>
       <c r="D236" t="n">
-        <v>52090000</v>
+        <v>10567600000</v>
       </c>
     </row>
     <row r="237">
@@ -4088,7 +4088,7 @@
         <v>2011</v>
       </c>
       <c r="D237" t="n">
-        <v>1068330000</v>
+        <v>7015850000</v>
       </c>
     </row>
     <row r="238">
@@ -4102,7 +4102,7 @@
         <v>2012</v>
       </c>
       <c r="D238" t="n">
-        <v>14210000</v>
+        <v>6446510000</v>
       </c>
     </row>
     <row r="239">
@@ -4116,7 +4116,7 @@
         <v>2013</v>
       </c>
       <c r="D239" t="n">
-        <v>23790000</v>
+        <v>9818310000</v>
       </c>
     </row>
     <row r="240">
@@ -4130,7 +4130,7 @@
         <v>2000</v>
       </c>
       <c r="D240" t="n">
-        <v>607950000</v>
+        <v>17870590000</v>
       </c>
     </row>
     <row r="241">
@@ -4144,7 +4144,7 @@
         <v>2001</v>
       </c>
       <c r="D241" t="n">
-        <v>640380000</v>
+        <v>16991560000</v>
       </c>
     </row>
     <row r="242">
@@ -4158,7 +4158,7 @@
         <v>2002</v>
       </c>
       <c r="D242" t="n">
-        <v>1430030000</v>
+        <v>14680840000</v>
       </c>
     </row>
     <row r="243">
@@ -4172,7 +4172,7 @@
         <v>2003</v>
       </c>
       <c r="D243" t="n">
-        <v>5609830000</v>
+        <v>13839480000</v>
       </c>
     </row>
     <row r="244">
@@ -4186,7 +4186,7 @@
         <v>2004</v>
       </c>
       <c r="D244" t="n">
-        <v>485370000</v>
+        <v>11415560000</v>
       </c>
     </row>
     <row r="245">
@@ -4200,7 +4200,7 @@
         <v>2005</v>
       </c>
       <c r="D245" t="n">
-        <v>2197030000</v>
+        <v>9878120000</v>
       </c>
     </row>
     <row r="246">
@@ -4214,7 +4214,7 @@
         <v>2006</v>
       </c>
       <c r="D246" t="n">
-        <v>350870000</v>
+        <v>13357610000</v>
       </c>
     </row>
     <row r="247">
@@ -4228,7 +4228,7 @@
         <v>2007</v>
       </c>
       <c r="D247" t="n">
-        <v>226300000</v>
+        <v>10684010000</v>
       </c>
     </row>
     <row r="248">
@@ -4242,7 +4242,7 @@
         <v>2008</v>
       </c>
       <c r="D248" t="n">
-        <v>896490000</v>
+        <v>13621280000</v>
       </c>
     </row>
     <row r="249">
@@ -4256,7 +4256,7 @@
         <v>2009</v>
       </c>
       <c r="D249" t="n">
-        <v>927170000</v>
+        <v>22450110000</v>
       </c>
     </row>
     <row r="250">
@@ -4270,7 +4270,7 @@
         <v>2010</v>
       </c>
       <c r="D250" t="n">
-        <v>801790000</v>
+        <v>27534370000</v>
       </c>
     </row>
     <row r="251">
@@ -4284,7 +4284,7 @@
         <v>2011</v>
       </c>
       <c r="D251" t="n">
-        <v>1199310000</v>
+        <v>15589690000</v>
       </c>
     </row>
     <row r="252">
@@ -4298,7 +4298,7 @@
         <v>2012</v>
       </c>
       <c r="D252" t="n">
-        <v>1272330000</v>
+        <v>15136130000</v>
       </c>
     </row>
     <row r="253">
@@ -4312,7 +4312,7 @@
         <v>2013</v>
       </c>
       <c r="D253" t="n">
-        <v>1437130000</v>
+        <v>16218620000</v>
       </c>
     </row>
     <row r="254">
@@ -4326,7 +4326,7 @@
         <v>2000</v>
       </c>
       <c r="D254" t="n">
-        <v>247930000</v>
+        <v>1936130000</v>
       </c>
     </row>
     <row r="255">
@@ -4340,7 +4340,7 @@
         <v>2001</v>
       </c>
       <c r="D255" t="n">
-        <v>354330000</v>
+        <v>1675180000</v>
       </c>
     </row>
     <row r="256">
@@ -4354,7 +4354,7 @@
         <v>2002</v>
       </c>
       <c r="D256" t="n">
-        <v>240540000</v>
+        <v>2141350000</v>
       </c>
     </row>
     <row r="257">
@@ -4368,7 +4368,7 @@
         <v>2003</v>
       </c>
       <c r="D257" t="n">
-        <v>292910000</v>
+        <v>2828890000</v>
       </c>
     </row>
     <row r="258">
@@ -4382,7 +4382,7 @@
         <v>2004</v>
       </c>
       <c r="D258" t="n">
-        <v>71840000</v>
+        <v>2800760000</v>
       </c>
     </row>
     <row r="259">
@@ -4396,7 +4396,7 @@
         <v>2005</v>
       </c>
       <c r="D259" t="n">
-        <v>54360000</v>
+        <v>2938400000</v>
       </c>
     </row>
     <row r="260">
@@ -4410,7 +4410,7 @@
         <v>2006</v>
       </c>
       <c r="D260" t="n">
-        <v>10910000</v>
+        <v>4364090000</v>
       </c>
     </row>
     <row r="261">
@@ -4424,7 +4424,7 @@
         <v>2007</v>
       </c>
       <c r="D261" t="n">
-        <v>16940000</v>
+        <v>4622270000</v>
       </c>
     </row>
     <row r="262">
@@ -4438,7 +4438,7 @@
         <v>2008</v>
       </c>
       <c r="D262" t="n">
-        <v>14380000</v>
+        <v>5107480000</v>
       </c>
     </row>
     <row r="263">
@@ -4452,7 +4452,7 @@
         <v>2009</v>
       </c>
       <c r="D263" t="n">
-        <v>8360000</v>
+        <v>4688730000</v>
       </c>
     </row>
     <row r="264">
@@ -4466,7 +4466,7 @@
         <v>2010</v>
       </c>
       <c r="D264" t="n">
-        <v>29150000</v>
+        <v>4345450000</v>
       </c>
     </row>
     <row r="265">
@@ -4480,7 +4480,7 @@
         <v>2011</v>
       </c>
       <c r="D265" t="n">
-        <v>19990000</v>
+        <v>4619840000</v>
       </c>
     </row>
     <row r="266">
@@ -4494,7 +4494,7 @@
         <v>2012</v>
       </c>
       <c r="D266" t="n">
-        <v>63740000</v>
+        <v>6414080000</v>
       </c>
     </row>
     <row r="267">
@@ -4508,7 +4508,7 @@
         <v>2013</v>
       </c>
       <c r="D267" t="n">
-        <v>187200000</v>
+        <v>6736730000</v>
       </c>
     </row>
     <row r="268">
@@ -4522,7 +4522,7 @@
         <v>2000</v>
       </c>
       <c r="D268" t="n">
-        <v>4640000</v>
+        <v>50260000</v>
       </c>
     </row>
     <row r="269">
@@ -4536,7 +4536,7 @@
         <v>2001</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>52590000</v>
       </c>
     </row>
     <row r="270">
@@ -4550,7 +4550,7 @@
         <v>2002</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>30560000</v>
       </c>
     </row>
     <row r="271">
@@ -4564,7 +4564,7 @@
         <v>2003</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>30820000</v>
       </c>
     </row>
     <row r="272">
@@ -4578,7 +4578,7 @@
         <v>2004</v>
       </c>
       <c r="D272" t="n">
-        <v>4300000</v>
+        <v>37340000</v>
       </c>
     </row>
     <row r="273">
@@ -4592,7 +4592,7 @@
         <v>2005</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>31610000</v>
       </c>
     </row>
     <row r="274">
@@ -4606,7 +4606,7 @@
         <v>2006</v>
       </c>
       <c r="D274" t="n">
-        <v>9420000</v>
+        <v>45330000</v>
       </c>
     </row>
     <row r="275">
@@ -4620,7 +4620,7 @@
         <v>2007</v>
       </c>
       <c r="D275" t="n">
-        <v>3610000</v>
+        <v>42880000</v>
       </c>
     </row>
     <row r="276">
@@ -4634,7 +4634,7 @@
         <v>2008</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>54140000</v>
       </c>
     </row>
     <row r="277">
@@ -4648,7 +4648,7 @@
         <v>2009</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>39550000</v>
       </c>
     </row>
     <row r="278">
@@ -4662,7 +4662,7 @@
         <v>2010</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>45900000</v>
       </c>
     </row>
     <row r="279">
@@ -4676,7 +4676,7 @@
         <v>2011</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>47700000</v>
       </c>
     </row>
     <row r="280">
@@ -4690,7 +4690,7 @@
         <v>2012</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>63390000</v>
       </c>
     </row>
     <row r="281">
@@ -4704,7 +4704,7 @@
         <v>2013</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>57450000</v>
       </c>
     </row>
     <row r="282">
@@ -4718,7 +4718,7 @@
         <v>2000</v>
       </c>
       <c r="D282" t="n">
-        <v>17870590000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -4732,7 +4732,7 @@
         <v>2001</v>
       </c>
       <c r="D283" t="n">
-        <v>16991560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -4746,7 +4746,7 @@
         <v>2002</v>
       </c>
       <c r="D284" t="n">
-        <v>14680840000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -4760,7 +4760,7 @@
         <v>2003</v>
       </c>
       <c r="D285" t="n">
-        <v>13839480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -4774,7 +4774,7 @@
         <v>2004</v>
       </c>
       <c r="D286" t="n">
-        <v>11415560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4788,7 +4788,7 @@
         <v>2005</v>
       </c>
       <c r="D287" t="n">
-        <v>9878120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -4802,7 +4802,7 @@
         <v>2006</v>
       </c>
       <c r="D288" t="n">
-        <v>13357610000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -4816,7 +4816,7 @@
         <v>2007</v>
       </c>
       <c r="D289" t="n">
-        <v>10684010000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -4830,7 +4830,7 @@
         <v>2008</v>
       </c>
       <c r="D290" t="n">
-        <v>13621280000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4844,7 +4844,7 @@
         <v>2009</v>
       </c>
       <c r="D291" t="n">
-        <v>22450110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -4858,7 +4858,7 @@
         <v>2010</v>
       </c>
       <c r="D292" t="n">
-        <v>27534370000</v>
+        <v>1548800000</v>
       </c>
     </row>
     <row r="293">
@@ -4872,7 +4872,7 @@
         <v>2011</v>
       </c>
       <c r="D293" t="n">
-        <v>15589690000</v>
+        <v>1643650000</v>
       </c>
     </row>
     <row r="294">
@@ -4886,7 +4886,7 @@
         <v>2012</v>
       </c>
       <c r="D294" t="n">
-        <v>15136130000</v>
+        <v>1304530000</v>
       </c>
     </row>
     <row r="295">
@@ -4900,7 +4900,7 @@
         <v>2013</v>
       </c>
       <c r="D295" t="n">
-        <v>16218620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4914,7 +4914,7 @@
         <v>2000</v>
       </c>
       <c r="D296" t="n">
-        <v>10105110000</v>
+        <v>185040000</v>
       </c>
     </row>
     <row r="297">
@@ -4928,7 +4928,7 @@
         <v>2001</v>
       </c>
       <c r="D297" t="n">
-        <v>9500270000</v>
+        <v>111070000</v>
       </c>
     </row>
     <row r="298">
@@ -4942,7 +4942,7 @@
         <v>2002</v>
       </c>
       <c r="D298" t="n">
-        <v>8372490000</v>
+        <v>417540000</v>
       </c>
     </row>
     <row r="299">
@@ -4956,7 +4956,7 @@
         <v>2003</v>
       </c>
       <c r="D299" t="n">
-        <v>11187800000</v>
+        <v>550360000</v>
       </c>
     </row>
     <row r="300">
@@ -4970,7 +4970,7 @@
         <v>2004</v>
       </c>
       <c r="D300" t="n">
-        <v>4580370000</v>
+        <v>2402380000</v>
       </c>
     </row>
     <row r="301">
@@ -4984,7 +4984,7 @@
         <v>2005</v>
       </c>
       <c r="D301" t="n">
-        <v>5803600000</v>
+        <v>106940000</v>
       </c>
     </row>
     <row r="302">
@@ -4998,7 +4998,7 @@
         <v>2006</v>
       </c>
       <c r="D302" t="n">
-        <v>7042280000</v>
+        <v>181190000</v>
       </c>
     </row>
     <row r="303">
@@ -5012,7 +5012,7 @@
         <v>2007</v>
       </c>
       <c r="D303" t="n">
-        <v>7181710000</v>
+        <v>140180000</v>
       </c>
     </row>
     <row r="304">
@@ -5026,7 +5026,7 @@
         <v>2008</v>
       </c>
       <c r="D304" t="n">
-        <v>7279280000</v>
+        <v>973680000</v>
       </c>
     </row>
     <row r="305">
@@ -5040,7 +5040,7 @@
         <v>2009</v>
       </c>
       <c r="D305" t="n">
-        <v>11971220000</v>
+        <v>41440000</v>
       </c>
     </row>
     <row r="306">
@@ -5054,7 +5054,7 @@
         <v>2010</v>
       </c>
       <c r="D306" t="n">
-        <v>10567600000</v>
+        <v>56280000</v>
       </c>
     </row>
     <row r="307">
@@ -5068,7 +5068,7 @@
         <v>2011</v>
       </c>
       <c r="D307" t="n">
-        <v>7015850000</v>
+        <v>169390000</v>
       </c>
     </row>
     <row r="308">
@@ -5082,7 +5082,7 @@
         <v>2012</v>
       </c>
       <c r="D308" t="n">
-        <v>6446510000</v>
+        <v>197600000</v>
       </c>
     </row>
     <row r="309">
@@ -5096,7 +5096,7 @@
         <v>2013</v>
       </c>
       <c r="D309" t="n">
-        <v>9818310000</v>
+        <v>153530000</v>
       </c>
     </row>
     <row r="310">
@@ -5110,7 +5110,7 @@
         <v>2000</v>
       </c>
       <c r="D310" t="n">
-        <v>50260000</v>
+        <v>5506300000</v>
       </c>
     </row>
     <row r="311">
@@ -5124,7 +5124,7 @@
         <v>2001</v>
       </c>
       <c r="D311" t="n">
-        <v>52590000</v>
+        <v>9340220000</v>
       </c>
     </row>
     <row r="312">
@@ -5138,7 +5138,7 @@
         <v>2002</v>
       </c>
       <c r="D312" t="n">
-        <v>30560000</v>
+        <v>9018720000</v>
       </c>
     </row>
     <row r="313">
@@ -5152,7 +5152,7 @@
         <v>2003</v>
       </c>
       <c r="D313" t="n">
-        <v>30820000</v>
+        <v>11539770000</v>
       </c>
     </row>
     <row r="314">
@@ -5166,7 +5166,7 @@
         <v>2004</v>
       </c>
       <c r="D314" t="n">
-        <v>37340000</v>
+        <v>7951620000</v>
       </c>
     </row>
     <row r="315">
@@ -5180,7 +5180,7 @@
         <v>2005</v>
       </c>
       <c r="D315" t="n">
-        <v>31610000</v>
+        <v>10098000000</v>
       </c>
     </row>
     <row r="316">
@@ -5194,7 +5194,7 @@
         <v>2006</v>
       </c>
       <c r="D316" t="n">
-        <v>45330000</v>
+        <v>16268670000</v>
       </c>
     </row>
     <row r="317">
@@ -5208,7 +5208,7 @@
         <v>2007</v>
       </c>
       <c r="D317" t="n">
-        <v>42880000</v>
+        <v>12028220000</v>
       </c>
     </row>
     <row r="318">
@@ -5222,7 +5222,7 @@
         <v>2008</v>
       </c>
       <c r="D318" t="n">
-        <v>54140000</v>
+        <v>6800700000</v>
       </c>
     </row>
     <row r="319">
@@ -5236,7 +5236,7 @@
         <v>2009</v>
       </c>
       <c r="D319" t="n">
-        <v>39550000</v>
+        <v>13828490000</v>
       </c>
     </row>
     <row r="320">
@@ -5250,7 +5250,7 @@
         <v>2010</v>
       </c>
       <c r="D320" t="n">
-        <v>45900000</v>
+        <v>9754570000</v>
       </c>
     </row>
     <row r="321">
@@ -5264,7 +5264,7 @@
         <v>2011</v>
       </c>
       <c r="D321" t="n">
-        <v>47700000</v>
+        <v>9897090000</v>
       </c>
     </row>
     <row r="322">
@@ -5278,7 +5278,7 @@
         <v>2012</v>
       </c>
       <c r="D322" t="n">
-        <v>63390000</v>
+        <v>12236270000</v>
       </c>
     </row>
     <row r="323">
@@ -5292,7 +5292,7 @@
         <v>2013</v>
       </c>
       <c r="D323" t="n">
-        <v>57450000</v>
+        <v>8695310000</v>
       </c>
     </row>
     <row r="324">
@@ -5306,7 +5306,7 @@
         <v>2000</v>
       </c>
       <c r="D324" t="n">
-        <v>1936130000</v>
+        <v>746830000</v>
       </c>
     </row>
     <row r="325">
@@ -5320,7 +5320,7 @@
         <v>2001</v>
       </c>
       <c r="D325" t="n">
-        <v>1675180000</v>
+        <v>850970000</v>
       </c>
     </row>
     <row r="326">
@@ -5334,7 +5334,7 @@
         <v>2002</v>
       </c>
       <c r="D326" t="n">
-        <v>2141350000</v>
+        <v>1028500000</v>
       </c>
     </row>
     <row r="327">
@@ -5348,7 +5348,7 @@
         <v>2003</v>
       </c>
       <c r="D327" t="n">
-        <v>2828890000</v>
+        <v>935660000</v>
       </c>
     </row>
     <row r="328">
@@ -5362,7 +5362,7 @@
         <v>2004</v>
       </c>
       <c r="D328" t="n">
-        <v>2800760000</v>
+        <v>1257540000</v>
       </c>
     </row>
     <row r="329">
@@ -5376,7 +5376,7 @@
         <v>2005</v>
       </c>
       <c r="D329" t="n">
-        <v>2938400000</v>
+        <v>1504870000</v>
       </c>
     </row>
     <row r="330">
@@ -5390,7 +5390,7 @@
         <v>2006</v>
       </c>
       <c r="D330" t="n">
-        <v>4364090000</v>
+        <v>1876330000</v>
       </c>
     </row>
     <row r="331">
@@ -5404,7 +5404,7 @@
         <v>2007</v>
       </c>
       <c r="D331" t="n">
-        <v>4622270000</v>
+        <v>2347800000</v>
       </c>
     </row>
     <row r="332">
@@ -5418,7 +5418,7 @@
         <v>2008</v>
       </c>
       <c r="D332" t="n">
-        <v>5107480000</v>
+        <v>3852950000</v>
       </c>
     </row>
     <row r="333">
@@ -5432,7 +5432,7 @@
         <v>2009</v>
       </c>
       <c r="D333" t="n">
-        <v>4688730000</v>
+        <v>3098220000</v>
       </c>
     </row>
     <row r="334">
@@ -5446,7 +5446,7 @@
         <v>2010</v>
       </c>
       <c r="D334" t="n">
-        <v>4345450000</v>
+        <v>4614790000</v>
       </c>
     </row>
     <row r="335">
@@ -5460,7 +5460,7 @@
         <v>2011</v>
       </c>
       <c r="D335" t="n">
-        <v>4619840000</v>
+        <v>5114810000</v>
       </c>
     </row>
     <row r="336">
@@ -5474,7 +5474,7 @@
         <v>2012</v>
       </c>
       <c r="D336" t="n">
-        <v>6414080000</v>
+        <v>4530060000</v>
       </c>
     </row>
     <row r="337">
@@ -5488,7 +5488,7 @@
         <v>2013</v>
       </c>
       <c r="D337" t="n">
-        <v>6736730000</v>
+        <v>6062330000</v>
       </c>
     </row>
     <row r="338">
@@ -5642,7 +5642,7 @@
         <v>2010</v>
       </c>
       <c r="D348" t="n">
-        <v>1548800000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -5656,7 +5656,7 @@
         <v>2011</v>
       </c>
       <c r="D349" t="n">
-        <v>1643650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -5670,7 +5670,7 @@
         <v>2012</v>
       </c>
       <c r="D350" t="n">
-        <v>1304530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -5698,7 +5698,7 @@
         <v>2000</v>
       </c>
       <c r="D352" t="n">
-        <v>185040000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -5712,7 +5712,7 @@
         <v>2001</v>
       </c>
       <c r="D353" t="n">
-        <v>111070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -5726,7 +5726,7 @@
         <v>2002</v>
       </c>
       <c r="D354" t="n">
-        <v>417540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -5740,7 +5740,7 @@
         <v>2003</v>
       </c>
       <c r="D355" t="n">
-        <v>550360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -5754,7 +5754,7 @@
         <v>2004</v>
       </c>
       <c r="D356" t="n">
-        <v>2402380000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -5768,7 +5768,7 @@
         <v>2005</v>
       </c>
       <c r="D357" t="n">
-        <v>106940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -5782,7 +5782,7 @@
         <v>2006</v>
       </c>
       <c r="D358" t="n">
-        <v>181190000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5796,7 +5796,7 @@
         <v>2007</v>
       </c>
       <c r="D359" t="n">
-        <v>140180000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -5810,7 +5810,7 @@
         <v>2008</v>
       </c>
       <c r="D360" t="n">
-        <v>973680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -5824,7 +5824,7 @@
         <v>2009</v>
       </c>
       <c r="D361" t="n">
-        <v>41440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -5838,7 +5838,7 @@
         <v>2010</v>
       </c>
       <c r="D362" t="n">
-        <v>56280000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -5852,7 +5852,7 @@
         <v>2011</v>
       </c>
       <c r="D363" t="n">
-        <v>169390000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -5866,7 +5866,7 @@
         <v>2012</v>
       </c>
       <c r="D364" t="n">
-        <v>197600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -5880,7 +5880,7 @@
         <v>2013</v>
       </c>
       <c r="D365" t="n">
-        <v>153530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -5894,7 +5894,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>5506300000</v>
+        <v>233110000</v>
       </c>
     </row>
     <row r="367">
@@ -5908,7 +5908,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>9340220000</v>
+        <v>522880000</v>
       </c>
     </row>
     <row r="368">
@@ -5922,7 +5922,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>9018720000</v>
+        <v>360110000</v>
       </c>
     </row>
     <row r="369">
@@ -5936,7 +5936,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>11539770000</v>
+        <v>1757170000</v>
       </c>
     </row>
     <row r="370">
@@ -5950,7 +5950,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>7951620000</v>
+        <v>174930000</v>
       </c>
     </row>
     <row r="371">
@@ -5964,7 +5964,7 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>10098000000</v>
+        <v>172540000</v>
       </c>
     </row>
     <row r="372">
@@ -5978,7 +5978,7 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>16268670000</v>
+        <v>378200000</v>
       </c>
     </row>
     <row r="373">
@@ -5992,7 +5992,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>12028220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -6006,7 +6006,7 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>6800700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -6020,7 +6020,7 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>13828490000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -6034,7 +6034,7 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>9754570000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -6048,7 +6048,7 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>9897090000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6062,7 +6062,7 @@
         <v>2012</v>
       </c>
       <c r="D378" t="n">
-        <v>12236270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -6076,7 +6076,7 @@
         <v>2013</v>
       </c>
       <c r="D379" t="n">
-        <v>8695310000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -6090,7 +6090,7 @@
         <v>2000</v>
       </c>
       <c r="D380" t="n">
-        <v>746830000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -6104,7 +6104,7 @@
         <v>2001</v>
       </c>
       <c r="D381" t="n">
-        <v>850970000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -6118,7 +6118,7 @@
         <v>2002</v>
       </c>
       <c r="D382" t="n">
-        <v>1028500000</v>
+        <v>4920000</v>
       </c>
     </row>
     <row r="383">
@@ -6132,7 +6132,7 @@
         <v>2003</v>
       </c>
       <c r="D383" t="n">
-        <v>935660000</v>
+        <v>5160000</v>
       </c>
     </row>
     <row r="384">
@@ -6146,7 +6146,7 @@
         <v>2004</v>
       </c>
       <c r="D384" t="n">
-        <v>1257540000</v>
+        <v>7760000</v>
       </c>
     </row>
     <row r="385">
@@ -6160,7 +6160,7 @@
         <v>2005</v>
       </c>
       <c r="D385" t="n">
-        <v>1504870000</v>
+        <v>9580000</v>
       </c>
     </row>
     <row r="386">
@@ -6174,7 +6174,7 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v>1876330000</v>
+        <v>10620000</v>
       </c>
     </row>
     <row r="387">
@@ -6188,7 +6188,7 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v>2347800000</v>
+        <v>9970000</v>
       </c>
     </row>
     <row r="388">
@@ -6202,7 +6202,7 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v>3852950000</v>
+        <v>10270000</v>
       </c>
     </row>
     <row r="389">
@@ -6216,7 +6216,7 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v>3098220000</v>
+        <v>10380000</v>
       </c>
     </row>
     <row r="390">
@@ -6230,7 +6230,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>4614790000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="391">
@@ -6244,7 +6244,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>5114810000</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="392">
@@ -6258,7 +6258,7 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v>4530060000</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="393">
@@ -6272,7 +6272,7 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>6062330000</v>
+        <v>10700000</v>
       </c>
     </row>
     <row r="394">
@@ -6524,7 +6524,7 @@
         <v>2003</v>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="412">
@@ -6538,7 +6538,7 @@
         <v>2004</v>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="413">
@@ -6552,7 +6552,7 @@
         <v>2005</v>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>7030000</v>
       </c>
     </row>
     <row r="414">
@@ -6566,7 +6566,7 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>6890000</v>
       </c>
     </row>
     <row r="415">
@@ -6580,7 +6580,7 @@
         <v>2007</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="416">
@@ -6594,7 +6594,7 @@
         <v>2008</v>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="417">
@@ -6608,7 +6608,7 @@
         <v>2009</v>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="418">
@@ -6622,7 +6622,7 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="419">
@@ -6664,7 +6664,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="422">
@@ -6678,7 +6678,7 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>233110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -6692,7 +6692,7 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v>522880000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -6706,7 +6706,7 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>360110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -6720,7 +6720,7 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>1757170000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -6734,7 +6734,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>174930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -6748,7 +6748,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>172540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -6762,7 +6762,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>378200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -6804,7 +6804,7 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>379330000</v>
       </c>
     </row>
     <row r="432">
@@ -6818,7 +6818,7 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>510460000</v>
       </c>
     </row>
     <row r="433">
@@ -6832,7 +6832,7 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>598550000</v>
       </c>
     </row>
     <row r="434">
@@ -6846,7 +6846,7 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>447930000</v>
       </c>
     </row>
     <row r="435">
@@ -6860,7 +6860,7 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>678020000</v>
       </c>
     </row>
     <row r="436">
@@ -6874,7 +6874,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>138780000</v>
       </c>
     </row>
     <row r="437">
@@ -6916,7 +6916,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -6930,7 +6930,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>460000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -6944,7 +6944,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>7030000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -6958,7 +6958,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>6890000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -6972,7 +6972,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>6250000</v>
+        <v>2053450000</v>
       </c>
     </row>
     <row r="444">
@@ -6986,7 +6986,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>660000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -7000,7 +7000,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -7014,7 +7014,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -7042,7 +7042,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>2060000</v>
       </c>
     </row>
     <row r="449">
@@ -7056,7 +7056,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>310000</v>
+        <v>3010000</v>
       </c>
     </row>
     <row r="450">
@@ -7266,7 +7266,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>6210000</v>
       </c>
     </row>
     <row r="465">
@@ -7280,7 +7280,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>273290000</v>
       </c>
     </row>
     <row r="466">
@@ -7294,7 +7294,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>4920000</v>
+        <v>92490000</v>
       </c>
     </row>
     <row r="467">
@@ -7308,7 +7308,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>5160000</v>
+        <v>109320000</v>
       </c>
     </row>
     <row r="468">
@@ -7322,7 +7322,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>7760000</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="469">
@@ -7336,7 +7336,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>9580000</v>
+        <v>76150000</v>
       </c>
     </row>
     <row r="470">
@@ -7350,7 +7350,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>10620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -7364,7 +7364,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>9970000</v>
+        <v>6060000</v>
       </c>
     </row>
     <row r="472">
@@ -7378,7 +7378,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>10270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -7392,7 +7392,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>10380000</v>
+        <v>3210000</v>
       </c>
     </row>
     <row r="474">
@@ -7406,7 +7406,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>9500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -7420,7 +7420,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>9810000</v>
+        <v>3780000</v>
       </c>
     </row>
     <row r="476">
@@ -7434,7 +7434,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>11270000</v>
+        <v>2480000</v>
       </c>
     </row>
     <row r="477">
@@ -7448,7 +7448,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>10700000</v>
+        <v>13930000</v>
       </c>
     </row>
     <row r="478">
@@ -7462,7 +7462,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>8530000</v>
       </c>
     </row>
     <row r="479">
@@ -7476,7 +7476,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>4430000</v>
       </c>
     </row>
     <row r="480">
@@ -7490,7 +7490,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>6160000</v>
       </c>
     </row>
     <row r="481">
@@ -7504,7 +7504,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>93680000</v>
       </c>
     </row>
     <row r="482">
@@ -7518,7 +7518,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>39730000</v>
       </c>
     </row>
     <row r="483">
@@ -7532,7 +7532,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>50940000</v>
       </c>
     </row>
     <row r="484">
@@ -7546,7 +7546,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>98580000</v>
       </c>
     </row>
     <row r="485">
@@ -7560,7 +7560,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>41970000</v>
       </c>
     </row>
     <row r="486">
@@ -7574,7 +7574,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>66110000</v>
       </c>
     </row>
     <row r="487">
@@ -7588,7 +7588,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>379330000</v>
+        <v>89640000</v>
       </c>
     </row>
     <row r="488">
@@ -7602,7 +7602,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>510460000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="489">
@@ -7616,7 +7616,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>598550000</v>
+        <v>50720000</v>
       </c>
     </row>
     <row r="490">
@@ -7630,7 +7630,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>447930000</v>
+        <v>49220000</v>
       </c>
     </row>
     <row r="491">
@@ -7644,7 +7644,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>678020000</v>
+        <v>44310000</v>
       </c>
     </row>
     <row r="492">
@@ -7658,7 +7658,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>138780000</v>
+        <v>15190000</v>
       </c>
     </row>
     <row r="493">
@@ -7672,7 +7672,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>12800000</v>
       </c>
     </row>
     <row r="494">
@@ -7686,7 +7686,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>5870000</v>
       </c>
     </row>
     <row r="495">
@@ -7700,7 +7700,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="496">
@@ -7742,7 +7742,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>24370000</v>
       </c>
     </row>
     <row r="499">
@@ -7756,7 +7756,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>2053450000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -7826,7 +7826,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>2060000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -7840,7 +7840,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>3010000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -7896,7 +7896,7 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>69210000</v>
       </c>
     </row>
     <row r="510">
@@ -7910,7 +7910,7 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>1131630000</v>
       </c>
     </row>
     <row r="511">
@@ -7924,7 +7924,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>624220000</v>
       </c>
     </row>
     <row r="512">
@@ -7938,7 +7938,7 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>8440000</v>
       </c>
     </row>
     <row r="513">
@@ -7952,7 +7952,7 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>7280000</v>
       </c>
     </row>
     <row r="514">
@@ -7966,7 +7966,7 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>32710000</v>
       </c>
     </row>
     <row r="515">
@@ -7980,7 +7980,7 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>29240000</v>
       </c>
     </row>
     <row r="516">
@@ -7994,7 +7994,7 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>6530000</v>
       </c>
     </row>
     <row r="517">
@@ -8008,7 +8008,7 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>37150000</v>
       </c>
     </row>
     <row r="518">
@@ -8022,7 +8022,7 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>70090000</v>
       </c>
     </row>
     <row r="519">
@@ -8036,7 +8036,7 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>2590000</v>
       </c>
     </row>
     <row r="520">
@@ -8050,7 +8050,7 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>8530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -8064,7 +8064,7 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>4430000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -8078,7 +8078,7 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>6160000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -8092,7 +8092,7 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>93680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -8106,7 +8106,7 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>39730000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -8120,7 +8120,7 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>50940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -8134,7 +8134,7 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>98580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -8148,7 +8148,7 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>41970000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -8162,7 +8162,7 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>66110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -8176,7 +8176,7 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>89640000</v>
+        <v>13420000</v>
       </c>
     </row>
     <row r="530">
@@ -8190,7 +8190,7 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>50000</v>
+        <v>29620000</v>
       </c>
     </row>
     <row r="531">
@@ -8204,7 +8204,7 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>50720000</v>
+        <v>23970000</v>
       </c>
     </row>
     <row r="532">
@@ -8218,7 +8218,7 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>49220000</v>
+        <v>60820000</v>
       </c>
     </row>
     <row r="533">
@@ -8232,7 +8232,7 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>44310000</v>
+        <v>7890000</v>
       </c>
     </row>
     <row r="534">
@@ -8246,7 +8246,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>0</v>
+        <v>247930000</v>
       </c>
     </row>
     <row r="535">
@@ -8260,7 +8260,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>354330000</v>
       </c>
     </row>
     <row r="536">
@@ -8274,7 +8274,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>240540000</v>
       </c>
     </row>
     <row r="537">
@@ -8288,7 +8288,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>69210000</v>
+        <v>292910000</v>
       </c>
     </row>
     <row r="538">
@@ -8302,7 +8302,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>1131630000</v>
+        <v>71840000</v>
       </c>
     </row>
     <row r="539">
@@ -8316,7 +8316,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>624220000</v>
+        <v>54360000</v>
       </c>
     </row>
     <row r="540">
@@ -8330,7 +8330,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>8440000</v>
+        <v>10910000</v>
       </c>
     </row>
     <row r="541">
@@ -8344,7 +8344,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>7280000</v>
+        <v>16940000</v>
       </c>
     </row>
     <row r="542">
@@ -8358,7 +8358,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>32710000</v>
+        <v>14380000</v>
       </c>
     </row>
     <row r="543">
@@ -8372,7 +8372,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>29240000</v>
+        <v>8360000</v>
       </c>
     </row>
     <row r="544">
@@ -8386,7 +8386,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>6530000</v>
+        <v>29150000</v>
       </c>
     </row>
     <row r="545">
@@ -8400,7 +8400,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>37150000</v>
+        <v>19990000</v>
       </c>
     </row>
     <row r="546">
@@ -8414,7 +8414,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>70090000</v>
+        <v>63740000</v>
       </c>
     </row>
     <row r="547">
@@ -8428,7 +8428,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>2590000</v>
+        <v>187200000</v>
       </c>
     </row>
     <row r="548">
@@ -8646,45 +8646,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8692,102 +8695,108 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>766930000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>969130000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1032810000</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1289640000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1191190000</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1008960000</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>955580000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1495250000</v>
       </c>
       <c r="K2" t="n">
-        <v>13420000</v>
+        <v>1139660000</v>
       </c>
       <c r="L2" t="n">
-        <v>29620000</v>
+        <v>3803070000</v>
       </c>
       <c r="M2" t="n">
-        <v>23970000</v>
+        <v>2120970000</v>
       </c>
       <c r="N2" t="n">
-        <v>60820000</v>
+        <v>2977940000</v>
       </c>
       <c r="O2" t="n">
-        <v>7890000</v>
+        <v>3510110000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2302030000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>766930000</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>969130000</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1032810000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1289640000</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1191190000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1008960000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>955580000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1495250000</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1139660000</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3803070000</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2120970000</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2977940000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3510110000</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2302030000</v>
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8826,6 +8835,9 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8833,46 +8845,49 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
         <v>4372280000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>4497470000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4661280000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3576380000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3052380000</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4148170000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>5119390000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>5597310000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>6582520000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>8282310000</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>5474940000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>5491840000</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>6899660000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>6157160000</v>
       </c>
     </row>
@@ -8880,948 +8895,1008 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>270870000</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>188140000</v>
+        <v>1576950000</v>
       </c>
       <c r="D6" t="n">
-        <v>251160000</v>
+        <v>168360000</v>
       </c>
       <c r="E6" t="n">
-        <v>216560000</v>
+        <v>142970000</v>
       </c>
       <c r="F6" t="n">
-        <v>164270000</v>
+        <v>248090000</v>
       </c>
       <c r="G6" t="n">
-        <v>659210000</v>
+        <v>179100000</v>
       </c>
       <c r="H6" t="n">
-        <v>169470000</v>
+        <v>179090000</v>
       </c>
       <c r="I6" t="n">
-        <v>101590000</v>
+        <v>316090000</v>
       </c>
       <c r="J6" t="n">
-        <v>269460000</v>
+        <v>387630000</v>
       </c>
       <c r="K6" t="n">
-        <v>183810000</v>
+        <v>200920000</v>
       </c>
       <c r="L6" t="n">
-        <v>154200000</v>
+        <v>540650000</v>
       </c>
       <c r="M6" t="n">
-        <v>227120000</v>
+        <v>318970000</v>
       </c>
       <c r="N6" t="n">
-        <v>147710000</v>
+        <v>260910000</v>
       </c>
       <c r="O6" t="n">
-        <v>617750000</v>
+        <v>326860000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>492930000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>1576950000</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>168360000</v>
+        <v>270870000</v>
       </c>
       <c r="D7" t="n">
-        <v>142970000</v>
+        <v>188140000</v>
       </c>
       <c r="E7" t="n">
-        <v>248090000</v>
+        <v>251160000</v>
       </c>
       <c r="F7" t="n">
-        <v>179100000</v>
+        <v>216560000</v>
       </c>
       <c r="G7" t="n">
-        <v>179090000</v>
+        <v>164270000</v>
       </c>
       <c r="H7" t="n">
-        <v>316090000</v>
+        <v>659210000</v>
       </c>
       <c r="I7" t="n">
-        <v>387630000</v>
+        <v>169470000</v>
       </c>
       <c r="J7" t="n">
-        <v>200920000</v>
+        <v>101590000</v>
       </c>
       <c r="K7" t="n">
-        <v>540650000</v>
+        <v>269460000</v>
       </c>
       <c r="L7" t="n">
-        <v>318970000</v>
+        <v>183810000</v>
       </c>
       <c r="M7" t="n">
-        <v>260910000</v>
+        <v>154200000</v>
       </c>
       <c r="N7" t="n">
-        <v>326860000</v>
+        <v>227120000</v>
       </c>
       <c r="O7" t="n">
-        <v>492930000</v>
+        <v>147710000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>617750000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>92130000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>71700000</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>229050000</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1367570000</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>29210000</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>548810000</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>33950000</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>31850000</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>49930000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>126160000</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>19360000</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9990000</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>146760000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>187040000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>92130000</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>71700000</v>
+        <v>2364870000</v>
       </c>
       <c r="D9" t="n">
-        <v>229050000</v>
+        <v>2519900000</v>
       </c>
       <c r="E9" t="n">
-        <v>1367570000</v>
+        <v>2018320000</v>
       </c>
       <c r="F9" t="n">
-        <v>29210000</v>
+        <v>1251520000</v>
       </c>
       <c r="G9" t="n">
-        <v>548810000</v>
+        <v>1018850000</v>
       </c>
       <c r="H9" t="n">
-        <v>33950000</v>
+        <v>1843840000</v>
       </c>
       <c r="I9" t="n">
-        <v>31850000</v>
+        <v>2836590000</v>
       </c>
       <c r="J9" t="n">
-        <v>49930000</v>
+        <v>1944780000</v>
       </c>
       <c r="K9" t="n">
-        <v>126160000</v>
+        <v>3448810000</v>
       </c>
       <c r="L9" t="n">
-        <v>19360000</v>
+        <v>1828010000</v>
       </c>
       <c r="M9" t="n">
-        <v>9990000</v>
+        <v>3586720000</v>
       </c>
       <c r="N9" t="n">
-        <v>146760000</v>
+        <v>10580610000</v>
       </c>
       <c r="O9" t="n">
-        <v>187040000</v>
+        <v>3996690000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3228360000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>2364870000</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>2519900000</v>
+        <v>99040000</v>
       </c>
       <c r="D10" t="n">
-        <v>2018320000</v>
+        <v>79520000</v>
       </c>
       <c r="E10" t="n">
-        <v>1251520000</v>
+        <v>164580000</v>
       </c>
       <c r="F10" t="n">
-        <v>1018850000</v>
+        <v>99270000</v>
       </c>
       <c r="G10" t="n">
-        <v>1843840000</v>
+        <v>193310000</v>
       </c>
       <c r="H10" t="n">
-        <v>2836590000</v>
+        <v>41180000</v>
       </c>
       <c r="I10" t="n">
-        <v>1944780000</v>
+        <v>97180000</v>
       </c>
       <c r="J10" t="n">
-        <v>3448810000</v>
+        <v>109420000</v>
       </c>
       <c r="K10" t="n">
-        <v>1828010000</v>
+        <v>103100000</v>
       </c>
       <c r="L10" t="n">
-        <v>3586720000</v>
+        <v>119780000</v>
       </c>
       <c r="M10" t="n">
-        <v>10580610000</v>
+        <v>256690000</v>
       </c>
       <c r="N10" t="n">
-        <v>3996690000</v>
+        <v>81130000</v>
       </c>
       <c r="O10" t="n">
-        <v>3228360000</v>
+        <v>36000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>54330000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>99040000</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>79520000</v>
+        <v>16200000</v>
       </c>
       <c r="D11" t="n">
-        <v>164580000</v>
+        <v>12200000</v>
       </c>
       <c r="E11" t="n">
-        <v>99270000</v>
+        <v>15110000</v>
       </c>
       <c r="F11" t="n">
-        <v>193310000</v>
+        <v>71490000</v>
       </c>
       <c r="G11" t="n">
-        <v>41180000</v>
+        <v>58910000</v>
       </c>
       <c r="H11" t="n">
-        <v>97180000</v>
+        <v>31560000</v>
       </c>
       <c r="I11" t="n">
-        <v>109420000</v>
+        <v>55470000</v>
       </c>
       <c r="J11" t="n">
-        <v>103100000</v>
+        <v>30830000</v>
       </c>
       <c r="K11" t="n">
-        <v>119780000</v>
+        <v>48340000</v>
       </c>
       <c r="L11" t="n">
-        <v>256690000</v>
+        <v>36750000</v>
       </c>
       <c r="M11" t="n">
-        <v>81130000</v>
+        <v>39450000</v>
       </c>
       <c r="N11" t="n">
-        <v>36000000</v>
+        <v>43160000</v>
       </c>
       <c r="O11" t="n">
-        <v>54330000</v>
+        <v>37110000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>44530000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>15190000</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>12800000</v>
+        <v>665340000</v>
       </c>
       <c r="D12" t="n">
-        <v>5870000</v>
+        <v>866110000</v>
       </c>
       <c r="E12" t="n">
-        <v>90000</v>
+        <v>952900000</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1136390000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2066390000</v>
       </c>
       <c r="H12" t="n">
-        <v>24370000</v>
+        <v>1834490000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1562570000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2381610000</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2806300000</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3781980000</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3769120000</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3937660000</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3336320000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3823230000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>1783150000</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>954360000</v>
+        <v>1047470000</v>
       </c>
       <c r="D13" t="n">
-        <v>8017480000</v>
+        <v>1144160000</v>
       </c>
       <c r="E13" t="n">
-        <v>-1362510000</v>
+        <v>2299690000</v>
       </c>
       <c r="F13" t="n">
-        <v>1035860000</v>
+        <v>2023810000</v>
       </c>
       <c r="G13" t="n">
-        <v>12171020000</v>
+        <v>2790820000</v>
       </c>
       <c r="H13" t="n">
-        <v>126600000</v>
+        <v>2998580000</v>
       </c>
       <c r="I13" t="n">
-        <v>1430370000</v>
+        <v>3660720000</v>
       </c>
       <c r="J13" t="n">
-        <v>2554590000</v>
+        <v>5986670000</v>
       </c>
       <c r="K13" t="n">
-        <v>1557360000</v>
+        <v>5758930000</v>
       </c>
       <c r="L13" t="n">
-        <v>1308280000</v>
+        <v>6365600000</v>
       </c>
       <c r="M13" t="n">
-        <v>1389870000</v>
+        <v>8217370000</v>
       </c>
       <c r="N13" t="n">
-        <v>1288400000</v>
+        <v>919540000</v>
       </c>
       <c r="O13" t="n">
-        <v>1160050000</v>
+        <v>762060000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1366230000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>16200000</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>12200000</v>
+        <v>3610000</v>
       </c>
       <c r="D14" t="n">
-        <v>15110000</v>
+        <v>14090000</v>
       </c>
       <c r="E14" t="n">
-        <v>71490000</v>
+        <v>7210000</v>
       </c>
       <c r="F14" t="n">
-        <v>58910000</v>
+        <v>27800000</v>
       </c>
       <c r="G14" t="n">
-        <v>31560000</v>
+        <v>17560000</v>
       </c>
       <c r="H14" t="n">
-        <v>55470000</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30830000</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>48340000</v>
+        <v>100380000</v>
       </c>
       <c r="K14" t="n">
-        <v>36750000</v>
+        <v>36790000</v>
       </c>
       <c r="L14" t="n">
-        <v>39450000</v>
+        <v>142950000</v>
       </c>
       <c r="M14" t="n">
-        <v>43160000</v>
+        <v>52090000</v>
       </c>
       <c r="N14" t="n">
-        <v>37110000</v>
+        <v>1068330000</v>
       </c>
       <c r="O14" t="n">
-        <v>44530000</v>
+        <v>14210000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>23790000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>665340000</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>866110000</v>
+        <v>607950000</v>
       </c>
       <c r="D15" t="n">
-        <v>952900000</v>
+        <v>640380000</v>
       </c>
       <c r="E15" t="n">
-        <v>1136390000</v>
+        <v>1430030000</v>
       </c>
       <c r="F15" t="n">
-        <v>2066390000</v>
+        <v>5609830000</v>
       </c>
       <c r="G15" t="n">
-        <v>1834490000</v>
+        <v>485370000</v>
       </c>
       <c r="H15" t="n">
-        <v>1562570000</v>
+        <v>2197030000</v>
       </c>
       <c r="I15" t="n">
-        <v>2381610000</v>
+        <v>350870000</v>
       </c>
       <c r="J15" t="n">
-        <v>2806300000</v>
+        <v>226300000</v>
       </c>
       <c r="K15" t="n">
-        <v>3781980000</v>
+        <v>896490000</v>
       </c>
       <c r="L15" t="n">
-        <v>3769120000</v>
+        <v>927170000</v>
       </c>
       <c r="M15" t="n">
-        <v>3937660000</v>
+        <v>801790000</v>
       </c>
       <c r="N15" t="n">
-        <v>3336320000</v>
+        <v>1199310000</v>
       </c>
       <c r="O15" t="n">
-        <v>3823230000</v>
+        <v>1272330000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1437130000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>6210000</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>273290000</v>
+        <v>1783150000</v>
       </c>
       <c r="D16" t="n">
-        <v>92490000</v>
+        <v>954360000</v>
       </c>
       <c r="E16" t="n">
-        <v>109320000</v>
+        <v>8017480000</v>
       </c>
       <c r="F16" t="n">
-        <v>29750000</v>
+        <v>-1362510000</v>
       </c>
       <c r="G16" t="n">
-        <v>76150000</v>
+        <v>1035860000</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12171020000</v>
       </c>
       <c r="I16" t="n">
-        <v>6060000</v>
+        <v>126600000</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1430370000</v>
       </c>
       <c r="K16" t="n">
-        <v>3210000</v>
+        <v>2554590000</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1557360000</v>
       </c>
       <c r="M16" t="n">
-        <v>3780000</v>
+        <v>1308280000</v>
       </c>
       <c r="N16" t="n">
-        <v>2480000</v>
+        <v>1389870000</v>
       </c>
       <c r="O16" t="n">
-        <v>13930000</v>
+        <v>1288400000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1160050000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>1047470000</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1144160000</v>
+        <v>4640000</v>
       </c>
       <c r="D17" t="n">
-        <v>2299690000</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2023810000</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2790820000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2998580000</v>
+        <v>4300000</v>
       </c>
       <c r="H17" t="n">
-        <v>3660720000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5986670000</v>
+        <v>9420000</v>
       </c>
       <c r="J17" t="n">
-        <v>5758930000</v>
+        <v>3610000</v>
       </c>
       <c r="K17" t="n">
-        <v>6365600000</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>8217370000</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>919540000</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>762060000</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1366230000</v>
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>3610000</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>14090000</v>
+        <v>10105110000</v>
       </c>
       <c r="D18" t="n">
-        <v>7210000</v>
+        <v>9500270000</v>
       </c>
       <c r="E18" t="n">
-        <v>27800000</v>
+        <v>8372490000</v>
       </c>
       <c r="F18" t="n">
-        <v>17560000</v>
+        <v>11187800000</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4580370000</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5803600000</v>
       </c>
       <c r="I18" t="n">
-        <v>100380000</v>
+        <v>7042280000</v>
       </c>
       <c r="J18" t="n">
-        <v>36790000</v>
+        <v>7181710000</v>
       </c>
       <c r="K18" t="n">
-        <v>142950000</v>
+        <v>7279280000</v>
       </c>
       <c r="L18" t="n">
-        <v>52090000</v>
+        <v>11971220000</v>
       </c>
       <c r="M18" t="n">
-        <v>1068330000</v>
+        <v>10567600000</v>
       </c>
       <c r="N18" t="n">
-        <v>14210000</v>
+        <v>7015850000</v>
       </c>
       <c r="O18" t="n">
-        <v>23790000</v>
+        <v>6446510000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9818310000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>607950000</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>640380000</v>
+        <v>17870590000</v>
       </c>
       <c r="D19" t="n">
-        <v>1430030000</v>
+        <v>16991560000</v>
       </c>
       <c r="E19" t="n">
-        <v>5609830000</v>
+        <v>14680840000</v>
       </c>
       <c r="F19" t="n">
-        <v>485370000</v>
+        <v>13839480000</v>
       </c>
       <c r="G19" t="n">
-        <v>2197030000</v>
+        <v>11415560000</v>
       </c>
       <c r="H19" t="n">
-        <v>350870000</v>
+        <v>9878120000</v>
       </c>
       <c r="I19" t="n">
-        <v>226300000</v>
+        <v>13357610000</v>
       </c>
       <c r="J19" t="n">
-        <v>896490000</v>
+        <v>10684010000</v>
       </c>
       <c r="K19" t="n">
-        <v>927170000</v>
+        <v>13621280000</v>
       </c>
       <c r="L19" t="n">
-        <v>801790000</v>
+        <v>22450110000</v>
       </c>
       <c r="M19" t="n">
-        <v>1199310000</v>
+        <v>27534370000</v>
       </c>
       <c r="N19" t="n">
-        <v>1272330000</v>
+        <v>15589690000</v>
       </c>
       <c r="O19" t="n">
-        <v>1437130000</v>
+        <v>15136130000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>16218620000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>247930000</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>354330000</v>
+        <v>1936130000</v>
       </c>
       <c r="D20" t="n">
-        <v>240540000</v>
+        <v>1675180000</v>
       </c>
       <c r="E20" t="n">
-        <v>292910000</v>
+        <v>2141350000</v>
       </c>
       <c r="F20" t="n">
-        <v>71840000</v>
+        <v>2828890000</v>
       </c>
       <c r="G20" t="n">
-        <v>54360000</v>
+        <v>2800760000</v>
       </c>
       <c r="H20" t="n">
-        <v>10910000</v>
+        <v>2938400000</v>
       </c>
       <c r="I20" t="n">
-        <v>16940000</v>
+        <v>4364090000</v>
       </c>
       <c r="J20" t="n">
-        <v>14380000</v>
+        <v>4622270000</v>
       </c>
       <c r="K20" t="n">
-        <v>8360000</v>
+        <v>5107480000</v>
       </c>
       <c r="L20" t="n">
-        <v>29150000</v>
+        <v>4688730000</v>
       </c>
       <c r="M20" t="n">
-        <v>19990000</v>
+        <v>4345450000</v>
       </c>
       <c r="N20" t="n">
-        <v>63740000</v>
+        <v>4619840000</v>
       </c>
       <c r="O20" t="n">
-        <v>187200000</v>
+        <v>6414080000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6736730000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>4640000</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>50260000</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>52590000</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>30560000</v>
       </c>
       <c r="F21" t="n">
-        <v>4300000</v>
+        <v>30820000</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>37340000</v>
       </c>
       <c r="H21" t="n">
-        <v>9420000</v>
+        <v>31610000</v>
       </c>
       <c r="I21" t="n">
-        <v>3610000</v>
+        <v>45330000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>42880000</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>54140000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>39550000</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>45900000</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>47700000</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>63390000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>57450000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>17870590000</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>16991560000</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14680840000</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>13839480000</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11415560000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9878120000</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>13357610000</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>10684010000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13621280000</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22450110000</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27534370000</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>15589690000</v>
+        <v>1548800000</v>
       </c>
       <c r="N22" t="n">
-        <v>15136130000</v>
+        <v>1643650000</v>
       </c>
       <c r="O22" t="n">
-        <v>16218620000</v>
+        <v>1304530000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>10105110000</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>9500270000</v>
+        <v>185040000</v>
       </c>
       <c r="D23" t="n">
-        <v>8372490000</v>
+        <v>111070000</v>
       </c>
       <c r="E23" t="n">
-        <v>11187800000</v>
+        <v>417540000</v>
       </c>
       <c r="F23" t="n">
-        <v>4580370000</v>
+        <v>550360000</v>
       </c>
       <c r="G23" t="n">
-        <v>5803600000</v>
+        <v>2402380000</v>
       </c>
       <c r="H23" t="n">
-        <v>7042280000</v>
+        <v>106940000</v>
       </c>
       <c r="I23" t="n">
-        <v>7181710000</v>
+        <v>181190000</v>
       </c>
       <c r="J23" t="n">
-        <v>7279280000</v>
+        <v>140180000</v>
       </c>
       <c r="K23" t="n">
-        <v>11971220000</v>
+        <v>973680000</v>
       </c>
       <c r="L23" t="n">
-        <v>10567600000</v>
+        <v>41440000</v>
       </c>
       <c r="M23" t="n">
-        <v>7015850000</v>
+        <v>56280000</v>
       </c>
       <c r="N23" t="n">
-        <v>6446510000</v>
+        <v>169390000</v>
       </c>
       <c r="O23" t="n">
-        <v>9818310000</v>
+        <v>197600000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>153530000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>50260000</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>52590000</v>
+        <v>5506300000</v>
       </c>
       <c r="D24" t="n">
-        <v>30560000</v>
+        <v>9340220000</v>
       </c>
       <c r="E24" t="n">
-        <v>30820000</v>
+        <v>9018720000</v>
       </c>
       <c r="F24" t="n">
-        <v>37340000</v>
+        <v>11539770000</v>
       </c>
       <c r="G24" t="n">
-        <v>31610000</v>
+        <v>7951620000</v>
       </c>
       <c r="H24" t="n">
-        <v>45330000</v>
+        <v>10098000000</v>
       </c>
       <c r="I24" t="n">
-        <v>42880000</v>
+        <v>16268670000</v>
       </c>
       <c r="J24" t="n">
-        <v>54140000</v>
+        <v>12028220000</v>
       </c>
       <c r="K24" t="n">
-        <v>39550000</v>
+        <v>6800700000</v>
       </c>
       <c r="L24" t="n">
-        <v>45900000</v>
+        <v>13828490000</v>
       </c>
       <c r="M24" t="n">
-        <v>47700000</v>
+        <v>9754570000</v>
       </c>
       <c r="N24" t="n">
-        <v>63390000</v>
+        <v>9897090000</v>
       </c>
       <c r="O24" t="n">
-        <v>57450000</v>
+        <v>12236270000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8695310000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>1936130000</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>1675180000</v>
+        <v>746830000</v>
       </c>
       <c r="D25" t="n">
-        <v>2141350000</v>
+        <v>850970000</v>
       </c>
       <c r="E25" t="n">
-        <v>2828890000</v>
+        <v>1028500000</v>
       </c>
       <c r="F25" t="n">
-        <v>2800760000</v>
+        <v>935660000</v>
       </c>
       <c r="G25" t="n">
-        <v>2938400000</v>
+        <v>1257540000</v>
       </c>
       <c r="H25" t="n">
-        <v>4364090000</v>
+        <v>1504870000</v>
       </c>
       <c r="I25" t="n">
-        <v>4622270000</v>
+        <v>1876330000</v>
       </c>
       <c r="J25" t="n">
-        <v>5107480000</v>
+        <v>2347800000</v>
       </c>
       <c r="K25" t="n">
-        <v>4688730000</v>
+        <v>3852950000</v>
       </c>
       <c r="L25" t="n">
-        <v>4345450000</v>
+        <v>3098220000</v>
       </c>
       <c r="M25" t="n">
-        <v>4619840000</v>
+        <v>4614790000</v>
       </c>
       <c r="N25" t="n">
-        <v>6414080000</v>
+        <v>5114810000</v>
       </c>
       <c r="O25" t="n">
-        <v>6736730000</v>
+        <v>4530060000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6062330000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -9851,15 +9926,18 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1548800000</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1643650000</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1304530000</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9867,149 +9945,158 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>185040000</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>111070000</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>417540000</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>550360000</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2402380000</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>106940000</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>181190000</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>140180000</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>973680000</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>41440000</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>56280000</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169390000</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>197600000</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>153530000</v>
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>5506300000</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>9340220000</v>
+        <v>233110000</v>
       </c>
       <c r="D28" t="n">
-        <v>9018720000</v>
+        <v>522880000</v>
       </c>
       <c r="E28" t="n">
-        <v>11539770000</v>
+        <v>360110000</v>
       </c>
       <c r="F28" t="n">
-        <v>7951620000</v>
+        <v>1757170000</v>
       </c>
       <c r="G28" t="n">
-        <v>10098000000</v>
+        <v>174930000</v>
       </c>
       <c r="H28" t="n">
-        <v>16268670000</v>
+        <v>172540000</v>
       </c>
       <c r="I28" t="n">
-        <v>12028220000</v>
+        <v>378200000</v>
       </c>
       <c r="J28" t="n">
-        <v>6800700000</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>13828490000</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>9754570000</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>9897090000</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>12236270000</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>8695310000</v>
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>746830000</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>850970000</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1028500000</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>935660000</v>
+        <v>4920000</v>
       </c>
       <c r="F29" t="n">
-        <v>1257540000</v>
+        <v>5160000</v>
       </c>
       <c r="G29" t="n">
-        <v>1504870000</v>
+        <v>7760000</v>
       </c>
       <c r="H29" t="n">
-        <v>1876330000</v>
+        <v>9580000</v>
       </c>
       <c r="I29" t="n">
-        <v>2347800000</v>
+        <v>10620000</v>
       </c>
       <c r="J29" t="n">
-        <v>3852950000</v>
+        <v>9970000</v>
       </c>
       <c r="K29" t="n">
-        <v>3098220000</v>
+        <v>10270000</v>
       </c>
       <c r="L29" t="n">
-        <v>4614790000</v>
+        <v>10380000</v>
       </c>
       <c r="M29" t="n">
-        <v>5114810000</v>
+        <v>9500000</v>
       </c>
       <c r="N29" t="n">
-        <v>4530060000</v>
+        <v>9810000</v>
       </c>
       <c r="O29" t="n">
-        <v>6062330000</v>
+        <v>11270000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10700000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -10048,6 +10135,9 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10055,8 +10145,8 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -10068,60 +10158,63 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>460000</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7030000</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6890000</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6250000</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>660000</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>310000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>233110000</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>522880000</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>360110000</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1757170000</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>174930000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>172540000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>378200000</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -10133,54 +10226,57 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>379330000</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>510460000</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>598550000</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>447930000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>678020000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>138780000</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>460000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7030000</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6890000</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6250000</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>660000</v>
+        <v>2053450000</v>
       </c>
       <c r="K33" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10189,15 +10285,18 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>310000</v>
+        <v>2060000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3010000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -10236,6 +10335,9 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10243,114 +10345,120 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6210000</v>
       </c>
       <c r="D35" t="n">
-        <v>4920000</v>
+        <v>273290000</v>
       </c>
       <c r="E35" t="n">
-        <v>5160000</v>
+        <v>92490000</v>
       </c>
       <c r="F35" t="n">
-        <v>7760000</v>
+        <v>109320000</v>
       </c>
       <c r="G35" t="n">
-        <v>9580000</v>
+        <v>29750000</v>
       </c>
       <c r="H35" t="n">
-        <v>10620000</v>
+        <v>76150000</v>
       </c>
       <c r="I35" t="n">
-        <v>9970000</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10270000</v>
+        <v>6060000</v>
       </c>
       <c r="K35" t="n">
-        <v>10380000</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>9500000</v>
+        <v>3210000</v>
       </c>
       <c r="M35" t="n">
-        <v>9810000</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>11270000</v>
+        <v>3780000</v>
       </c>
       <c r="O35" t="n">
-        <v>10700000</v>
+        <v>2480000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>13930000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>8530000</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4430000</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6160000</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>93680000</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>39730000</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50940000</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>98580000</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41970000</v>
       </c>
       <c r="K36" t="n">
-        <v>379330000</v>
+        <v>66110000</v>
       </c>
       <c r="L36" t="n">
-        <v>510460000</v>
+        <v>89640000</v>
       </c>
       <c r="M36" t="n">
-        <v>598550000</v>
+        <v>50000</v>
       </c>
       <c r="N36" t="n">
-        <v>447930000</v>
+        <v>50720000</v>
       </c>
       <c r="O36" t="n">
-        <v>678020000</v>
+        <v>49220000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>44310000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>138780000</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>15190000</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>12800000</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5870000</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -10359,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2053450000</v>
+        <v>24370000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -10374,18 +10482,21 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2060000</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3010000</v>
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -10397,174 +10508,186 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>69210000</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1131630000</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>624220000</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8440000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7280000</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>32710000</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>29240000</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6530000</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>37150000</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>70090000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2590000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>8530000</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>4430000</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6160000</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>93680000</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>39730000</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>50940000</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98580000</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>41970000</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>66110000</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>89640000</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>50000</v>
+        <v>13420000</v>
       </c>
       <c r="M39" t="n">
-        <v>50720000</v>
+        <v>29620000</v>
       </c>
       <c r="N39" t="n">
-        <v>49220000</v>
+        <v>23970000</v>
       </c>
       <c r="O39" t="n">
-        <v>44310000</v>
+        <v>60820000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>7890000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>247930000</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>354330000</v>
       </c>
       <c r="E40" t="n">
-        <v>69210000</v>
+        <v>240540000</v>
       </c>
       <c r="F40" t="n">
-        <v>1131630000</v>
+        <v>292910000</v>
       </c>
       <c r="G40" t="n">
-        <v>624220000</v>
+        <v>71840000</v>
       </c>
       <c r="H40" t="n">
-        <v>8440000</v>
+        <v>54360000</v>
       </c>
       <c r="I40" t="n">
-        <v>7280000</v>
+        <v>10910000</v>
       </c>
       <c r="J40" t="n">
-        <v>32710000</v>
+        <v>16940000</v>
       </c>
       <c r="K40" t="n">
-        <v>29240000</v>
+        <v>14380000</v>
       </c>
       <c r="L40" t="n">
-        <v>6530000</v>
+        <v>8360000</v>
       </c>
       <c r="M40" t="n">
-        <v>37150000</v>
+        <v>29150000</v>
       </c>
       <c r="N40" t="n">
-        <v>70090000</v>
+        <v>19990000</v>
       </c>
       <c r="O40" t="n">
-        <v>2590000</v>
+        <v>63740000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>187200000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
         <v>2084520000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>2329490000</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>2024510000</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>3713280000</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>1092140000</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>850830000</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>588090000</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>404850000</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>436500000</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>2231670000</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>1297350000</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>4779860000</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>3455130000</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>2791000000</v>
       </c>
     </row>

--- a/user-data/out-oof-gross/out-oof-gross.xlsx
+++ b/user-data/out-oof-gross/out-oof-gross.xlsx
@@ -28,240 +28,240 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">afdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">African Development Bank (AfDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arab-fund-afesd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Fund (AFESD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">asdb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asian Development Bank (ADB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Australia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belgium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cardb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caribbean Development Bank (CarDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Bank for Reconstruction and Development (EBRD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">European Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Germany</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greece</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibrd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Bank for Reconstruction and Development (IBRD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Finance Corporation (IFC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ifad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Fund for Agricultural Development (IFAD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">islamic-dev-bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Islamic Development Bank (IsDB)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Korea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kuwait</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luxembourg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Netherlands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Zealand</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nordic-dev-fund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nordic Development Fund (NDF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norway</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ofid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPEC Fund for International Development (OFID)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saudi Arabia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sweden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
     <t xml:space="preserve">AE</t>
   </si>
   <si>
     <t xml:space="preserve">UAE</t>
   </si>
   <si>
-    <t xml:space="preserve">afdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">African Development Bank (AfDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">arab-fund-afesd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab Fund (AFESD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">asdb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Asian Development Bank (ADB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Australia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">badea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Belgium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cardb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caribbean Development Bank (CarDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Bank for Reconstruction and Development (EBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">European Union</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Finland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">France</t>
-  </si>
-  <si>
     <t xml:space="preserve">GB</t>
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">GR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Greece</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ibrd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Bank for Reconstruction and Development (IBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">idb</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Fund for Agricultural Development (IFAD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Finance Corporation (IFC)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">islamic-dev-bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Islamic Development Bank (IsDB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Japan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Korea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kuwait</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luxembourg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Netherlands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Norway</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nordic-dev-fund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nordic Development Fund (NDF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NZ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">New Zealand</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ofid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OPEC Fund for International Development (OFID)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Portugal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saudi Arabia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sweden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Turkey</t>
-  </si>
-  <si>
     <t xml:space="preserve">US</t>
   </si>
   <si>
@@ -316,7 +316,7 @@
     <t xml:space="preserve">Description: Gross other official flows provided, US$.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
@@ -798,7 +798,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>766930000</v>
       </c>
     </row>
     <row r="3">
@@ -812,7 +812,7 @@
         <v>2001</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>969130000</v>
       </c>
     </row>
     <row r="4">
@@ -826,7 +826,7 @@
         <v>2002</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1032810000</v>
       </c>
     </row>
     <row r="5">
@@ -840,7 +840,7 @@
         <v>2003</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1289640000</v>
       </c>
     </row>
     <row r="6">
@@ -854,7 +854,7 @@
         <v>2004</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1191190000</v>
       </c>
     </row>
     <row r="7">
@@ -868,7 +868,7 @@
         <v>2005</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1008960000</v>
       </c>
     </row>
     <row r="8">
@@ -882,7 +882,7 @@
         <v>2006</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>955580000</v>
       </c>
     </row>
     <row r="9">
@@ -896,7 +896,7 @@
         <v>2007</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1495250000</v>
       </c>
     </row>
     <row r="10">
@@ -910,7 +910,7 @@
         <v>2008</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1139660000</v>
       </c>
     </row>
     <row r="11">
@@ -924,7 +924,7 @@
         <v>2009</v>
       </c>
       <c r="D11" t="n">
-        <v>13420000</v>
+        <v>3803070000</v>
       </c>
     </row>
     <row r="12">
@@ -938,7 +938,7 @@
         <v>2010</v>
       </c>
       <c r="D12" t="n">
-        <v>29620000</v>
+        <v>2120970000</v>
       </c>
     </row>
     <row r="13">
@@ -952,7 +952,7 @@
         <v>2011</v>
       </c>
       <c r="D13" t="n">
-        <v>23970000</v>
+        <v>2977940000</v>
       </c>
     </row>
     <row r="14">
@@ -966,7 +966,7 @@
         <v>2012</v>
       </c>
       <c r="D14" t="n">
-        <v>60820000</v>
+        <v>3510110000</v>
       </c>
     </row>
     <row r="15">
@@ -980,7 +980,7 @@
         <v>2013</v>
       </c>
       <c r="D15" t="n">
-        <v>7890000</v>
+        <v>2302030000</v>
       </c>
     </row>
     <row r="16">
@@ -994,7 +994,7 @@
         <v>2000</v>
       </c>
       <c r="D16" t="n">
-        <v>766930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1008,7 +1008,7 @@
         <v>2001</v>
       </c>
       <c r="D17" t="n">
-        <v>969130000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         <v>2002</v>
       </c>
       <c r="D18" t="n">
-        <v>1032810000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1036,7 +1036,7 @@
         <v>2003</v>
       </c>
       <c r="D19" t="n">
-        <v>1289640000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1050,7 +1050,7 @@
         <v>2004</v>
       </c>
       <c r="D20" t="n">
-        <v>1191190000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1064,7 +1064,7 @@
         <v>2005</v>
       </c>
       <c r="D21" t="n">
-        <v>1008960000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1078,7 +1078,7 @@
         <v>2006</v>
       </c>
       <c r="D22" t="n">
-        <v>955580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1092,7 +1092,7 @@
         <v>2007</v>
       </c>
       <c r="D23" t="n">
-        <v>1495250000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>2008</v>
       </c>
       <c r="D24" t="n">
-        <v>1139660000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1120,7 +1120,7 @@
         <v>2009</v>
       </c>
       <c r="D25" t="n">
-        <v>3803070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1134,7 +1134,7 @@
         <v>2010</v>
       </c>
       <c r="D26" t="n">
-        <v>2120970000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1148,7 +1148,7 @@
         <v>2011</v>
       </c>
       <c r="D27" t="n">
-        <v>2977940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1162,7 +1162,7 @@
         <v>2012</v>
       </c>
       <c r="D28" t="n">
-        <v>3510110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1176,7 +1176,7 @@
         <v>2013</v>
       </c>
       <c r="D29" t="n">
-        <v>2302030000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1582,7 +1582,7 @@
         <v>2000</v>
       </c>
       <c r="D58" t="n">
-        <v>270870000</v>
+        <v>1576950000</v>
       </c>
     </row>
     <row r="59">
@@ -1596,7 +1596,7 @@
         <v>2001</v>
       </c>
       <c r="D59" t="n">
-        <v>188140000</v>
+        <v>168360000</v>
       </c>
     </row>
     <row r="60">
@@ -1610,7 +1610,7 @@
         <v>2002</v>
       </c>
       <c r="D60" t="n">
-        <v>251160000</v>
+        <v>142970000</v>
       </c>
     </row>
     <row r="61">
@@ -1624,7 +1624,7 @@
         <v>2003</v>
       </c>
       <c r="D61" t="n">
-        <v>216560000</v>
+        <v>248090000</v>
       </c>
     </row>
     <row r="62">
@@ -1638,7 +1638,7 @@
         <v>2004</v>
       </c>
       <c r="D62" t="n">
-        <v>164270000</v>
+        <v>179100000</v>
       </c>
     </row>
     <row r="63">
@@ -1652,7 +1652,7 @@
         <v>2005</v>
       </c>
       <c r="D63" t="n">
-        <v>659210000</v>
+        <v>179090000</v>
       </c>
     </row>
     <row r="64">
@@ -1666,7 +1666,7 @@
         <v>2006</v>
       </c>
       <c r="D64" t="n">
-        <v>169470000</v>
+        <v>316090000</v>
       </c>
     </row>
     <row r="65">
@@ -1680,7 +1680,7 @@
         <v>2007</v>
       </c>
       <c r="D65" t="n">
-        <v>101590000</v>
+        <v>387630000</v>
       </c>
     </row>
     <row r="66">
@@ -1694,7 +1694,7 @@
         <v>2008</v>
       </c>
       <c r="D66" t="n">
-        <v>269460000</v>
+        <v>200920000</v>
       </c>
     </row>
     <row r="67">
@@ -1708,7 +1708,7 @@
         <v>2009</v>
       </c>
       <c r="D67" t="n">
-        <v>183810000</v>
+        <v>540650000</v>
       </c>
     </row>
     <row r="68">
@@ -1722,7 +1722,7 @@
         <v>2010</v>
       </c>
       <c r="D68" t="n">
-        <v>154200000</v>
+        <v>318970000</v>
       </c>
     </row>
     <row r="69">
@@ -1736,7 +1736,7 @@
         <v>2011</v>
       </c>
       <c r="D69" t="n">
-        <v>227120000</v>
+        <v>260910000</v>
       </c>
     </row>
     <row r="70">
@@ -1750,7 +1750,7 @@
         <v>2012</v>
       </c>
       <c r="D70" t="n">
-        <v>147710000</v>
+        <v>326860000</v>
       </c>
     </row>
     <row r="71">
@@ -1764,7 +1764,7 @@
         <v>2013</v>
       </c>
       <c r="D71" t="n">
-        <v>617750000</v>
+        <v>492930000</v>
       </c>
     </row>
     <row r="72">
@@ -1778,7 +1778,7 @@
         <v>2000</v>
       </c>
       <c r="D72" t="n">
-        <v>1576950000</v>
+        <v>270870000</v>
       </c>
     </row>
     <row r="73">
@@ -1792,7 +1792,7 @@
         <v>2001</v>
       </c>
       <c r="D73" t="n">
-        <v>168360000</v>
+        <v>188140000</v>
       </c>
     </row>
     <row r="74">
@@ -1806,7 +1806,7 @@
         <v>2002</v>
       </c>
       <c r="D74" t="n">
-        <v>142970000</v>
+        <v>251160000</v>
       </c>
     </row>
     <row r="75">
@@ -1820,7 +1820,7 @@
         <v>2003</v>
       </c>
       <c r="D75" t="n">
-        <v>248090000</v>
+        <v>216560000</v>
       </c>
     </row>
     <row r="76">
@@ -1834,7 +1834,7 @@
         <v>2004</v>
       </c>
       <c r="D76" t="n">
-        <v>179100000</v>
+        <v>164270000</v>
       </c>
     </row>
     <row r="77">
@@ -1848,7 +1848,7 @@
         <v>2005</v>
       </c>
       <c r="D77" t="n">
-        <v>179090000</v>
+        <v>659210000</v>
       </c>
     </row>
     <row r="78">
@@ -1862,7 +1862,7 @@
         <v>2006</v>
       </c>
       <c r="D78" t="n">
-        <v>316090000</v>
+        <v>169470000</v>
       </c>
     </row>
     <row r="79">
@@ -1876,7 +1876,7 @@
         <v>2007</v>
       </c>
       <c r="D79" t="n">
-        <v>387630000</v>
+        <v>101590000</v>
       </c>
     </row>
     <row r="80">
@@ -1890,7 +1890,7 @@
         <v>2008</v>
       </c>
       <c r="D80" t="n">
-        <v>200920000</v>
+        <v>269460000</v>
       </c>
     </row>
     <row r="81">
@@ -1904,7 +1904,7 @@
         <v>2009</v>
       </c>
       <c r="D81" t="n">
-        <v>540650000</v>
+        <v>183810000</v>
       </c>
     </row>
     <row r="82">
@@ -1918,7 +1918,7 @@
         <v>2010</v>
       </c>
       <c r="D82" t="n">
-        <v>318970000</v>
+        <v>154200000</v>
       </c>
     </row>
     <row r="83">
@@ -1932,7 +1932,7 @@
         <v>2011</v>
       </c>
       <c r="D83" t="n">
-        <v>260910000</v>
+        <v>227120000</v>
       </c>
     </row>
     <row r="84">
@@ -1946,7 +1946,7 @@
         <v>2012</v>
       </c>
       <c r="D84" t="n">
-        <v>326860000</v>
+        <v>147710000</v>
       </c>
     </row>
     <row r="85">
@@ -1960,7 +1960,7 @@
         <v>2013</v>
       </c>
       <c r="D85" t="n">
-        <v>492930000</v>
+        <v>617750000</v>
       </c>
     </row>
     <row r="86">
@@ -1974,7 +1974,7 @@
         <v>2000</v>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>92130000</v>
       </c>
     </row>
     <row r="87">
@@ -1988,7 +1988,7 @@
         <v>2001</v>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>71700000</v>
       </c>
     </row>
     <row r="88">
@@ -2002,7 +2002,7 @@
         <v>2002</v>
       </c>
       <c r="D88" t="n">
-        <v>0</v>
+        <v>229050000</v>
       </c>
     </row>
     <row r="89">
@@ -2016,7 +2016,7 @@
         <v>2003</v>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>1367570000</v>
       </c>
     </row>
     <row r="90">
@@ -2030,7 +2030,7 @@
         <v>2004</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>29210000</v>
       </c>
     </row>
     <row r="91">
@@ -2044,7 +2044,7 @@
         <v>2005</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>548810000</v>
       </c>
     </row>
     <row r="92">
@@ -2058,7 +2058,7 @@
         <v>2006</v>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>33950000</v>
       </c>
     </row>
     <row r="93">
@@ -2072,7 +2072,7 @@
         <v>2007</v>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>31850000</v>
       </c>
     </row>
     <row r="94">
@@ -2086,7 +2086,7 @@
         <v>2008</v>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>49930000</v>
       </c>
     </row>
     <row r="95">
@@ -2100,7 +2100,7 @@
         <v>2009</v>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>126160000</v>
       </c>
     </row>
     <row r="96">
@@ -2114,7 +2114,7 @@
         <v>2010</v>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>19360000</v>
       </c>
     </row>
     <row r="97">
@@ -2128,7 +2128,7 @@
         <v>2011</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>9990000</v>
       </c>
     </row>
     <row r="98">
@@ -2142,7 +2142,7 @@
         <v>2012</v>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>146760000</v>
       </c>
     </row>
     <row r="99">
@@ -2156,7 +2156,7 @@
         <v>2013</v>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>187040000</v>
       </c>
     </row>
     <row r="100">
@@ -2170,7 +2170,7 @@
         <v>2000</v>
       </c>
       <c r="D100" t="n">
-        <v>92130000</v>
+        <v>2364870000</v>
       </c>
     </row>
     <row r="101">
@@ -2184,7 +2184,7 @@
         <v>2001</v>
       </c>
       <c r="D101" t="n">
-        <v>71700000</v>
+        <v>2519900000</v>
       </c>
     </row>
     <row r="102">
@@ -2198,7 +2198,7 @@
         <v>2002</v>
       </c>
       <c r="D102" t="n">
-        <v>229050000</v>
+        <v>2018320000</v>
       </c>
     </row>
     <row r="103">
@@ -2212,7 +2212,7 @@
         <v>2003</v>
       </c>
       <c r="D103" t="n">
-        <v>1367570000</v>
+        <v>1251520000</v>
       </c>
     </row>
     <row r="104">
@@ -2226,7 +2226,7 @@
         <v>2004</v>
       </c>
       <c r="D104" t="n">
-        <v>29210000</v>
+        <v>1018850000</v>
       </c>
     </row>
     <row r="105">
@@ -2240,7 +2240,7 @@
         <v>2005</v>
       </c>
       <c r="D105" t="n">
-        <v>548810000</v>
+        <v>1843840000</v>
       </c>
     </row>
     <row r="106">
@@ -2254,7 +2254,7 @@
         <v>2006</v>
       </c>
       <c r="D106" t="n">
-        <v>33950000</v>
+        <v>2836590000</v>
       </c>
     </row>
     <row r="107">
@@ -2268,7 +2268,7 @@
         <v>2007</v>
       </c>
       <c r="D107" t="n">
-        <v>31850000</v>
+        <v>1944780000</v>
       </c>
     </row>
     <row r="108">
@@ -2282,7 +2282,7 @@
         <v>2008</v>
       </c>
       <c r="D108" t="n">
-        <v>49930000</v>
+        <v>3448810000</v>
       </c>
     </row>
     <row r="109">
@@ -2296,7 +2296,7 @@
         <v>2009</v>
       </c>
       <c r="D109" t="n">
-        <v>126160000</v>
+        <v>1828010000</v>
       </c>
     </row>
     <row r="110">
@@ -2310,7 +2310,7 @@
         <v>2010</v>
       </c>
       <c r="D110" t="n">
-        <v>19360000</v>
+        <v>3586720000</v>
       </c>
     </row>
     <row r="111">
@@ -2324,7 +2324,7 @@
         <v>2011</v>
       </c>
       <c r="D111" t="n">
-        <v>9990000</v>
+        <v>10580610000</v>
       </c>
     </row>
     <row r="112">
@@ -2338,7 +2338,7 @@
         <v>2012</v>
       </c>
       <c r="D112" t="n">
-        <v>146760000</v>
+        <v>3996690000</v>
       </c>
     </row>
     <row r="113">
@@ -2352,7 +2352,7 @@
         <v>2013</v>
       </c>
       <c r="D113" t="n">
-        <v>187040000</v>
+        <v>3228360000</v>
       </c>
     </row>
     <row r="114">
@@ -2366,7 +2366,7 @@
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>2364870000</v>
+        <v>99040000</v>
       </c>
     </row>
     <row r="115">
@@ -2380,7 +2380,7 @@
         <v>2001</v>
       </c>
       <c r="D115" t="n">
-        <v>2519900000</v>
+        <v>79520000</v>
       </c>
     </row>
     <row r="116">
@@ -2394,7 +2394,7 @@
         <v>2002</v>
       </c>
       <c r="D116" t="n">
-        <v>2018320000</v>
+        <v>164580000</v>
       </c>
     </row>
     <row r="117">
@@ -2408,7 +2408,7 @@
         <v>2003</v>
       </c>
       <c r="D117" t="n">
-        <v>1251520000</v>
+        <v>99270000</v>
       </c>
     </row>
     <row r="118">
@@ -2422,7 +2422,7 @@
         <v>2004</v>
       </c>
       <c r="D118" t="n">
-        <v>1018850000</v>
+        <v>193310000</v>
       </c>
     </row>
     <row r="119">
@@ -2436,7 +2436,7 @@
         <v>2005</v>
       </c>
       <c r="D119" t="n">
-        <v>1843840000</v>
+        <v>41180000</v>
       </c>
     </row>
     <row r="120">
@@ -2450,7 +2450,7 @@
         <v>2006</v>
       </c>
       <c r="D120" t="n">
-        <v>2836590000</v>
+        <v>97180000</v>
       </c>
     </row>
     <row r="121">
@@ -2464,7 +2464,7 @@
         <v>2007</v>
       </c>
       <c r="D121" t="n">
-        <v>1944780000</v>
+        <v>109420000</v>
       </c>
     </row>
     <row r="122">
@@ -2478,7 +2478,7 @@
         <v>2008</v>
       </c>
       <c r="D122" t="n">
-        <v>3448810000</v>
+        <v>103100000</v>
       </c>
     </row>
     <row r="123">
@@ -2492,7 +2492,7 @@
         <v>2009</v>
       </c>
       <c r="D123" t="n">
-        <v>1828010000</v>
+        <v>119780000</v>
       </c>
     </row>
     <row r="124">
@@ -2506,7 +2506,7 @@
         <v>2010</v>
       </c>
       <c r="D124" t="n">
-        <v>3586720000</v>
+        <v>256690000</v>
       </c>
     </row>
     <row r="125">
@@ -2520,7 +2520,7 @@
         <v>2011</v>
       </c>
       <c r="D125" t="n">
-        <v>10580610000</v>
+        <v>81130000</v>
       </c>
     </row>
     <row r="126">
@@ -2534,7 +2534,7 @@
         <v>2012</v>
       </c>
       <c r="D126" t="n">
-        <v>3996690000</v>
+        <v>36000000</v>
       </c>
     </row>
     <row r="127">
@@ -2548,7 +2548,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>3228360000</v>
+        <v>54330000</v>
       </c>
     </row>
     <row r="128">
@@ -2562,7 +2562,7 @@
         <v>2000</v>
       </c>
       <c r="D128" t="n">
-        <v>99040000</v>
+        <v>16200000</v>
       </c>
     </row>
     <row r="129">
@@ -2576,7 +2576,7 @@
         <v>2001</v>
       </c>
       <c r="D129" t="n">
-        <v>79520000</v>
+        <v>12200000</v>
       </c>
     </row>
     <row r="130">
@@ -2590,7 +2590,7 @@
         <v>2002</v>
       </c>
       <c r="D130" t="n">
-        <v>164580000</v>
+        <v>15110000</v>
       </c>
     </row>
     <row r="131">
@@ -2604,7 +2604,7 @@
         <v>2003</v>
       </c>
       <c r="D131" t="n">
-        <v>99270000</v>
+        <v>71490000</v>
       </c>
     </row>
     <row r="132">
@@ -2618,7 +2618,7 @@
         <v>2004</v>
       </c>
       <c r="D132" t="n">
-        <v>193310000</v>
+        <v>58910000</v>
       </c>
     </row>
     <row r="133">
@@ -2632,7 +2632,7 @@
         <v>2005</v>
       </c>
       <c r="D133" t="n">
-        <v>41180000</v>
+        <v>31560000</v>
       </c>
     </row>
     <row r="134">
@@ -2646,7 +2646,7 @@
         <v>2006</v>
       </c>
       <c r="D134" t="n">
-        <v>97180000</v>
+        <v>55470000</v>
       </c>
     </row>
     <row r="135">
@@ -2660,7 +2660,7 @@
         <v>2007</v>
       </c>
       <c r="D135" t="n">
-        <v>109420000</v>
+        <v>30830000</v>
       </c>
     </row>
     <row r="136">
@@ -2674,7 +2674,7 @@
         <v>2008</v>
       </c>
       <c r="D136" t="n">
-        <v>103100000</v>
+        <v>48340000</v>
       </c>
     </row>
     <row r="137">
@@ -2688,7 +2688,7 @@
         <v>2009</v>
       </c>
       <c r="D137" t="n">
-        <v>119780000</v>
+        <v>36750000</v>
       </c>
     </row>
     <row r="138">
@@ -2702,7 +2702,7 @@
         <v>2010</v>
       </c>
       <c r="D138" t="n">
-        <v>256690000</v>
+        <v>39450000</v>
       </c>
     </row>
     <row r="139">
@@ -2716,7 +2716,7 @@
         <v>2011</v>
       </c>
       <c r="D139" t="n">
-        <v>81130000</v>
+        <v>43160000</v>
       </c>
     </row>
     <row r="140">
@@ -2730,7 +2730,7 @@
         <v>2012</v>
       </c>
       <c r="D140" t="n">
-        <v>36000000</v>
+        <v>37110000</v>
       </c>
     </row>
     <row r="141">
@@ -2744,7 +2744,7 @@
         <v>2013</v>
       </c>
       <c r="D141" t="n">
-        <v>54330000</v>
+        <v>44530000</v>
       </c>
     </row>
     <row r="142">
@@ -2758,7 +2758,7 @@
         <v>2000</v>
       </c>
       <c r="D142" t="n">
-        <v>15190000</v>
+        <v>665340000</v>
       </c>
     </row>
     <row r="143">
@@ -2772,7 +2772,7 @@
         <v>2001</v>
       </c>
       <c r="D143" t="n">
-        <v>12800000</v>
+        <v>866110000</v>
       </c>
     </row>
     <row r="144">
@@ -2786,7 +2786,7 @@
         <v>2002</v>
       </c>
       <c r="D144" t="n">
-        <v>5870000</v>
+        <v>952900000</v>
       </c>
     </row>
     <row r="145">
@@ -2800,7 +2800,7 @@
         <v>2003</v>
       </c>
       <c r="D145" t="n">
-        <v>90000</v>
+        <v>1136390000</v>
       </c>
     </row>
     <row r="146">
@@ -2814,7 +2814,7 @@
         <v>2004</v>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>2066390000</v>
       </c>
     </row>
     <row r="147">
@@ -2828,7 +2828,7 @@
         <v>2005</v>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>1834490000</v>
       </c>
     </row>
     <row r="148">
@@ -2842,7 +2842,7 @@
         <v>2006</v>
       </c>
       <c r="D148" t="n">
-        <v>24370000</v>
+        <v>1562570000</v>
       </c>
     </row>
     <row r="149">
@@ -2856,7 +2856,7 @@
         <v>2007</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>2381610000</v>
       </c>
     </row>
     <row r="150">
@@ -2870,7 +2870,7 @@
         <v>2008</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>2806300000</v>
       </c>
     </row>
     <row r="151">
@@ -2884,7 +2884,7 @@
         <v>2009</v>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>3781980000</v>
       </c>
     </row>
     <row r="152">
@@ -2898,7 +2898,7 @@
         <v>2010</v>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>3769120000</v>
       </c>
     </row>
     <row r="153">
@@ -2912,7 +2912,7 @@
         <v>2011</v>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>3937660000</v>
       </c>
     </row>
     <row r="154">
@@ -2926,7 +2926,7 @@
         <v>2012</v>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>3336320000</v>
       </c>
     </row>
     <row r="155">
@@ -2940,7 +2940,7 @@
         <v>2013</v>
       </c>
       <c r="D155" t="n">
-        <v>0</v>
+        <v>3823230000</v>
       </c>
     </row>
     <row r="156">
@@ -2954,7 +2954,7 @@
         <v>2000</v>
       </c>
       <c r="D156" t="n">
-        <v>1783150000</v>
+        <v>1047470000</v>
       </c>
     </row>
     <row r="157">
@@ -2968,7 +2968,7 @@
         <v>2001</v>
       </c>
       <c r="D157" t="n">
-        <v>954360000</v>
+        <v>1144160000</v>
       </c>
     </row>
     <row r="158">
@@ -2982,7 +2982,7 @@
         <v>2002</v>
       </c>
       <c r="D158" t="n">
-        <v>8017480000</v>
+        <v>2299690000</v>
       </c>
     </row>
     <row r="159">
@@ -2996,7 +2996,7 @@
         <v>2003</v>
       </c>
       <c r="D159" t="n">
-        <v>-1362510000</v>
+        <v>2023810000</v>
       </c>
     </row>
     <row r="160">
@@ -3010,7 +3010,7 @@
         <v>2004</v>
       </c>
       <c r="D160" t="n">
-        <v>1035860000</v>
+        <v>2790820000</v>
       </c>
     </row>
     <row r="161">
@@ -3024,7 +3024,7 @@
         <v>2005</v>
       </c>
       <c r="D161" t="n">
-        <v>12171020000</v>
+        <v>2998580000</v>
       </c>
     </row>
     <row r="162">
@@ -3038,7 +3038,7 @@
         <v>2006</v>
       </c>
       <c r="D162" t="n">
-        <v>126600000</v>
+        <v>3660720000</v>
       </c>
     </row>
     <row r="163">
@@ -3052,7 +3052,7 @@
         <v>2007</v>
       </c>
       <c r="D163" t="n">
-        <v>1430370000</v>
+        <v>5986670000</v>
       </c>
     </row>
     <row r="164">
@@ -3066,7 +3066,7 @@
         <v>2008</v>
       </c>
       <c r="D164" t="n">
-        <v>2554590000</v>
+        <v>5758930000</v>
       </c>
     </row>
     <row r="165">
@@ -3080,7 +3080,7 @@
         <v>2009</v>
       </c>
       <c r="D165" t="n">
-        <v>1557360000</v>
+        <v>6365600000</v>
       </c>
     </row>
     <row r="166">
@@ -3094,7 +3094,7 @@
         <v>2010</v>
       </c>
       <c r="D166" t="n">
-        <v>1308280000</v>
+        <v>8217370000</v>
       </c>
     </row>
     <row r="167">
@@ -3108,7 +3108,7 @@
         <v>2011</v>
       </c>
       <c r="D167" t="n">
-        <v>1389870000</v>
+        <v>919540000</v>
       </c>
     </row>
     <row r="168">
@@ -3122,7 +3122,7 @@
         <v>2012</v>
       </c>
       <c r="D168" t="n">
-        <v>1288400000</v>
+        <v>762060000</v>
       </c>
     </row>
     <row r="169">
@@ -3136,7 +3136,7 @@
         <v>2013</v>
       </c>
       <c r="D169" t="n">
-        <v>1160050000</v>
+        <v>1366230000</v>
       </c>
     </row>
     <row r="170">
@@ -3150,7 +3150,7 @@
         <v>2000</v>
       </c>
       <c r="D170" t="n">
-        <v>16200000</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="171">
@@ -3164,7 +3164,7 @@
         <v>2001</v>
       </c>
       <c r="D171" t="n">
-        <v>12200000</v>
+        <v>14090000</v>
       </c>
     </row>
     <row r="172">
@@ -3178,7 +3178,7 @@
         <v>2002</v>
       </c>
       <c r="D172" t="n">
-        <v>15110000</v>
+        <v>7210000</v>
       </c>
     </row>
     <row r="173">
@@ -3192,7 +3192,7 @@
         <v>2003</v>
       </c>
       <c r="D173" t="n">
-        <v>71490000</v>
+        <v>27800000</v>
       </c>
     </row>
     <row r="174">
@@ -3206,7 +3206,7 @@
         <v>2004</v>
       </c>
       <c r="D174" t="n">
-        <v>58910000</v>
+        <v>17560000</v>
       </c>
     </row>
     <row r="175">
@@ -3220,7 +3220,7 @@
         <v>2005</v>
       </c>
       <c r="D175" t="n">
-        <v>31560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
@@ -3234,7 +3234,7 @@
         <v>2006</v>
       </c>
       <c r="D176" t="n">
-        <v>55470000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
@@ -3248,7 +3248,7 @@
         <v>2007</v>
       </c>
       <c r="D177" t="n">
-        <v>30830000</v>
+        <v>100380000</v>
       </c>
     </row>
     <row r="178">
@@ -3262,7 +3262,7 @@
         <v>2008</v>
       </c>
       <c r="D178" t="n">
-        <v>48340000</v>
+        <v>36790000</v>
       </c>
     </row>
     <row r="179">
@@ -3276,7 +3276,7 @@
         <v>2009</v>
       </c>
       <c r="D179" t="n">
-        <v>36750000</v>
+        <v>142950000</v>
       </c>
     </row>
     <row r="180">
@@ -3290,7 +3290,7 @@
         <v>2010</v>
       </c>
       <c r="D180" t="n">
-        <v>39450000</v>
+        <v>52090000</v>
       </c>
     </row>
     <row r="181">
@@ -3304,7 +3304,7 @@
         <v>2011</v>
       </c>
       <c r="D181" t="n">
-        <v>43160000</v>
+        <v>1068330000</v>
       </c>
     </row>
     <row r="182">
@@ -3318,7 +3318,7 @@
         <v>2012</v>
       </c>
       <c r="D182" t="n">
-        <v>37110000</v>
+        <v>14210000</v>
       </c>
     </row>
     <row r="183">
@@ -3332,7 +3332,7 @@
         <v>2013</v>
       </c>
       <c r="D183" t="n">
-        <v>44530000</v>
+        <v>23790000</v>
       </c>
     </row>
     <row r="184">
@@ -3346,7 +3346,7 @@
         <v>2000</v>
       </c>
       <c r="D184" t="n">
-        <v>665340000</v>
+        <v>607950000</v>
       </c>
     </row>
     <row r="185">
@@ -3360,7 +3360,7 @@
         <v>2001</v>
       </c>
       <c r="D185" t="n">
-        <v>866110000</v>
+        <v>640380000</v>
       </c>
     </row>
     <row r="186">
@@ -3374,7 +3374,7 @@
         <v>2002</v>
       </c>
       <c r="D186" t="n">
-        <v>952900000</v>
+        <v>1430030000</v>
       </c>
     </row>
     <row r="187">
@@ -3388,7 +3388,7 @@
         <v>2003</v>
       </c>
       <c r="D187" t="n">
-        <v>1136390000</v>
+        <v>5609830000</v>
       </c>
     </row>
     <row r="188">
@@ -3402,7 +3402,7 @@
         <v>2004</v>
       </c>
       <c r="D188" t="n">
-        <v>2066390000</v>
+        <v>485370000</v>
       </c>
     </row>
     <row r="189">
@@ -3416,7 +3416,7 @@
         <v>2005</v>
       </c>
       <c r="D189" t="n">
-        <v>1834490000</v>
+        <v>2197030000</v>
       </c>
     </row>
     <row r="190">
@@ -3430,7 +3430,7 @@
         <v>2006</v>
       </c>
       <c r="D190" t="n">
-        <v>1562570000</v>
+        <v>350870000</v>
       </c>
     </row>
     <row r="191">
@@ -3444,7 +3444,7 @@
         <v>2007</v>
       </c>
       <c r="D191" t="n">
-        <v>2381610000</v>
+        <v>226300000</v>
       </c>
     </row>
     <row r="192">
@@ -3458,7 +3458,7 @@
         <v>2008</v>
       </c>
       <c r="D192" t="n">
-        <v>2806300000</v>
+        <v>896490000</v>
       </c>
     </row>
     <row r="193">
@@ -3472,7 +3472,7 @@
         <v>2009</v>
       </c>
       <c r="D193" t="n">
-        <v>3781980000</v>
+        <v>927170000</v>
       </c>
     </row>
     <row r="194">
@@ -3486,7 +3486,7 @@
         <v>2010</v>
       </c>
       <c r="D194" t="n">
-        <v>3769120000</v>
+        <v>801790000</v>
       </c>
     </row>
     <row r="195">
@@ -3500,7 +3500,7 @@
         <v>2011</v>
       </c>
       <c r="D195" t="n">
-        <v>3937660000</v>
+        <v>1199310000</v>
       </c>
     </row>
     <row r="196">
@@ -3514,7 +3514,7 @@
         <v>2012</v>
       </c>
       <c r="D196" t="n">
-        <v>3336320000</v>
+        <v>1272330000</v>
       </c>
     </row>
     <row r="197">
@@ -3528,7 +3528,7 @@
         <v>2013</v>
       </c>
       <c r="D197" t="n">
-        <v>3823230000</v>
+        <v>1437130000</v>
       </c>
     </row>
     <row r="198">
@@ -3542,7 +3542,7 @@
         <v>2000</v>
       </c>
       <c r="D198" t="n">
-        <v>6210000</v>
+        <v>1783150000</v>
       </c>
     </row>
     <row r="199">
@@ -3556,7 +3556,7 @@
         <v>2001</v>
       </c>
       <c r="D199" t="n">
-        <v>273290000</v>
+        <v>954360000</v>
       </c>
     </row>
     <row r="200">
@@ -3570,7 +3570,7 @@
         <v>2002</v>
       </c>
       <c r="D200" t="n">
-        <v>92490000</v>
+        <v>8017480000</v>
       </c>
     </row>
     <row r="201">
@@ -3584,7 +3584,7 @@
         <v>2003</v>
       </c>
       <c r="D201" t="n">
-        <v>109320000</v>
+        <v>-1362510000</v>
       </c>
     </row>
     <row r="202">
@@ -3598,7 +3598,7 @@
         <v>2004</v>
       </c>
       <c r="D202" t="n">
-        <v>29750000</v>
+        <v>1035860000</v>
       </c>
     </row>
     <row r="203">
@@ -3612,7 +3612,7 @@
         <v>2005</v>
       </c>
       <c r="D203" t="n">
-        <v>76150000</v>
+        <v>12171020000</v>
       </c>
     </row>
     <row r="204">
@@ -3626,7 +3626,7 @@
         <v>2006</v>
       </c>
       <c r="D204" t="n">
-        <v>0</v>
+        <v>126600000</v>
       </c>
     </row>
     <row r="205">
@@ -3640,7 +3640,7 @@
         <v>2007</v>
       </c>
       <c r="D205" t="n">
-        <v>6060000</v>
+        <v>1430370000</v>
       </c>
     </row>
     <row r="206">
@@ -3654,7 +3654,7 @@
         <v>2008</v>
       </c>
       <c r="D206" t="n">
-        <v>0</v>
+        <v>2554590000</v>
       </c>
     </row>
     <row r="207">
@@ -3668,7 +3668,7 @@
         <v>2009</v>
       </c>
       <c r="D207" t="n">
-        <v>3210000</v>
+        <v>1557360000</v>
       </c>
     </row>
     <row r="208">
@@ -3682,7 +3682,7 @@
         <v>2010</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>1308280000</v>
       </c>
     </row>
     <row r="209">
@@ -3696,7 +3696,7 @@
         <v>2011</v>
       </c>
       <c r="D209" t="n">
-        <v>3780000</v>
+        <v>1389870000</v>
       </c>
     </row>
     <row r="210">
@@ -3710,7 +3710,7 @@
         <v>2012</v>
       </c>
       <c r="D210" t="n">
-        <v>2480000</v>
+        <v>1288400000</v>
       </c>
     </row>
     <row r="211">
@@ -3724,7 +3724,7 @@
         <v>2013</v>
       </c>
       <c r="D211" t="n">
-        <v>13930000</v>
+        <v>1160050000</v>
       </c>
     </row>
     <row r="212">
@@ -3738,7 +3738,7 @@
         <v>2000</v>
       </c>
       <c r="D212" t="n">
-        <v>1047470000</v>
+        <v>4640000</v>
       </c>
     </row>
     <row r="213">
@@ -3752,7 +3752,7 @@
         <v>2001</v>
       </c>
       <c r="D213" t="n">
-        <v>1144160000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
@@ -3766,7 +3766,7 @@
         <v>2002</v>
       </c>
       <c r="D214" t="n">
-        <v>2299690000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
@@ -3780,7 +3780,7 @@
         <v>2003</v>
       </c>
       <c r="D215" t="n">
-        <v>2023810000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
@@ -3794,7 +3794,7 @@
         <v>2004</v>
       </c>
       <c r="D216" t="n">
-        <v>2790820000</v>
+        <v>4300000</v>
       </c>
     </row>
     <row r="217">
@@ -3808,7 +3808,7 @@
         <v>2005</v>
       </c>
       <c r="D217" t="n">
-        <v>2998580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
@@ -3822,7 +3822,7 @@
         <v>2006</v>
       </c>
       <c r="D218" t="n">
-        <v>3660720000</v>
+        <v>9420000</v>
       </c>
     </row>
     <row r="219">
@@ -3836,7 +3836,7 @@
         <v>2007</v>
       </c>
       <c r="D219" t="n">
-        <v>5986670000</v>
+        <v>3610000</v>
       </c>
     </row>
     <row r="220">
@@ -3850,7 +3850,7 @@
         <v>2008</v>
       </c>
       <c r="D220" t="n">
-        <v>5758930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
@@ -3864,7 +3864,7 @@
         <v>2009</v>
       </c>
       <c r="D221" t="n">
-        <v>6365600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
@@ -3878,7 +3878,7 @@
         <v>2010</v>
       </c>
       <c r="D222" t="n">
-        <v>8217370000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -3892,7 +3892,7 @@
         <v>2011</v>
       </c>
       <c r="D223" t="n">
-        <v>919540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
@@ -3906,7 +3906,7 @@
         <v>2012</v>
       </c>
       <c r="D224" t="n">
-        <v>762060000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
@@ -3920,7 +3920,7 @@
         <v>2013</v>
       </c>
       <c r="D225" t="n">
-        <v>1366230000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -3934,7 +3934,7 @@
         <v>2000</v>
       </c>
       <c r="D226" t="n">
-        <v>3610000</v>
+        <v>10105110000</v>
       </c>
     </row>
     <row r="227">
@@ -3948,7 +3948,7 @@
         <v>2001</v>
       </c>
       <c r="D227" t="n">
-        <v>14090000</v>
+        <v>9500270000</v>
       </c>
     </row>
     <row r="228">
@@ -3962,7 +3962,7 @@
         <v>2002</v>
       </c>
       <c r="D228" t="n">
-        <v>7210000</v>
+        <v>8372490000</v>
       </c>
     </row>
     <row r="229">
@@ -3976,7 +3976,7 @@
         <v>2003</v>
       </c>
       <c r="D229" t="n">
-        <v>27800000</v>
+        <v>11187800000</v>
       </c>
     </row>
     <row r="230">
@@ -3990,7 +3990,7 @@
         <v>2004</v>
       </c>
       <c r="D230" t="n">
-        <v>17560000</v>
+        <v>4580370000</v>
       </c>
     </row>
     <row r="231">
@@ -4004,7 +4004,7 @@
         <v>2005</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>5803600000</v>
       </c>
     </row>
     <row r="232">
@@ -4018,7 +4018,7 @@
         <v>2006</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>7042280000</v>
       </c>
     </row>
     <row r="233">
@@ -4032,7 +4032,7 @@
         <v>2007</v>
       </c>
       <c r="D233" t="n">
-        <v>100380000</v>
+        <v>7181710000</v>
       </c>
     </row>
     <row r="234">
@@ -4046,7 +4046,7 @@
         <v>2008</v>
       </c>
       <c r="D234" t="n">
-        <v>36790000</v>
+        <v>7279280000</v>
       </c>
     </row>
     <row r="235">
@@ -4060,7 +4060,7 @@
         <v>2009</v>
       </c>
       <c r="D235" t="n">
-        <v>142950000</v>
+        <v>11971220000</v>
       </c>
     </row>
     <row r="236">
@@ -4074,7 +4074,7 @@
         <v>2010</v>
       </c>
       <c r="D236" t="n">
-        <v>52090000</v>
+        <v>10567600000</v>
       </c>
     </row>
     <row r="237">
@@ -4088,7 +4088,7 @@
         <v>2011</v>
       </c>
       <c r="D237" t="n">
-        <v>1068330000</v>
+        <v>7015850000</v>
       </c>
     </row>
     <row r="238">
@@ -4102,7 +4102,7 @@
         <v>2012</v>
       </c>
       <c r="D238" t="n">
-        <v>14210000</v>
+        <v>6446510000</v>
       </c>
     </row>
     <row r="239">
@@ -4116,7 +4116,7 @@
         <v>2013</v>
       </c>
       <c r="D239" t="n">
-        <v>23790000</v>
+        <v>9818310000</v>
       </c>
     </row>
     <row r="240">
@@ -4130,7 +4130,7 @@
         <v>2000</v>
       </c>
       <c r="D240" t="n">
-        <v>607950000</v>
+        <v>17870590000</v>
       </c>
     </row>
     <row r="241">
@@ -4144,7 +4144,7 @@
         <v>2001</v>
       </c>
       <c r="D241" t="n">
-        <v>640380000</v>
+        <v>16991560000</v>
       </c>
     </row>
     <row r="242">
@@ -4158,7 +4158,7 @@
         <v>2002</v>
       </c>
       <c r="D242" t="n">
-        <v>1430030000</v>
+        <v>14680840000</v>
       </c>
     </row>
     <row r="243">
@@ -4172,7 +4172,7 @@
         <v>2003</v>
       </c>
       <c r="D243" t="n">
-        <v>5609830000</v>
+        <v>13839480000</v>
       </c>
     </row>
     <row r="244">
@@ -4186,7 +4186,7 @@
         <v>2004</v>
       </c>
       <c r="D244" t="n">
-        <v>485370000</v>
+        <v>11415560000</v>
       </c>
     </row>
     <row r="245">
@@ -4200,7 +4200,7 @@
         <v>2005</v>
       </c>
       <c r="D245" t="n">
-        <v>2197030000</v>
+        <v>9878120000</v>
       </c>
     </row>
     <row r="246">
@@ -4214,7 +4214,7 @@
         <v>2006</v>
       </c>
       <c r="D246" t="n">
-        <v>350870000</v>
+        <v>13357610000</v>
       </c>
     </row>
     <row r="247">
@@ -4228,7 +4228,7 @@
         <v>2007</v>
       </c>
       <c r="D247" t="n">
-        <v>226300000</v>
+        <v>10684010000</v>
       </c>
     </row>
     <row r="248">
@@ -4242,7 +4242,7 @@
         <v>2008</v>
       </c>
       <c r="D248" t="n">
-        <v>896490000</v>
+        <v>13621280000</v>
       </c>
     </row>
     <row r="249">
@@ -4256,7 +4256,7 @@
         <v>2009</v>
       </c>
       <c r="D249" t="n">
-        <v>927170000</v>
+        <v>22450110000</v>
       </c>
     </row>
     <row r="250">
@@ -4270,7 +4270,7 @@
         <v>2010</v>
       </c>
       <c r="D250" t="n">
-        <v>801790000</v>
+        <v>27534370000</v>
       </c>
     </row>
     <row r="251">
@@ -4284,7 +4284,7 @@
         <v>2011</v>
       </c>
       <c r="D251" t="n">
-        <v>1199310000</v>
+        <v>15589690000</v>
       </c>
     </row>
     <row r="252">
@@ -4298,7 +4298,7 @@
         <v>2012</v>
       </c>
       <c r="D252" t="n">
-        <v>1272330000</v>
+        <v>15136130000</v>
       </c>
     </row>
     <row r="253">
@@ -4312,7 +4312,7 @@
         <v>2013</v>
       </c>
       <c r="D253" t="n">
-        <v>1437130000</v>
+        <v>16218620000</v>
       </c>
     </row>
     <row r="254">
@@ -4326,7 +4326,7 @@
         <v>2000</v>
       </c>
       <c r="D254" t="n">
-        <v>247930000</v>
+        <v>1936130000</v>
       </c>
     </row>
     <row r="255">
@@ -4340,7 +4340,7 @@
         <v>2001</v>
       </c>
       <c r="D255" t="n">
-        <v>354330000</v>
+        <v>1675180000</v>
       </c>
     </row>
     <row r="256">
@@ -4354,7 +4354,7 @@
         <v>2002</v>
       </c>
       <c r="D256" t="n">
-        <v>240540000</v>
+        <v>2141350000</v>
       </c>
     </row>
     <row r="257">
@@ -4368,7 +4368,7 @@
         <v>2003</v>
       </c>
       <c r="D257" t="n">
-        <v>292910000</v>
+        <v>2828890000</v>
       </c>
     </row>
     <row r="258">
@@ -4382,7 +4382,7 @@
         <v>2004</v>
       </c>
       <c r="D258" t="n">
-        <v>71840000</v>
+        <v>2800760000</v>
       </c>
     </row>
     <row r="259">
@@ -4396,7 +4396,7 @@
         <v>2005</v>
       </c>
       <c r="D259" t="n">
-        <v>54360000</v>
+        <v>2938400000</v>
       </c>
     </row>
     <row r="260">
@@ -4410,7 +4410,7 @@
         <v>2006</v>
       </c>
       <c r="D260" t="n">
-        <v>10910000</v>
+        <v>4364090000</v>
       </c>
     </row>
     <row r="261">
@@ -4424,7 +4424,7 @@
         <v>2007</v>
       </c>
       <c r="D261" t="n">
-        <v>16940000</v>
+        <v>4622270000</v>
       </c>
     </row>
     <row r="262">
@@ -4438,7 +4438,7 @@
         <v>2008</v>
       </c>
       <c r="D262" t="n">
-        <v>14380000</v>
+        <v>5107480000</v>
       </c>
     </row>
     <row r="263">
@@ -4452,7 +4452,7 @@
         <v>2009</v>
       </c>
       <c r="D263" t="n">
-        <v>8360000</v>
+        <v>4688730000</v>
       </c>
     </row>
     <row r="264">
@@ -4466,7 +4466,7 @@
         <v>2010</v>
       </c>
       <c r="D264" t="n">
-        <v>29150000</v>
+        <v>4345450000</v>
       </c>
     </row>
     <row r="265">
@@ -4480,7 +4480,7 @@
         <v>2011</v>
       </c>
       <c r="D265" t="n">
-        <v>19990000</v>
+        <v>4619840000</v>
       </c>
     </row>
     <row r="266">
@@ -4494,7 +4494,7 @@
         <v>2012</v>
       </c>
       <c r="D266" t="n">
-        <v>63740000</v>
+        <v>6414080000</v>
       </c>
     </row>
     <row r="267">
@@ -4508,7 +4508,7 @@
         <v>2013</v>
       </c>
       <c r="D267" t="n">
-        <v>187200000</v>
+        <v>6736730000</v>
       </c>
     </row>
     <row r="268">
@@ -4522,7 +4522,7 @@
         <v>2000</v>
       </c>
       <c r="D268" t="n">
-        <v>4640000</v>
+        <v>50260000</v>
       </c>
     </row>
     <row r="269">
@@ -4536,7 +4536,7 @@
         <v>2001</v>
       </c>
       <c r="D269" t="n">
-        <v>0</v>
+        <v>52590000</v>
       </c>
     </row>
     <row r="270">
@@ -4550,7 +4550,7 @@
         <v>2002</v>
       </c>
       <c r="D270" t="n">
-        <v>0</v>
+        <v>30560000</v>
       </c>
     </row>
     <row r="271">
@@ -4564,7 +4564,7 @@
         <v>2003</v>
       </c>
       <c r="D271" t="n">
-        <v>0</v>
+        <v>30820000</v>
       </c>
     </row>
     <row r="272">
@@ -4578,7 +4578,7 @@
         <v>2004</v>
       </c>
       <c r="D272" t="n">
-        <v>4300000</v>
+        <v>37340000</v>
       </c>
     </row>
     <row r="273">
@@ -4592,7 +4592,7 @@
         <v>2005</v>
       </c>
       <c r="D273" t="n">
-        <v>0</v>
+        <v>31610000</v>
       </c>
     </row>
     <row r="274">
@@ -4606,7 +4606,7 @@
         <v>2006</v>
       </c>
       <c r="D274" t="n">
-        <v>9420000</v>
+        <v>45330000</v>
       </c>
     </row>
     <row r="275">
@@ -4620,7 +4620,7 @@
         <v>2007</v>
       </c>
       <c r="D275" t="n">
-        <v>3610000</v>
+        <v>42880000</v>
       </c>
     </row>
     <row r="276">
@@ -4634,7 +4634,7 @@
         <v>2008</v>
       </c>
       <c r="D276" t="n">
-        <v>0</v>
+        <v>54140000</v>
       </c>
     </row>
     <row r="277">
@@ -4648,7 +4648,7 @@
         <v>2009</v>
       </c>
       <c r="D277" t="n">
-        <v>0</v>
+        <v>39550000</v>
       </c>
     </row>
     <row r="278">
@@ -4662,7 +4662,7 @@
         <v>2010</v>
       </c>
       <c r="D278" t="n">
-        <v>0</v>
+        <v>45900000</v>
       </c>
     </row>
     <row r="279">
@@ -4676,7 +4676,7 @@
         <v>2011</v>
       </c>
       <c r="D279" t="n">
-        <v>0</v>
+        <v>47700000</v>
       </c>
     </row>
     <row r="280">
@@ -4690,7 +4690,7 @@
         <v>2012</v>
       </c>
       <c r="D280" t="n">
-        <v>0</v>
+        <v>63390000</v>
       </c>
     </row>
     <row r="281">
@@ -4704,7 +4704,7 @@
         <v>2013</v>
       </c>
       <c r="D281" t="n">
-        <v>0</v>
+        <v>57450000</v>
       </c>
     </row>
     <row r="282">
@@ -4718,7 +4718,7 @@
         <v>2000</v>
       </c>
       <c r="D282" t="n">
-        <v>17870590000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
@@ -4732,7 +4732,7 @@
         <v>2001</v>
       </c>
       <c r="D283" t="n">
-        <v>16991560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
@@ -4746,7 +4746,7 @@
         <v>2002</v>
       </c>
       <c r="D284" t="n">
-        <v>14680840000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
@@ -4760,7 +4760,7 @@
         <v>2003</v>
       </c>
       <c r="D285" t="n">
-        <v>13839480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
@@ -4774,7 +4774,7 @@
         <v>2004</v>
       </c>
       <c r="D286" t="n">
-        <v>11415560000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
@@ -4788,7 +4788,7 @@
         <v>2005</v>
       </c>
       <c r="D287" t="n">
-        <v>9878120000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
@@ -4802,7 +4802,7 @@
         <v>2006</v>
       </c>
       <c r="D288" t="n">
-        <v>13357610000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
@@ -4816,7 +4816,7 @@
         <v>2007</v>
       </c>
       <c r="D289" t="n">
-        <v>10684010000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -4830,7 +4830,7 @@
         <v>2008</v>
       </c>
       <c r="D290" t="n">
-        <v>13621280000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
@@ -4844,7 +4844,7 @@
         <v>2009</v>
       </c>
       <c r="D291" t="n">
-        <v>22450110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -4858,7 +4858,7 @@
         <v>2010</v>
       </c>
       <c r="D292" t="n">
-        <v>27534370000</v>
+        <v>1548800000</v>
       </c>
     </row>
     <row r="293">
@@ -4872,7 +4872,7 @@
         <v>2011</v>
       </c>
       <c r="D293" t="n">
-        <v>15589690000</v>
+        <v>1643650000</v>
       </c>
     </row>
     <row r="294">
@@ -4886,7 +4886,7 @@
         <v>2012</v>
       </c>
       <c r="D294" t="n">
-        <v>15136130000</v>
+        <v>1304530000</v>
       </c>
     </row>
     <row r="295">
@@ -4900,7 +4900,7 @@
         <v>2013</v>
       </c>
       <c r="D295" t="n">
-        <v>16218620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
@@ -4914,7 +4914,7 @@
         <v>2000</v>
       </c>
       <c r="D296" t="n">
-        <v>10105110000</v>
+        <v>185040000</v>
       </c>
     </row>
     <row r="297">
@@ -4928,7 +4928,7 @@
         <v>2001</v>
       </c>
       <c r="D297" t="n">
-        <v>9500270000</v>
+        <v>111070000</v>
       </c>
     </row>
     <row r="298">
@@ -4942,7 +4942,7 @@
         <v>2002</v>
       </c>
       <c r="D298" t="n">
-        <v>8372490000</v>
+        <v>417540000</v>
       </c>
     </row>
     <row r="299">
@@ -4956,7 +4956,7 @@
         <v>2003</v>
       </c>
       <c r="D299" t="n">
-        <v>11187800000</v>
+        <v>550360000</v>
       </c>
     </row>
     <row r="300">
@@ -4970,7 +4970,7 @@
         <v>2004</v>
       </c>
       <c r="D300" t="n">
-        <v>4580370000</v>
+        <v>2402380000</v>
       </c>
     </row>
     <row r="301">
@@ -4984,7 +4984,7 @@
         <v>2005</v>
       </c>
       <c r="D301" t="n">
-        <v>5803600000</v>
+        <v>106940000</v>
       </c>
     </row>
     <row r="302">
@@ -4998,7 +4998,7 @@
         <v>2006</v>
       </c>
       <c r="D302" t="n">
-        <v>7042280000</v>
+        <v>181190000</v>
       </c>
     </row>
     <row r="303">
@@ -5012,7 +5012,7 @@
         <v>2007</v>
       </c>
       <c r="D303" t="n">
-        <v>7181710000</v>
+        <v>140180000</v>
       </c>
     </row>
     <row r="304">
@@ -5026,7 +5026,7 @@
         <v>2008</v>
       </c>
       <c r="D304" t="n">
-        <v>7279280000</v>
+        <v>973680000</v>
       </c>
     </row>
     <row r="305">
@@ -5040,7 +5040,7 @@
         <v>2009</v>
       </c>
       <c r="D305" t="n">
-        <v>11971220000</v>
+        <v>41440000</v>
       </c>
     </row>
     <row r="306">
@@ -5054,7 +5054,7 @@
         <v>2010</v>
       </c>
       <c r="D306" t="n">
-        <v>10567600000</v>
+        <v>56280000</v>
       </c>
     </row>
     <row r="307">
@@ -5068,7 +5068,7 @@
         <v>2011</v>
       </c>
       <c r="D307" t="n">
-        <v>7015850000</v>
+        <v>169390000</v>
       </c>
     </row>
     <row r="308">
@@ -5082,7 +5082,7 @@
         <v>2012</v>
       </c>
       <c r="D308" t="n">
-        <v>6446510000</v>
+        <v>197600000</v>
       </c>
     </row>
     <row r="309">
@@ -5096,7 +5096,7 @@
         <v>2013</v>
       </c>
       <c r="D309" t="n">
-        <v>9818310000</v>
+        <v>153530000</v>
       </c>
     </row>
     <row r="310">
@@ -5110,7 +5110,7 @@
         <v>2000</v>
       </c>
       <c r="D310" t="n">
-        <v>50260000</v>
+        <v>5506300000</v>
       </c>
     </row>
     <row r="311">
@@ -5124,7 +5124,7 @@
         <v>2001</v>
       </c>
       <c r="D311" t="n">
-        <v>52590000</v>
+        <v>9340220000</v>
       </c>
     </row>
     <row r="312">
@@ -5138,7 +5138,7 @@
         <v>2002</v>
       </c>
       <c r="D312" t="n">
-        <v>30560000</v>
+        <v>9018720000</v>
       </c>
     </row>
     <row r="313">
@@ -5152,7 +5152,7 @@
         <v>2003</v>
       </c>
       <c r="D313" t="n">
-        <v>30820000</v>
+        <v>11539770000</v>
       </c>
     </row>
     <row r="314">
@@ -5166,7 +5166,7 @@
         <v>2004</v>
       </c>
       <c r="D314" t="n">
-        <v>37340000</v>
+        <v>7951620000</v>
       </c>
     </row>
     <row r="315">
@@ -5180,7 +5180,7 @@
         <v>2005</v>
       </c>
       <c r="D315" t="n">
-        <v>31610000</v>
+        <v>10098000000</v>
       </c>
     </row>
     <row r="316">
@@ -5194,7 +5194,7 @@
         <v>2006</v>
       </c>
       <c r="D316" t="n">
-        <v>45330000</v>
+        <v>16268670000</v>
       </c>
     </row>
     <row r="317">
@@ -5208,7 +5208,7 @@
         <v>2007</v>
       </c>
       <c r="D317" t="n">
-        <v>42880000</v>
+        <v>12028220000</v>
       </c>
     </row>
     <row r="318">
@@ -5222,7 +5222,7 @@
         <v>2008</v>
       </c>
       <c r="D318" t="n">
-        <v>54140000</v>
+        <v>6800700000</v>
       </c>
     </row>
     <row r="319">
@@ -5236,7 +5236,7 @@
         <v>2009</v>
       </c>
       <c r="D319" t="n">
-        <v>39550000</v>
+        <v>13828490000</v>
       </c>
     </row>
     <row r="320">
@@ -5250,7 +5250,7 @@
         <v>2010</v>
       </c>
       <c r="D320" t="n">
-        <v>45900000</v>
+        <v>9754570000</v>
       </c>
     </row>
     <row r="321">
@@ -5264,7 +5264,7 @@
         <v>2011</v>
       </c>
       <c r="D321" t="n">
-        <v>47700000</v>
+        <v>9897090000</v>
       </c>
     </row>
     <row r="322">
@@ -5278,7 +5278,7 @@
         <v>2012</v>
       </c>
       <c r="D322" t="n">
-        <v>63390000</v>
+        <v>12236270000</v>
       </c>
     </row>
     <row r="323">
@@ -5292,7 +5292,7 @@
         <v>2013</v>
       </c>
       <c r="D323" t="n">
-        <v>57450000</v>
+        <v>8695310000</v>
       </c>
     </row>
     <row r="324">
@@ -5306,7 +5306,7 @@
         <v>2000</v>
       </c>
       <c r="D324" t="n">
-        <v>1936130000</v>
+        <v>746830000</v>
       </c>
     </row>
     <row r="325">
@@ -5320,7 +5320,7 @@
         <v>2001</v>
       </c>
       <c r="D325" t="n">
-        <v>1675180000</v>
+        <v>850970000</v>
       </c>
     </row>
     <row r="326">
@@ -5334,7 +5334,7 @@
         <v>2002</v>
       </c>
       <c r="D326" t="n">
-        <v>2141350000</v>
+        <v>1028500000</v>
       </c>
     </row>
     <row r="327">
@@ -5348,7 +5348,7 @@
         <v>2003</v>
       </c>
       <c r="D327" t="n">
-        <v>2828890000</v>
+        <v>935660000</v>
       </c>
     </row>
     <row r="328">
@@ -5362,7 +5362,7 @@
         <v>2004</v>
       </c>
       <c r="D328" t="n">
-        <v>2800760000</v>
+        <v>1257540000</v>
       </c>
     </row>
     <row r="329">
@@ -5376,7 +5376,7 @@
         <v>2005</v>
       </c>
       <c r="D329" t="n">
-        <v>2938400000</v>
+        <v>1504870000</v>
       </c>
     </row>
     <row r="330">
@@ -5390,7 +5390,7 @@
         <v>2006</v>
       </c>
       <c r="D330" t="n">
-        <v>4364090000</v>
+        <v>1876330000</v>
       </c>
     </row>
     <row r="331">
@@ -5404,7 +5404,7 @@
         <v>2007</v>
       </c>
       <c r="D331" t="n">
-        <v>4622270000</v>
+        <v>2347800000</v>
       </c>
     </row>
     <row r="332">
@@ -5418,7 +5418,7 @@
         <v>2008</v>
       </c>
       <c r="D332" t="n">
-        <v>5107480000</v>
+        <v>3852950000</v>
       </c>
     </row>
     <row r="333">
@@ -5432,7 +5432,7 @@
         <v>2009</v>
       </c>
       <c r="D333" t="n">
-        <v>4688730000</v>
+        <v>3098220000</v>
       </c>
     </row>
     <row r="334">
@@ -5446,7 +5446,7 @@
         <v>2010</v>
       </c>
       <c r="D334" t="n">
-        <v>4345450000</v>
+        <v>4614790000</v>
       </c>
     </row>
     <row r="335">
@@ -5460,7 +5460,7 @@
         <v>2011</v>
       </c>
       <c r="D335" t="n">
-        <v>4619840000</v>
+        <v>5114810000</v>
       </c>
     </row>
     <row r="336">
@@ -5474,7 +5474,7 @@
         <v>2012</v>
       </c>
       <c r="D336" t="n">
-        <v>6414080000</v>
+        <v>4530060000</v>
       </c>
     </row>
     <row r="337">
@@ -5488,7 +5488,7 @@
         <v>2013</v>
       </c>
       <c r="D337" t="n">
-        <v>6736730000</v>
+        <v>6062330000</v>
       </c>
     </row>
     <row r="338">
@@ -5642,7 +5642,7 @@
         <v>2010</v>
       </c>
       <c r="D348" t="n">
-        <v>1548800000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -5656,7 +5656,7 @@
         <v>2011</v>
       </c>
       <c r="D349" t="n">
-        <v>1643650000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -5670,7 +5670,7 @@
         <v>2012</v>
       </c>
       <c r="D350" t="n">
-        <v>1304530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -5698,7 +5698,7 @@
         <v>2000</v>
       </c>
       <c r="D352" t="n">
-        <v>185040000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
@@ -5712,7 +5712,7 @@
         <v>2001</v>
       </c>
       <c r="D353" t="n">
-        <v>111070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
@@ -5726,7 +5726,7 @@
         <v>2002</v>
       </c>
       <c r="D354" t="n">
-        <v>417540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
@@ -5740,7 +5740,7 @@
         <v>2003</v>
       </c>
       <c r="D355" t="n">
-        <v>550360000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
@@ -5754,7 +5754,7 @@
         <v>2004</v>
       </c>
       <c r="D356" t="n">
-        <v>2402380000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
@@ -5768,7 +5768,7 @@
         <v>2005</v>
       </c>
       <c r="D357" t="n">
-        <v>106940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
@@ -5782,7 +5782,7 @@
         <v>2006</v>
       </c>
       <c r="D358" t="n">
-        <v>181190000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
@@ -5796,7 +5796,7 @@
         <v>2007</v>
       </c>
       <c r="D359" t="n">
-        <v>140180000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
@@ -5810,7 +5810,7 @@
         <v>2008</v>
       </c>
       <c r="D360" t="n">
-        <v>973680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
@@ -5824,7 +5824,7 @@
         <v>2009</v>
       </c>
       <c r="D361" t="n">
-        <v>41440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
@@ -5838,7 +5838,7 @@
         <v>2010</v>
       </c>
       <c r="D362" t="n">
-        <v>56280000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
@@ -5852,7 +5852,7 @@
         <v>2011</v>
       </c>
       <c r="D363" t="n">
-        <v>169390000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
@@ -5866,7 +5866,7 @@
         <v>2012</v>
       </c>
       <c r="D364" t="n">
-        <v>197600000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
@@ -5880,7 +5880,7 @@
         <v>2013</v>
       </c>
       <c r="D365" t="n">
-        <v>153530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
@@ -5894,7 +5894,7 @@
         <v>2000</v>
       </c>
       <c r="D366" t="n">
-        <v>5506300000</v>
+        <v>233110000</v>
       </c>
     </row>
     <row r="367">
@@ -5908,7 +5908,7 @@
         <v>2001</v>
       </c>
       <c r="D367" t="n">
-        <v>9340220000</v>
+        <v>522880000</v>
       </c>
     </row>
     <row r="368">
@@ -5922,7 +5922,7 @@
         <v>2002</v>
       </c>
       <c r="D368" t="n">
-        <v>9018720000</v>
+        <v>360110000</v>
       </c>
     </row>
     <row r="369">
@@ -5936,7 +5936,7 @@
         <v>2003</v>
       </c>
       <c r="D369" t="n">
-        <v>11539770000</v>
+        <v>1757170000</v>
       </c>
     </row>
     <row r="370">
@@ -5950,7 +5950,7 @@
         <v>2004</v>
       </c>
       <c r="D370" t="n">
-        <v>7951620000</v>
+        <v>174930000</v>
       </c>
     </row>
     <row r="371">
@@ -5964,7 +5964,7 @@
         <v>2005</v>
       </c>
       <c r="D371" t="n">
-        <v>10098000000</v>
+        <v>172540000</v>
       </c>
     </row>
     <row r="372">
@@ -5978,7 +5978,7 @@
         <v>2006</v>
       </c>
       <c r="D372" t="n">
-        <v>16268670000</v>
+        <v>378200000</v>
       </c>
     </row>
     <row r="373">
@@ -5992,7 +5992,7 @@
         <v>2007</v>
       </c>
       <c r="D373" t="n">
-        <v>12028220000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -6006,7 +6006,7 @@
         <v>2008</v>
       </c>
       <c r="D374" t="n">
-        <v>6800700000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
@@ -6020,7 +6020,7 @@
         <v>2009</v>
       </c>
       <c r="D375" t="n">
-        <v>13828490000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
@@ -6034,7 +6034,7 @@
         <v>2010</v>
       </c>
       <c r="D376" t="n">
-        <v>9754570000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
@@ -6048,7 +6048,7 @@
         <v>2011</v>
       </c>
       <c r="D377" t="n">
-        <v>9897090000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
@@ -6062,7 +6062,7 @@
         <v>2012</v>
       </c>
       <c r="D378" t="n">
-        <v>12236270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
@@ -6076,7 +6076,7 @@
         <v>2013</v>
       </c>
       <c r="D379" t="n">
-        <v>8695310000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
@@ -6090,7 +6090,7 @@
         <v>2000</v>
       </c>
       <c r="D380" t="n">
-        <v>746830000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
@@ -6104,7 +6104,7 @@
         <v>2001</v>
       </c>
       <c r="D381" t="n">
-        <v>850970000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -6118,7 +6118,7 @@
         <v>2002</v>
       </c>
       <c r="D382" t="n">
-        <v>1028500000</v>
+        <v>4920000</v>
       </c>
     </row>
     <row r="383">
@@ -6132,7 +6132,7 @@
         <v>2003</v>
       </c>
       <c r="D383" t="n">
-        <v>935660000</v>
+        <v>5160000</v>
       </c>
     </row>
     <row r="384">
@@ -6146,7 +6146,7 @@
         <v>2004</v>
       </c>
       <c r="D384" t="n">
-        <v>1257540000</v>
+        <v>7760000</v>
       </c>
     </row>
     <row r="385">
@@ -6160,7 +6160,7 @@
         <v>2005</v>
       </c>
       <c r="D385" t="n">
-        <v>1504870000</v>
+        <v>9580000</v>
       </c>
     </row>
     <row r="386">
@@ -6174,7 +6174,7 @@
         <v>2006</v>
       </c>
       <c r="D386" t="n">
-        <v>1876330000</v>
+        <v>10620000</v>
       </c>
     </row>
     <row r="387">
@@ -6188,7 +6188,7 @@
         <v>2007</v>
       </c>
       <c r="D387" t="n">
-        <v>2347800000</v>
+        <v>9970000</v>
       </c>
     </row>
     <row r="388">
@@ -6202,7 +6202,7 @@
         <v>2008</v>
       </c>
       <c r="D388" t="n">
-        <v>3852950000</v>
+        <v>10270000</v>
       </c>
     </row>
     <row r="389">
@@ -6216,7 +6216,7 @@
         <v>2009</v>
       </c>
       <c r="D389" t="n">
-        <v>3098220000</v>
+        <v>10380000</v>
       </c>
     </row>
     <row r="390">
@@ -6230,7 +6230,7 @@
         <v>2010</v>
       </c>
       <c r="D390" t="n">
-        <v>4614790000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="391">
@@ -6244,7 +6244,7 @@
         <v>2011</v>
       </c>
       <c r="D391" t="n">
-        <v>5114810000</v>
+        <v>9810000</v>
       </c>
     </row>
     <row r="392">
@@ -6258,7 +6258,7 @@
         <v>2012</v>
       </c>
       <c r="D392" t="n">
-        <v>4530060000</v>
+        <v>11270000</v>
       </c>
     </row>
     <row r="393">
@@ -6272,7 +6272,7 @@
         <v>2013</v>
       </c>
       <c r="D393" t="n">
-        <v>6062330000</v>
+        <v>10700000</v>
       </c>
     </row>
     <row r="394">
@@ -6524,7 +6524,7 @@
         <v>2003</v>
       </c>
       <c r="D411" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="412">
@@ -6538,7 +6538,7 @@
         <v>2004</v>
       </c>
       <c r="D412" t="n">
-        <v>0</v>
+        <v>460000</v>
       </c>
     </row>
     <row r="413">
@@ -6552,7 +6552,7 @@
         <v>2005</v>
       </c>
       <c r="D413" t="n">
-        <v>0</v>
+        <v>7030000</v>
       </c>
     </row>
     <row r="414">
@@ -6566,7 +6566,7 @@
         <v>2006</v>
       </c>
       <c r="D414" t="n">
-        <v>0</v>
+        <v>6890000</v>
       </c>
     </row>
     <row r="415">
@@ -6580,7 +6580,7 @@
         <v>2007</v>
       </c>
       <c r="D415" t="n">
-        <v>0</v>
+        <v>6250000</v>
       </c>
     </row>
     <row r="416">
@@ -6594,7 +6594,7 @@
         <v>2008</v>
       </c>
       <c r="D416" t="n">
-        <v>0</v>
+        <v>660000</v>
       </c>
     </row>
     <row r="417">
@@ -6608,7 +6608,7 @@
         <v>2009</v>
       </c>
       <c r="D417" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
     </row>
     <row r="418">
@@ -6622,7 +6622,7 @@
         <v>2010</v>
       </c>
       <c r="D418" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="419">
@@ -6664,7 +6664,7 @@
         <v>2013</v>
       </c>
       <c r="D421" t="n">
-        <v>0</v>
+        <v>310000</v>
       </c>
     </row>
     <row r="422">
@@ -6678,7 +6678,7 @@
         <v>2000</v>
       </c>
       <c r="D422" t="n">
-        <v>233110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
@@ -6692,7 +6692,7 @@
         <v>2001</v>
       </c>
       <c r="D423" t="n">
-        <v>522880000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
@@ -6706,7 +6706,7 @@
         <v>2002</v>
       </c>
       <c r="D424" t="n">
-        <v>360110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="425">
@@ -6720,7 +6720,7 @@
         <v>2003</v>
       </c>
       <c r="D425" t="n">
-        <v>1757170000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -6734,7 +6734,7 @@
         <v>2004</v>
       </c>
       <c r="D426" t="n">
-        <v>174930000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="427">
@@ -6748,7 +6748,7 @@
         <v>2005</v>
       </c>
       <c r="D427" t="n">
-        <v>172540000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="428">
@@ -6762,7 +6762,7 @@
         <v>2006</v>
       </c>
       <c r="D428" t="n">
-        <v>378200000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -6804,7 +6804,7 @@
         <v>2009</v>
       </c>
       <c r="D431" t="n">
-        <v>0</v>
+        <v>379330000</v>
       </c>
     </row>
     <row r="432">
@@ -6818,7 +6818,7 @@
         <v>2010</v>
       </c>
       <c r="D432" t="n">
-        <v>0</v>
+        <v>510460000</v>
       </c>
     </row>
     <row r="433">
@@ -6832,7 +6832,7 @@
         <v>2011</v>
       </c>
       <c r="D433" t="n">
-        <v>0</v>
+        <v>598550000</v>
       </c>
     </row>
     <row r="434">
@@ -6846,7 +6846,7 @@
         <v>2012</v>
       </c>
       <c r="D434" t="n">
-        <v>0</v>
+        <v>447930000</v>
       </c>
     </row>
     <row r="435">
@@ -6860,7 +6860,7 @@
         <v>2013</v>
       </c>
       <c r="D435" t="n">
-        <v>0</v>
+        <v>678020000</v>
       </c>
     </row>
     <row r="436">
@@ -6874,7 +6874,7 @@
         <v>2000</v>
       </c>
       <c r="D436" t="n">
-        <v>0</v>
+        <v>138780000</v>
       </c>
     </row>
     <row r="437">
@@ -6916,7 +6916,7 @@
         <v>2003</v>
       </c>
       <c r="D439" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="440">
@@ -6930,7 +6930,7 @@
         <v>2004</v>
       </c>
       <c r="D440" t="n">
-        <v>460000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="441">
@@ -6944,7 +6944,7 @@
         <v>2005</v>
       </c>
       <c r="D441" t="n">
-        <v>7030000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="442">
@@ -6958,7 +6958,7 @@
         <v>2006</v>
       </c>
       <c r="D442" t="n">
-        <v>6890000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="443">
@@ -6972,7 +6972,7 @@
         <v>2007</v>
       </c>
       <c r="D443" t="n">
-        <v>6250000</v>
+        <v>2053450000</v>
       </c>
     </row>
     <row r="444">
@@ -6986,7 +6986,7 @@
         <v>2008</v>
       </c>
       <c r="D444" t="n">
-        <v>660000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -7000,7 +7000,7 @@
         <v>2009</v>
       </c>
       <c r="D445" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="446">
@@ -7014,7 +7014,7 @@
         <v>2010</v>
       </c>
       <c r="D446" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447">
@@ -7042,7 +7042,7 @@
         <v>2012</v>
       </c>
       <c r="D448" t="n">
-        <v>0</v>
+        <v>2060000</v>
       </c>
     </row>
     <row r="449">
@@ -7056,7 +7056,7 @@
         <v>2013</v>
       </c>
       <c r="D449" t="n">
-        <v>310000</v>
+        <v>3010000</v>
       </c>
     </row>
     <row r="450">
@@ -7266,7 +7266,7 @@
         <v>2000</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>6210000</v>
       </c>
     </row>
     <row r="465">
@@ -7280,7 +7280,7 @@
         <v>2001</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>273290000</v>
       </c>
     </row>
     <row r="466">
@@ -7294,7 +7294,7 @@
         <v>2002</v>
       </c>
       <c r="D466" t="n">
-        <v>4920000</v>
+        <v>92490000</v>
       </c>
     </row>
     <row r="467">
@@ -7308,7 +7308,7 @@
         <v>2003</v>
       </c>
       <c r="D467" t="n">
-        <v>5160000</v>
+        <v>109320000</v>
       </c>
     </row>
     <row r="468">
@@ -7322,7 +7322,7 @@
         <v>2004</v>
       </c>
       <c r="D468" t="n">
-        <v>7760000</v>
+        <v>29750000</v>
       </c>
     </row>
     <row r="469">
@@ -7336,7 +7336,7 @@
         <v>2005</v>
       </c>
       <c r="D469" t="n">
-        <v>9580000</v>
+        <v>76150000</v>
       </c>
     </row>
     <row r="470">
@@ -7350,7 +7350,7 @@
         <v>2006</v>
       </c>
       <c r="D470" t="n">
-        <v>10620000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471">
@@ -7364,7 +7364,7 @@
         <v>2007</v>
       </c>
       <c r="D471" t="n">
-        <v>9970000</v>
+        <v>6060000</v>
       </c>
     </row>
     <row r="472">
@@ -7378,7 +7378,7 @@
         <v>2008</v>
       </c>
       <c r="D472" t="n">
-        <v>10270000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473">
@@ -7392,7 +7392,7 @@
         <v>2009</v>
       </c>
       <c r="D473" t="n">
-        <v>10380000</v>
+        <v>3210000</v>
       </c>
     </row>
     <row r="474">
@@ -7406,7 +7406,7 @@
         <v>2010</v>
       </c>
       <c r="D474" t="n">
-        <v>9500000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -7420,7 +7420,7 @@
         <v>2011</v>
       </c>
       <c r="D475" t="n">
-        <v>9810000</v>
+        <v>3780000</v>
       </c>
     </row>
     <row r="476">
@@ -7434,7 +7434,7 @@
         <v>2012</v>
       </c>
       <c r="D476" t="n">
-        <v>11270000</v>
+        <v>2480000</v>
       </c>
     </row>
     <row r="477">
@@ -7448,7 +7448,7 @@
         <v>2013</v>
       </c>
       <c r="D477" t="n">
-        <v>10700000</v>
+        <v>13930000</v>
       </c>
     </row>
     <row r="478">
@@ -7462,7 +7462,7 @@
         <v>2000</v>
       </c>
       <c r="D478" t="n">
-        <v>0</v>
+        <v>8530000</v>
       </c>
     </row>
     <row r="479">
@@ -7476,7 +7476,7 @@
         <v>2001</v>
       </c>
       <c r="D479" t="n">
-        <v>0</v>
+        <v>4430000</v>
       </c>
     </row>
     <row r="480">
@@ -7490,7 +7490,7 @@
         <v>2002</v>
       </c>
       <c r="D480" t="n">
-        <v>0</v>
+        <v>6160000</v>
       </c>
     </row>
     <row r="481">
@@ -7504,7 +7504,7 @@
         <v>2003</v>
       </c>
       <c r="D481" t="n">
-        <v>0</v>
+        <v>93680000</v>
       </c>
     </row>
     <row r="482">
@@ -7518,7 +7518,7 @@
         <v>2004</v>
       </c>
       <c r="D482" t="n">
-        <v>0</v>
+        <v>39730000</v>
       </c>
     </row>
     <row r="483">
@@ -7532,7 +7532,7 @@
         <v>2005</v>
       </c>
       <c r="D483" t="n">
-        <v>0</v>
+        <v>50940000</v>
       </c>
     </row>
     <row r="484">
@@ -7546,7 +7546,7 @@
         <v>2006</v>
       </c>
       <c r="D484" t="n">
-        <v>0</v>
+        <v>98580000</v>
       </c>
     </row>
     <row r="485">
@@ -7560,7 +7560,7 @@
         <v>2007</v>
       </c>
       <c r="D485" t="n">
-        <v>0</v>
+        <v>41970000</v>
       </c>
     </row>
     <row r="486">
@@ -7574,7 +7574,7 @@
         <v>2008</v>
       </c>
       <c r="D486" t="n">
-        <v>0</v>
+        <v>66110000</v>
       </c>
     </row>
     <row r="487">
@@ -7588,7 +7588,7 @@
         <v>2009</v>
       </c>
       <c r="D487" t="n">
-        <v>379330000</v>
+        <v>89640000</v>
       </c>
     </row>
     <row r="488">
@@ -7602,7 +7602,7 @@
         <v>2010</v>
       </c>
       <c r="D488" t="n">
-        <v>510460000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="489">
@@ -7616,7 +7616,7 @@
         <v>2011</v>
       </c>
       <c r="D489" t="n">
-        <v>598550000</v>
+        <v>50720000</v>
       </c>
     </row>
     <row r="490">
@@ -7630,7 +7630,7 @@
         <v>2012</v>
       </c>
       <c r="D490" t="n">
-        <v>447930000</v>
+        <v>49220000</v>
       </c>
     </row>
     <row r="491">
@@ -7644,7 +7644,7 @@
         <v>2013</v>
       </c>
       <c r="D491" t="n">
-        <v>678020000</v>
+        <v>44310000</v>
       </c>
     </row>
     <row r="492">
@@ -7658,7 +7658,7 @@
         <v>2000</v>
       </c>
       <c r="D492" t="n">
-        <v>138780000</v>
+        <v>15190000</v>
       </c>
     </row>
     <row r="493">
@@ -7672,7 +7672,7 @@
         <v>2001</v>
       </c>
       <c r="D493" t="n">
-        <v>0</v>
+        <v>12800000</v>
       </c>
     </row>
     <row r="494">
@@ -7686,7 +7686,7 @@
         <v>2002</v>
       </c>
       <c r="D494" t="n">
-        <v>0</v>
+        <v>5870000</v>
       </c>
     </row>
     <row r="495">
@@ -7700,7 +7700,7 @@
         <v>2003</v>
       </c>
       <c r="D495" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
     </row>
     <row r="496">
@@ -7742,7 +7742,7 @@
         <v>2006</v>
       </c>
       <c r="D498" t="n">
-        <v>0</v>
+        <v>24370000</v>
       </c>
     </row>
     <row r="499">
@@ -7756,7 +7756,7 @@
         <v>2007</v>
       </c>
       <c r="D499" t="n">
-        <v>2053450000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="500">
@@ -7826,7 +7826,7 @@
         <v>2012</v>
       </c>
       <c r="D504" t="n">
-        <v>2060000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="505">
@@ -7840,7 +7840,7 @@
         <v>2013</v>
       </c>
       <c r="D505" t="n">
-        <v>3010000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="506">
@@ -7896,7 +7896,7 @@
         <v>2003</v>
       </c>
       <c r="D509" t="n">
-        <v>0</v>
+        <v>69210000</v>
       </c>
     </row>
     <row r="510">
@@ -7910,7 +7910,7 @@
         <v>2004</v>
       </c>
       <c r="D510" t="n">
-        <v>0</v>
+        <v>1131630000</v>
       </c>
     </row>
     <row r="511">
@@ -7924,7 +7924,7 @@
         <v>2005</v>
       </c>
       <c r="D511" t="n">
-        <v>0</v>
+        <v>624220000</v>
       </c>
     </row>
     <row r="512">
@@ -7938,7 +7938,7 @@
         <v>2006</v>
       </c>
       <c r="D512" t="n">
-        <v>0</v>
+        <v>8440000</v>
       </c>
     </row>
     <row r="513">
@@ -7952,7 +7952,7 @@
         <v>2007</v>
       </c>
       <c r="D513" t="n">
-        <v>0</v>
+        <v>7280000</v>
       </c>
     </row>
     <row r="514">
@@ -7966,7 +7966,7 @@
         <v>2008</v>
       </c>
       <c r="D514" t="n">
-        <v>0</v>
+        <v>32710000</v>
       </c>
     </row>
     <row r="515">
@@ -7980,7 +7980,7 @@
         <v>2009</v>
       </c>
       <c r="D515" t="n">
-        <v>0</v>
+        <v>29240000</v>
       </c>
     </row>
     <row r="516">
@@ -7994,7 +7994,7 @@
         <v>2010</v>
       </c>
       <c r="D516" t="n">
-        <v>0</v>
+        <v>6530000</v>
       </c>
     </row>
     <row r="517">
@@ -8008,7 +8008,7 @@
         <v>2011</v>
       </c>
       <c r="D517" t="n">
-        <v>0</v>
+        <v>37150000</v>
       </c>
     </row>
     <row r="518">
@@ -8022,7 +8022,7 @@
         <v>2012</v>
       </c>
       <c r="D518" t="n">
-        <v>0</v>
+        <v>70090000</v>
       </c>
     </row>
     <row r="519">
@@ -8036,7 +8036,7 @@
         <v>2013</v>
       </c>
       <c r="D519" t="n">
-        <v>0</v>
+        <v>2590000</v>
       </c>
     </row>
     <row r="520">
@@ -8050,7 +8050,7 @@
         <v>2000</v>
       </c>
       <c r="D520" t="n">
-        <v>8530000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521">
@@ -8064,7 +8064,7 @@
         <v>2001</v>
       </c>
       <c r="D521" t="n">
-        <v>4430000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -8078,7 +8078,7 @@
         <v>2002</v>
       </c>
       <c r="D522" t="n">
-        <v>6160000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -8092,7 +8092,7 @@
         <v>2003</v>
       </c>
       <c r="D523" t="n">
-        <v>93680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -8106,7 +8106,7 @@
         <v>2004</v>
       </c>
       <c r="D524" t="n">
-        <v>39730000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -8120,7 +8120,7 @@
         <v>2005</v>
       </c>
       <c r="D525" t="n">
-        <v>50940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -8134,7 +8134,7 @@
         <v>2006</v>
       </c>
       <c r="D526" t="n">
-        <v>98580000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -8148,7 +8148,7 @@
         <v>2007</v>
       </c>
       <c r="D527" t="n">
-        <v>41970000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -8162,7 +8162,7 @@
         <v>2008</v>
       </c>
       <c r="D528" t="n">
-        <v>66110000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -8176,7 +8176,7 @@
         <v>2009</v>
       </c>
       <c r="D529" t="n">
-        <v>89640000</v>
+        <v>13420000</v>
       </c>
     </row>
     <row r="530">
@@ -8190,7 +8190,7 @@
         <v>2010</v>
       </c>
       <c r="D530" t="n">
-        <v>50000</v>
+        <v>29620000</v>
       </c>
     </row>
     <row r="531">
@@ -8204,7 +8204,7 @@
         <v>2011</v>
       </c>
       <c r="D531" t="n">
-        <v>50720000</v>
+        <v>23970000</v>
       </c>
     </row>
     <row r="532">
@@ -8218,7 +8218,7 @@
         <v>2012</v>
       </c>
       <c r="D532" t="n">
-        <v>49220000</v>
+        <v>60820000</v>
       </c>
     </row>
     <row r="533">
@@ -8232,7 +8232,7 @@
         <v>2013</v>
       </c>
       <c r="D533" t="n">
-        <v>44310000</v>
+        <v>7890000</v>
       </c>
     </row>
     <row r="534">
@@ -8246,7 +8246,7 @@
         <v>2000</v>
       </c>
       <c r="D534" t="n">
-        <v>0</v>
+        <v>247930000</v>
       </c>
     </row>
     <row r="535">
@@ -8260,7 +8260,7 @@
         <v>2001</v>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>354330000</v>
       </c>
     </row>
     <row r="536">
@@ -8274,7 +8274,7 @@
         <v>2002</v>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>240540000</v>
       </c>
     </row>
     <row r="537">
@@ -8288,7 +8288,7 @@
         <v>2003</v>
       </c>
       <c r="D537" t="n">
-        <v>69210000</v>
+        <v>292910000</v>
       </c>
     </row>
     <row r="538">
@@ -8302,7 +8302,7 @@
         <v>2004</v>
       </c>
       <c r="D538" t="n">
-        <v>1131630000</v>
+        <v>71840000</v>
       </c>
     </row>
     <row r="539">
@@ -8316,7 +8316,7 @@
         <v>2005</v>
       </c>
       <c r="D539" t="n">
-        <v>624220000</v>
+        <v>54360000</v>
       </c>
     </row>
     <row r="540">
@@ -8330,7 +8330,7 @@
         <v>2006</v>
       </c>
       <c r="D540" t="n">
-        <v>8440000</v>
+        <v>10910000</v>
       </c>
     </row>
     <row r="541">
@@ -8344,7 +8344,7 @@
         <v>2007</v>
       </c>
       <c r="D541" t="n">
-        <v>7280000</v>
+        <v>16940000</v>
       </c>
     </row>
     <row r="542">
@@ -8358,7 +8358,7 @@
         <v>2008</v>
       </c>
       <c r="D542" t="n">
-        <v>32710000</v>
+        <v>14380000</v>
       </c>
     </row>
     <row r="543">
@@ -8372,7 +8372,7 @@
         <v>2009</v>
       </c>
       <c r="D543" t="n">
-        <v>29240000</v>
+        <v>8360000</v>
       </c>
     </row>
     <row r="544">
@@ -8386,7 +8386,7 @@
         <v>2010</v>
       </c>
       <c r="D544" t="n">
-        <v>6530000</v>
+        <v>29150000</v>
       </c>
     </row>
     <row r="545">
@@ -8400,7 +8400,7 @@
         <v>2011</v>
       </c>
       <c r="D545" t="n">
-        <v>37150000</v>
+        <v>19990000</v>
       </c>
     </row>
     <row r="546">
@@ -8414,7 +8414,7 @@
         <v>2012</v>
       </c>
       <c r="D546" t="n">
-        <v>70090000</v>
+        <v>63740000</v>
       </c>
     </row>
     <row r="547">
@@ -8428,7 +8428,7 @@
         <v>2013</v>
       </c>
       <c r="D547" t="n">
-        <v>2590000</v>
+        <v>187200000</v>
       </c>
     </row>
     <row r="548">
@@ -8646,45 +8646,48 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>84</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>87</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>88</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>89</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>90</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>91</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>92</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>93</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>94</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>95</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>96</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>97</v>
       </c>
     </row>
@@ -8692,102 +8695,108 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
+      <c r="B2" t="s">
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>766930000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>969130000</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1032810000</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1289640000</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1191190000</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1008960000</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>955580000</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1495250000</v>
       </c>
       <c r="K2" t="n">
-        <v>13420000</v>
+        <v>1139660000</v>
       </c>
       <c r="L2" t="n">
-        <v>29620000</v>
+        <v>3803070000</v>
       </c>
       <c r="M2" t="n">
-        <v>23970000</v>
+        <v>2120970000</v>
       </c>
       <c r="N2" t="n">
-        <v>60820000</v>
+        <v>2977940000</v>
       </c>
       <c r="O2" t="n">
-        <v>7890000</v>
+        <v>3510110000</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2302030000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>766930000</v>
+      <c r="B3" t="s">
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>969130000</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1032810000</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1289640000</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1191190000</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1008960000</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>955580000</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1495250000</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1139660000</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>3803070000</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2120970000</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2977940000</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>3510110000</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2302030000</v>
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="s">
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -8826,6 +8835,9 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
+        <v>0</v>
+      </c>
+      <c r="P4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8833,46 +8845,49 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
         <v>4372280000</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>4497470000</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>4661280000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3576380000</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>3052380000</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>4148170000</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>5119390000</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>5597310000</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>6582520000</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>8282310000</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>5474940000</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>5491840000</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>6899660000</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>6157160000</v>
       </c>
     </row>
@@ -8880,948 +8895,1008 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>270870000</v>
+      <c r="B6" t="s">
+        <v>13</v>
       </c>
       <c r="C6" t="n">
-        <v>188140000</v>
+        <v>1576950000</v>
       </c>
       <c r="D6" t="n">
-        <v>251160000</v>
+        <v>168360000</v>
       </c>
       <c r="E6" t="n">
-        <v>216560000</v>
+        <v>142970000</v>
       </c>
       <c r="F6" t="n">
-        <v>164270000</v>
+        <v>248090000</v>
       </c>
       <c r="G6" t="n">
-        <v>659210000</v>
+        <v>179100000</v>
       </c>
       <c r="H6" t="n">
-        <v>169470000</v>
+        <v>179090000</v>
       </c>
       <c r="I6" t="n">
-        <v>101590000</v>
+        <v>316090000</v>
       </c>
       <c r="J6" t="n">
-        <v>269460000</v>
+        <v>387630000</v>
       </c>
       <c r="K6" t="n">
-        <v>183810000</v>
+        <v>200920000</v>
       </c>
       <c r="L6" t="n">
-        <v>154200000</v>
+        <v>540650000</v>
       </c>
       <c r="M6" t="n">
-        <v>227120000</v>
+        <v>318970000</v>
       </c>
       <c r="N6" t="n">
-        <v>147710000</v>
+        <v>260910000</v>
       </c>
       <c r="O6" t="n">
-        <v>617750000</v>
+        <v>326860000</v>
+      </c>
+      <c r="P6" t="n">
+        <v>492930000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>1576950000</v>
+      <c r="B7" t="s">
+        <v>15</v>
       </c>
       <c r="C7" t="n">
-        <v>168360000</v>
+        <v>270870000</v>
       </c>
       <c r="D7" t="n">
-        <v>142970000</v>
+        <v>188140000</v>
       </c>
       <c r="E7" t="n">
-        <v>248090000</v>
+        <v>251160000</v>
       </c>
       <c r="F7" t="n">
-        <v>179100000</v>
+        <v>216560000</v>
       </c>
       <c r="G7" t="n">
-        <v>179090000</v>
+        <v>164270000</v>
       </c>
       <c r="H7" t="n">
-        <v>316090000</v>
+        <v>659210000</v>
       </c>
       <c r="I7" t="n">
-        <v>387630000</v>
+        <v>169470000</v>
       </c>
       <c r="J7" t="n">
-        <v>200920000</v>
+        <v>101590000</v>
       </c>
       <c r="K7" t="n">
-        <v>540650000</v>
+        <v>269460000</v>
       </c>
       <c r="L7" t="n">
-        <v>318970000</v>
+        <v>183810000</v>
       </c>
       <c r="M7" t="n">
-        <v>260910000</v>
+        <v>154200000</v>
       </c>
       <c r="N7" t="n">
-        <v>326860000</v>
+        <v>227120000</v>
       </c>
       <c r="O7" t="n">
-        <v>492930000</v>
+        <v>147710000</v>
+      </c>
+      <c r="P7" t="n">
+        <v>617750000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>92130000</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>71700000</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>229050000</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1367570000</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>29210000</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>548810000</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>33950000</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>31850000</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>49930000</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>126160000</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>19360000</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>9990000</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>146760000</v>
+      </c>
+      <c r="P8" t="n">
+        <v>187040000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>92130000</v>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>71700000</v>
+        <v>2364870000</v>
       </c>
       <c r="D9" t="n">
-        <v>229050000</v>
+        <v>2519900000</v>
       </c>
       <c r="E9" t="n">
-        <v>1367570000</v>
+        <v>2018320000</v>
       </c>
       <c r="F9" t="n">
-        <v>29210000</v>
+        <v>1251520000</v>
       </c>
       <c r="G9" t="n">
-        <v>548810000</v>
+        <v>1018850000</v>
       </c>
       <c r="H9" t="n">
-        <v>33950000</v>
+        <v>1843840000</v>
       </c>
       <c r="I9" t="n">
-        <v>31850000</v>
+        <v>2836590000</v>
       </c>
       <c r="J9" t="n">
-        <v>49930000</v>
+        <v>1944780000</v>
       </c>
       <c r="K9" t="n">
-        <v>126160000</v>
+        <v>3448810000</v>
       </c>
       <c r="L9" t="n">
-        <v>19360000</v>
+        <v>1828010000</v>
       </c>
       <c r="M9" t="n">
-        <v>9990000</v>
+        <v>3586720000</v>
       </c>
       <c r="N9" t="n">
-        <v>146760000</v>
+        <v>10580610000</v>
       </c>
       <c r="O9" t="n">
-        <v>187040000</v>
+        <v>3996690000</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3228360000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>2364870000</v>
+      <c r="B10" t="s">
+        <v>21</v>
       </c>
       <c r="C10" t="n">
-        <v>2519900000</v>
+        <v>99040000</v>
       </c>
       <c r="D10" t="n">
-        <v>2018320000</v>
+        <v>79520000</v>
       </c>
       <c r="E10" t="n">
-        <v>1251520000</v>
+        <v>164580000</v>
       </c>
       <c r="F10" t="n">
-        <v>1018850000</v>
+        <v>99270000</v>
       </c>
       <c r="G10" t="n">
-        <v>1843840000</v>
+        <v>193310000</v>
       </c>
       <c r="H10" t="n">
-        <v>2836590000</v>
+        <v>41180000</v>
       </c>
       <c r="I10" t="n">
-        <v>1944780000</v>
+        <v>97180000</v>
       </c>
       <c r="J10" t="n">
-        <v>3448810000</v>
+        <v>109420000</v>
       </c>
       <c r="K10" t="n">
-        <v>1828010000</v>
+        <v>103100000</v>
       </c>
       <c r="L10" t="n">
-        <v>3586720000</v>
+        <v>119780000</v>
       </c>
       <c r="M10" t="n">
-        <v>10580610000</v>
+        <v>256690000</v>
       </c>
       <c r="N10" t="n">
-        <v>3996690000</v>
+        <v>81130000</v>
       </c>
       <c r="O10" t="n">
-        <v>3228360000</v>
+        <v>36000000</v>
+      </c>
+      <c r="P10" t="n">
+        <v>54330000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>99040000</v>
+      <c r="B11" t="s">
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>79520000</v>
+        <v>16200000</v>
       </c>
       <c r="D11" t="n">
-        <v>164580000</v>
+        <v>12200000</v>
       </c>
       <c r="E11" t="n">
-        <v>99270000</v>
+        <v>15110000</v>
       </c>
       <c r="F11" t="n">
-        <v>193310000</v>
+        <v>71490000</v>
       </c>
       <c r="G11" t="n">
-        <v>41180000</v>
+        <v>58910000</v>
       </c>
       <c r="H11" t="n">
-        <v>97180000</v>
+        <v>31560000</v>
       </c>
       <c r="I11" t="n">
-        <v>109420000</v>
+        <v>55470000</v>
       </c>
       <c r="J11" t="n">
-        <v>103100000</v>
+        <v>30830000</v>
       </c>
       <c r="K11" t="n">
-        <v>119780000</v>
+        <v>48340000</v>
       </c>
       <c r="L11" t="n">
-        <v>256690000</v>
+        <v>36750000</v>
       </c>
       <c r="M11" t="n">
-        <v>81130000</v>
+        <v>39450000</v>
       </c>
       <c r="N11" t="n">
-        <v>36000000</v>
+        <v>43160000</v>
       </c>
       <c r="O11" t="n">
-        <v>54330000</v>
+        <v>37110000</v>
+      </c>
+      <c r="P11" t="n">
+        <v>44530000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>15190000</v>
+      <c r="B12" t="s">
+        <v>25</v>
       </c>
       <c r="C12" t="n">
-        <v>12800000</v>
+        <v>665340000</v>
       </c>
       <c r="D12" t="n">
-        <v>5870000</v>
+        <v>866110000</v>
       </c>
       <c r="E12" t="n">
-        <v>90000</v>
+        <v>952900000</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1136390000</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>2066390000</v>
       </c>
       <c r="H12" t="n">
-        <v>24370000</v>
+        <v>1834490000</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1562570000</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>2381610000</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>2806300000</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>3781980000</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>3769120000</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3937660000</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>3336320000</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3823230000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>1783150000</v>
+      <c r="B13" t="s">
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>954360000</v>
+        <v>1047470000</v>
       </c>
       <c r="D13" t="n">
-        <v>8017480000</v>
+        <v>1144160000</v>
       </c>
       <c r="E13" t="n">
-        <v>-1362510000</v>
+        <v>2299690000</v>
       </c>
       <c r="F13" t="n">
-        <v>1035860000</v>
+        <v>2023810000</v>
       </c>
       <c r="G13" t="n">
-        <v>12171020000</v>
+        <v>2790820000</v>
       </c>
       <c r="H13" t="n">
-        <v>126600000</v>
+        <v>2998580000</v>
       </c>
       <c r="I13" t="n">
-        <v>1430370000</v>
+        <v>3660720000</v>
       </c>
       <c r="J13" t="n">
-        <v>2554590000</v>
+        <v>5986670000</v>
       </c>
       <c r="K13" t="n">
-        <v>1557360000</v>
+        <v>5758930000</v>
       </c>
       <c r="L13" t="n">
-        <v>1308280000</v>
+        <v>6365600000</v>
       </c>
       <c r="M13" t="n">
-        <v>1389870000</v>
+        <v>8217370000</v>
       </c>
       <c r="N13" t="n">
-        <v>1288400000</v>
+        <v>919540000</v>
       </c>
       <c r="O13" t="n">
-        <v>1160050000</v>
+        <v>762060000</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1366230000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>16200000</v>
+      <c r="B14" t="s">
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>12200000</v>
+        <v>3610000</v>
       </c>
       <c r="D14" t="n">
-        <v>15110000</v>
+        <v>14090000</v>
       </c>
       <c r="E14" t="n">
-        <v>71490000</v>
+        <v>7210000</v>
       </c>
       <c r="F14" t="n">
-        <v>58910000</v>
+        <v>27800000</v>
       </c>
       <c r="G14" t="n">
-        <v>31560000</v>
+        <v>17560000</v>
       </c>
       <c r="H14" t="n">
-        <v>55470000</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>30830000</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>48340000</v>
+        <v>100380000</v>
       </c>
       <c r="K14" t="n">
-        <v>36750000</v>
+        <v>36790000</v>
       </c>
       <c r="L14" t="n">
-        <v>39450000</v>
+        <v>142950000</v>
       </c>
       <c r="M14" t="n">
-        <v>43160000</v>
+        <v>52090000</v>
       </c>
       <c r="N14" t="n">
-        <v>37110000</v>
+        <v>1068330000</v>
       </c>
       <c r="O14" t="n">
-        <v>44530000</v>
+        <v>14210000</v>
+      </c>
+      <c r="P14" t="n">
+        <v>23790000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>665340000</v>
+      <c r="B15" t="s">
+        <v>31</v>
       </c>
       <c r="C15" t="n">
-        <v>866110000</v>
+        <v>607950000</v>
       </c>
       <c r="D15" t="n">
-        <v>952900000</v>
+        <v>640380000</v>
       </c>
       <c r="E15" t="n">
-        <v>1136390000</v>
+        <v>1430030000</v>
       </c>
       <c r="F15" t="n">
-        <v>2066390000</v>
+        <v>5609830000</v>
       </c>
       <c r="G15" t="n">
-        <v>1834490000</v>
+        <v>485370000</v>
       </c>
       <c r="H15" t="n">
-        <v>1562570000</v>
+        <v>2197030000</v>
       </c>
       <c r="I15" t="n">
-        <v>2381610000</v>
+        <v>350870000</v>
       </c>
       <c r="J15" t="n">
-        <v>2806300000</v>
+        <v>226300000</v>
       </c>
       <c r="K15" t="n">
-        <v>3781980000</v>
+        <v>896490000</v>
       </c>
       <c r="L15" t="n">
-        <v>3769120000</v>
+        <v>927170000</v>
       </c>
       <c r="M15" t="n">
-        <v>3937660000</v>
+        <v>801790000</v>
       </c>
       <c r="N15" t="n">
-        <v>3336320000</v>
+        <v>1199310000</v>
       </c>
       <c r="O15" t="n">
-        <v>3823230000</v>
+        <v>1272330000</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1437130000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>6210000</v>
+      <c r="B16" t="s">
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>273290000</v>
+        <v>1783150000</v>
       </c>
       <c r="D16" t="n">
-        <v>92490000</v>
+        <v>954360000</v>
       </c>
       <c r="E16" t="n">
-        <v>109320000</v>
+        <v>8017480000</v>
       </c>
       <c r="F16" t="n">
-        <v>29750000</v>
+        <v>-1362510000</v>
       </c>
       <c r="G16" t="n">
-        <v>76150000</v>
+        <v>1035860000</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>12171020000</v>
       </c>
       <c r="I16" t="n">
-        <v>6060000</v>
+        <v>126600000</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1430370000</v>
       </c>
       <c r="K16" t="n">
-        <v>3210000</v>
+        <v>2554590000</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1557360000</v>
       </c>
       <c r="M16" t="n">
-        <v>3780000</v>
+        <v>1308280000</v>
       </c>
       <c r="N16" t="n">
-        <v>2480000</v>
+        <v>1389870000</v>
       </c>
       <c r="O16" t="n">
-        <v>13930000</v>
+        <v>1288400000</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1160050000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="n">
-        <v>1047470000</v>
+      <c r="B17" t="s">
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>1144160000</v>
+        <v>4640000</v>
       </c>
       <c r="D17" t="n">
-        <v>2299690000</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2023810000</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>2790820000</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2998580000</v>
+        <v>4300000</v>
       </c>
       <c r="H17" t="n">
-        <v>3660720000</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>5986670000</v>
+        <v>9420000</v>
       </c>
       <c r="J17" t="n">
-        <v>5758930000</v>
+        <v>3610000</v>
       </c>
       <c r="K17" t="n">
-        <v>6365600000</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>8217370000</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>919540000</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>762060000</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>1366230000</v>
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>3610000</v>
+      <c r="B18" t="s">
+        <v>37</v>
       </c>
       <c r="C18" t="n">
-        <v>14090000</v>
+        <v>10105110000</v>
       </c>
       <c r="D18" t="n">
-        <v>7210000</v>
+        <v>9500270000</v>
       </c>
       <c r="E18" t="n">
-        <v>27800000</v>
+        <v>8372490000</v>
       </c>
       <c r="F18" t="n">
-        <v>17560000</v>
+        <v>11187800000</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4580370000</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>5803600000</v>
       </c>
       <c r="I18" t="n">
-        <v>100380000</v>
+        <v>7042280000</v>
       </c>
       <c r="J18" t="n">
-        <v>36790000</v>
+        <v>7181710000</v>
       </c>
       <c r="K18" t="n">
-        <v>142950000</v>
+        <v>7279280000</v>
       </c>
       <c r="L18" t="n">
-        <v>52090000</v>
+        <v>11971220000</v>
       </c>
       <c r="M18" t="n">
-        <v>1068330000</v>
+        <v>10567600000</v>
       </c>
       <c r="N18" t="n">
-        <v>14210000</v>
+        <v>7015850000</v>
       </c>
       <c r="O18" t="n">
-        <v>23790000</v>
+        <v>6446510000</v>
+      </c>
+      <c r="P18" t="n">
+        <v>9818310000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>607950000</v>
+      <c r="B19" t="s">
+        <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>640380000</v>
+        <v>17870590000</v>
       </c>
       <c r="D19" t="n">
-        <v>1430030000</v>
+        <v>16991560000</v>
       </c>
       <c r="E19" t="n">
-        <v>5609830000</v>
+        <v>14680840000</v>
       </c>
       <c r="F19" t="n">
-        <v>485370000</v>
+        <v>13839480000</v>
       </c>
       <c r="G19" t="n">
-        <v>2197030000</v>
+        <v>11415560000</v>
       </c>
       <c r="H19" t="n">
-        <v>350870000</v>
+        <v>9878120000</v>
       </c>
       <c r="I19" t="n">
-        <v>226300000</v>
+        <v>13357610000</v>
       </c>
       <c r="J19" t="n">
-        <v>896490000</v>
+        <v>10684010000</v>
       </c>
       <c r="K19" t="n">
-        <v>927170000</v>
+        <v>13621280000</v>
       </c>
       <c r="L19" t="n">
-        <v>801790000</v>
+        <v>22450110000</v>
       </c>
       <c r="M19" t="n">
-        <v>1199310000</v>
+        <v>27534370000</v>
       </c>
       <c r="N19" t="n">
-        <v>1272330000</v>
+        <v>15589690000</v>
       </c>
       <c r="O19" t="n">
-        <v>1437130000</v>
+        <v>15136130000</v>
+      </c>
+      <c r="P19" t="n">
+        <v>16218620000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>247930000</v>
+      <c r="B20" t="s">
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>354330000</v>
+        <v>1936130000</v>
       </c>
       <c r="D20" t="n">
-        <v>240540000</v>
+        <v>1675180000</v>
       </c>
       <c r="E20" t="n">
-        <v>292910000</v>
+        <v>2141350000</v>
       </c>
       <c r="F20" t="n">
-        <v>71840000</v>
+        <v>2828890000</v>
       </c>
       <c r="G20" t="n">
-        <v>54360000</v>
+        <v>2800760000</v>
       </c>
       <c r="H20" t="n">
-        <v>10910000</v>
+        <v>2938400000</v>
       </c>
       <c r="I20" t="n">
-        <v>16940000</v>
+        <v>4364090000</v>
       </c>
       <c r="J20" t="n">
-        <v>14380000</v>
+        <v>4622270000</v>
       </c>
       <c r="K20" t="n">
-        <v>8360000</v>
+        <v>5107480000</v>
       </c>
       <c r="L20" t="n">
-        <v>29150000</v>
+        <v>4688730000</v>
       </c>
       <c r="M20" t="n">
-        <v>19990000</v>
+        <v>4345450000</v>
       </c>
       <c r="N20" t="n">
-        <v>63740000</v>
+        <v>4619840000</v>
       </c>
       <c r="O20" t="n">
-        <v>187200000</v>
+        <v>6414080000</v>
+      </c>
+      <c r="P20" t="n">
+        <v>6736730000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="n">
-        <v>4640000</v>
+      <c r="B21" t="s">
+        <v>43</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>50260000</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>52590000</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>30560000</v>
       </c>
       <c r="F21" t="n">
-        <v>4300000</v>
+        <v>30820000</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>37340000</v>
       </c>
       <c r="H21" t="n">
-        <v>9420000</v>
+        <v>31610000</v>
       </c>
       <c r="I21" t="n">
-        <v>3610000</v>
+        <v>45330000</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>42880000</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>54140000</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>39550000</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>45900000</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>47700000</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>63390000</v>
+      </c>
+      <c r="P21" t="n">
+        <v>57450000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="n">
-        <v>17870590000</v>
+      <c r="B22" t="s">
+        <v>45</v>
       </c>
       <c r="C22" t="n">
-        <v>16991560000</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>14680840000</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>13839480000</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11415560000</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>9878120000</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>13357610000</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>10684010000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>13621280000</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>22450110000</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>27534370000</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>15589690000</v>
+        <v>1548800000</v>
       </c>
       <c r="N22" t="n">
-        <v>15136130000</v>
+        <v>1643650000</v>
       </c>
       <c r="O22" t="n">
-        <v>16218620000</v>
+        <v>1304530000</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>10105110000</v>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
       <c r="C23" t="n">
-        <v>9500270000</v>
+        <v>185040000</v>
       </c>
       <c r="D23" t="n">
-        <v>8372490000</v>
+        <v>111070000</v>
       </c>
       <c r="E23" t="n">
-        <v>11187800000</v>
+        <v>417540000</v>
       </c>
       <c r="F23" t="n">
-        <v>4580370000</v>
+        <v>550360000</v>
       </c>
       <c r="G23" t="n">
-        <v>5803600000</v>
+        <v>2402380000</v>
       </c>
       <c r="H23" t="n">
-        <v>7042280000</v>
+        <v>106940000</v>
       </c>
       <c r="I23" t="n">
-        <v>7181710000</v>
+        <v>181190000</v>
       </c>
       <c r="J23" t="n">
-        <v>7279280000</v>
+        <v>140180000</v>
       </c>
       <c r="K23" t="n">
-        <v>11971220000</v>
+        <v>973680000</v>
       </c>
       <c r="L23" t="n">
-        <v>10567600000</v>
+        <v>41440000</v>
       </c>
       <c r="M23" t="n">
-        <v>7015850000</v>
+        <v>56280000</v>
       </c>
       <c r="N23" t="n">
-        <v>6446510000</v>
+        <v>169390000</v>
       </c>
       <c r="O23" t="n">
-        <v>9818310000</v>
+        <v>197600000</v>
+      </c>
+      <c r="P23" t="n">
+        <v>153530000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>50260000</v>
+      <c r="B24" t="s">
+        <v>49</v>
       </c>
       <c r="C24" t="n">
-        <v>52590000</v>
+        <v>5506300000</v>
       </c>
       <c r="D24" t="n">
-        <v>30560000</v>
+        <v>9340220000</v>
       </c>
       <c r="E24" t="n">
-        <v>30820000</v>
+        <v>9018720000</v>
       </c>
       <c r="F24" t="n">
-        <v>37340000</v>
+        <v>11539770000</v>
       </c>
       <c r="G24" t="n">
-        <v>31610000</v>
+        <v>7951620000</v>
       </c>
       <c r="H24" t="n">
-        <v>45330000</v>
+        <v>10098000000</v>
       </c>
       <c r="I24" t="n">
-        <v>42880000</v>
+        <v>16268670000</v>
       </c>
       <c r="J24" t="n">
-        <v>54140000</v>
+        <v>12028220000</v>
       </c>
       <c r="K24" t="n">
-        <v>39550000</v>
+        <v>6800700000</v>
       </c>
       <c r="L24" t="n">
-        <v>45900000</v>
+        <v>13828490000</v>
       </c>
       <c r="M24" t="n">
-        <v>47700000</v>
+        <v>9754570000</v>
       </c>
       <c r="N24" t="n">
-        <v>63390000</v>
+        <v>9897090000</v>
       </c>
       <c r="O24" t="n">
-        <v>57450000</v>
+        <v>12236270000</v>
+      </c>
+      <c r="P24" t="n">
+        <v>8695310000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>1936130000</v>
+      <c r="B25" t="s">
+        <v>51</v>
       </c>
       <c r="C25" t="n">
-        <v>1675180000</v>
+        <v>746830000</v>
       </c>
       <c r="D25" t="n">
-        <v>2141350000</v>
+        <v>850970000</v>
       </c>
       <c r="E25" t="n">
-        <v>2828890000</v>
+        <v>1028500000</v>
       </c>
       <c r="F25" t="n">
-        <v>2800760000</v>
+        <v>935660000</v>
       </c>
       <c r="G25" t="n">
-        <v>2938400000</v>
+        <v>1257540000</v>
       </c>
       <c r="H25" t="n">
-        <v>4364090000</v>
+        <v>1504870000</v>
       </c>
       <c r="I25" t="n">
-        <v>4622270000</v>
+        <v>1876330000</v>
       </c>
       <c r="J25" t="n">
-        <v>5107480000</v>
+        <v>2347800000</v>
       </c>
       <c r="K25" t="n">
-        <v>4688730000</v>
+        <v>3852950000</v>
       </c>
       <c r="L25" t="n">
-        <v>4345450000</v>
+        <v>3098220000</v>
       </c>
       <c r="M25" t="n">
-        <v>4619840000</v>
+        <v>4614790000</v>
       </c>
       <c r="N25" t="n">
-        <v>6414080000</v>
+        <v>5114810000</v>
       </c>
       <c r="O25" t="n">
-        <v>6736730000</v>
+        <v>4530060000</v>
+      </c>
+      <c r="P25" t="n">
+        <v>6062330000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>0</v>
+      <c r="B26" t="s">
+        <v>53</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -9851,15 +9926,18 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1548800000</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1643650000</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1304530000</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9867,149 +9945,158 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>185040000</v>
+      <c r="B27" t="s">
+        <v>55</v>
       </c>
       <c r="C27" t="n">
-        <v>111070000</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>417540000</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>550360000</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>2402380000</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>106940000</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>181190000</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>140180000</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>973680000</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>41440000</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>56280000</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>169390000</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>197600000</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>153530000</v>
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>5506300000</v>
+      <c r="B28" t="s">
+        <v>57</v>
       </c>
       <c r="C28" t="n">
-        <v>9340220000</v>
+        <v>233110000</v>
       </c>
       <c r="D28" t="n">
-        <v>9018720000</v>
+        <v>522880000</v>
       </c>
       <c r="E28" t="n">
-        <v>11539770000</v>
+        <v>360110000</v>
       </c>
       <c r="F28" t="n">
-        <v>7951620000</v>
+        <v>1757170000</v>
       </c>
       <c r="G28" t="n">
-        <v>10098000000</v>
+        <v>174930000</v>
       </c>
       <c r="H28" t="n">
-        <v>16268670000</v>
+        <v>172540000</v>
       </c>
       <c r="I28" t="n">
-        <v>12028220000</v>
+        <v>378200000</v>
       </c>
       <c r="J28" t="n">
-        <v>6800700000</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>13828490000</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>9754570000</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>9897090000</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>12236270000</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>8695310000</v>
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>746830000</v>
+      <c r="B29" t="s">
+        <v>59</v>
       </c>
       <c r="C29" t="n">
-        <v>850970000</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>1028500000</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>935660000</v>
+        <v>4920000</v>
       </c>
       <c r="F29" t="n">
-        <v>1257540000</v>
+        <v>5160000</v>
       </c>
       <c r="G29" t="n">
-        <v>1504870000</v>
+        <v>7760000</v>
       </c>
       <c r="H29" t="n">
-        <v>1876330000</v>
+        <v>9580000</v>
       </c>
       <c r="I29" t="n">
-        <v>2347800000</v>
+        <v>10620000</v>
       </c>
       <c r="J29" t="n">
-        <v>3852950000</v>
+        <v>9970000</v>
       </c>
       <c r="K29" t="n">
-        <v>3098220000</v>
+        <v>10270000</v>
       </c>
       <c r="L29" t="n">
-        <v>4614790000</v>
+        <v>10380000</v>
       </c>
       <c r="M29" t="n">
-        <v>5114810000</v>
+        <v>9500000</v>
       </c>
       <c r="N29" t="n">
-        <v>4530060000</v>
+        <v>9810000</v>
       </c>
       <c r="O29" t="n">
-        <v>6062330000</v>
+        <v>11270000</v>
+      </c>
+      <c r="P29" t="n">
+        <v>10700000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>0</v>
+      <c r="B30" t="s">
+        <v>61</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -10048,6 +10135,9 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10055,8 +10145,8 @@
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>0</v>
+      <c r="B31" t="s">
+        <v>63</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -10068,60 +10158,63 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>440000</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>460000</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>7030000</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>6890000</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>6250000</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>660000</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>150000</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>310000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>233110000</v>
+      <c r="B32" t="s">
+        <v>65</v>
       </c>
       <c r="C32" t="n">
-        <v>522880000</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>360110000</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1757170000</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>174930000</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>172540000</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>378200000</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -10133,54 +10226,57 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>379330000</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>510460000</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>598550000</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>447930000</v>
+      </c>
+      <c r="P32" t="n">
+        <v>678020000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>0</v>
+      <c r="B33" t="s">
+        <v>67</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>138780000</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>440000</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>460000</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>7030000</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>6890000</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6250000</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>660000</v>
+        <v>2053450000</v>
       </c>
       <c r="K33" t="n">
-        <v>150000</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>750000</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10189,15 +10285,18 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>310000</v>
+        <v>2060000</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3010000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>0</v>
+      <c r="B34" t="s">
+        <v>69</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -10236,6 +10335,9 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10243,114 +10345,120 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="n">
-        <v>0</v>
+      <c r="B35" t="s">
+        <v>71</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>6210000</v>
       </c>
       <c r="D35" t="n">
-        <v>4920000</v>
+        <v>273290000</v>
       </c>
       <c r="E35" t="n">
-        <v>5160000</v>
+        <v>92490000</v>
       </c>
       <c r="F35" t="n">
-        <v>7760000</v>
+        <v>109320000</v>
       </c>
       <c r="G35" t="n">
-        <v>9580000</v>
+        <v>29750000</v>
       </c>
       <c r="H35" t="n">
-        <v>10620000</v>
+        <v>76150000</v>
       </c>
       <c r="I35" t="n">
-        <v>9970000</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>10270000</v>
+        <v>6060000</v>
       </c>
       <c r="K35" t="n">
-        <v>10380000</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>9500000</v>
+        <v>3210000</v>
       </c>
       <c r="M35" t="n">
-        <v>9810000</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>11270000</v>
+        <v>3780000</v>
       </c>
       <c r="O35" t="n">
-        <v>10700000</v>
+        <v>2480000</v>
+      </c>
+      <c r="P35" t="n">
+        <v>13930000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>0</v>
+      <c r="B36" t="s">
+        <v>73</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>8530000</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>4430000</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>6160000</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>93680000</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>39730000</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>50940000</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>98580000</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>41970000</v>
       </c>
       <c r="K36" t="n">
-        <v>379330000</v>
+        <v>66110000</v>
       </c>
       <c r="L36" t="n">
-        <v>510460000</v>
+        <v>89640000</v>
       </c>
       <c r="M36" t="n">
-        <v>598550000</v>
+        <v>50000</v>
       </c>
       <c r="N36" t="n">
-        <v>447930000</v>
+        <v>50720000</v>
       </c>
       <c r="O36" t="n">
-        <v>678020000</v>
+        <v>49220000</v>
+      </c>
+      <c r="P36" t="n">
+        <v>44310000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>138780000</v>
+      <c r="B37" t="s">
+        <v>75</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>15190000</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>12800000</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>5870000</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -10359,7 +10467,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2053450000</v>
+        <v>24370000</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -10374,18 +10482,21 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>2060000</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>3010000</v>
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>0</v>
+      <c r="B38" t="s">
+        <v>77</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -10397,174 +10508,186 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>69210000</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1131630000</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>624220000</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>8440000</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>7280000</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>32710000</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>29240000</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>6530000</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>37150000</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>70090000</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2590000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>8530000</v>
+      <c r="B39" t="s">
+        <v>79</v>
       </c>
       <c r="C39" t="n">
-        <v>4430000</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>6160000</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>93680000</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>39730000</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>50940000</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>98580000</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>41970000</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>66110000</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>89640000</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>50000</v>
+        <v>13420000</v>
       </c>
       <c r="M39" t="n">
-        <v>50720000</v>
+        <v>29620000</v>
       </c>
       <c r="N39" t="n">
-        <v>49220000</v>
+        <v>23970000</v>
       </c>
       <c r="O39" t="n">
-        <v>44310000</v>
+        <v>60820000</v>
+      </c>
+      <c r="P39" t="n">
+        <v>7890000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>0</v>
+      <c r="B40" t="s">
+        <v>81</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>247930000</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>354330000</v>
       </c>
       <c r="E40" t="n">
-        <v>69210000</v>
+        <v>240540000</v>
       </c>
       <c r="F40" t="n">
-        <v>1131630000</v>
+        <v>292910000</v>
       </c>
       <c r="G40" t="n">
-        <v>624220000</v>
+        <v>71840000</v>
       </c>
       <c r="H40" t="n">
-        <v>8440000</v>
+        <v>54360000</v>
       </c>
       <c r="I40" t="n">
-        <v>7280000</v>
+        <v>10910000</v>
       </c>
       <c r="J40" t="n">
-        <v>32710000</v>
+        <v>16940000</v>
       </c>
       <c r="K40" t="n">
-        <v>29240000</v>
+        <v>14380000</v>
       </c>
       <c r="L40" t="n">
-        <v>6530000</v>
+        <v>8360000</v>
       </c>
       <c r="M40" t="n">
-        <v>37150000</v>
+        <v>29150000</v>
       </c>
       <c r="N40" t="n">
-        <v>70090000</v>
+        <v>19990000</v>
       </c>
       <c r="O40" t="n">
-        <v>2590000</v>
+        <v>63740000</v>
+      </c>
+      <c r="P40" t="n">
+        <v>187200000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
         <v>2084520000</v>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>2329490000</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>2024510000</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>3713280000</v>
       </c>
-      <c r="F41" t="n">
+      <c r="G41" t="n">
         <v>1092140000</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>850830000</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>588090000</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>404850000</v>
       </c>
-      <c r="J41" t="n">
+      <c r="K41" t="n">
         <v>436500000</v>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>2231670000</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>1297350000</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>4779860000</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>3455130000</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>2791000000</v>
       </c>
     </row>
